--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_4/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_4/forecast_point_GW1.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5555012240671107</v>
+        <v>1.571213357643546</v>
       </c>
       <c r="C2" t="n">
-        <v>1.486475652950495</v>
+        <v>1.4883002983412834</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6410257791517846</v>
+        <v>1.6440526551263328</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6247334715620285</v>
+        <v>1.6038101723058857</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7064997002184668</v>
+        <v>1.6810901369035944</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6778567823789048</v>
+        <v>1.6470766628402889</v>
       </c>
       <c r="H2" t="n">
-        <v>1.492480124504252</v>
+        <v>1.4907780450907189</v>
       </c>
       <c r="I2" t="n">
-        <v>1.5555012240671107</v>
+        <v>1.4932640570038158</v>
       </c>
       <c r="J2" t="n">
-        <v>1.486475652950495</v>
+        <v>1.6633944514580499</v>
       </c>
       <c r="K2" t="n">
-        <v>1.6410257791517846</v>
+        <v>1.5999893028544636</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6247334715620285</v>
+        <v>1.627124190675361</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1.708146927504574</v>
+        <v>1.67432223587082</v>
       </c>
       <c r="C10" t="n">
-        <v>1.8567669674275915</v>
+        <v>1.830955519358178</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9711146358673224</v>
+        <v>1.9319892375258787</v>
       </c>
       <c r="E10" t="n">
-        <v>1.8887802733148469</v>
+        <v>1.8430030400586026</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7825626579915368</v>
+        <v>1.7486539659231497</v>
       </c>
       <c r="G10" t="n">
-        <v>2.051851778627669</v>
+        <v>1.9718863882194306</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0279159100366257</v>
+        <v>1.9319892375258787</v>
       </c>
       <c r="I10" t="n">
-        <v>1.708146927504574</v>
+        <v>1.9085853715405507</v>
       </c>
       <c r="J10" t="n">
-        <v>1.8567669674275915</v>
+        <v>1.7106810245740944</v>
       </c>
       <c r="K10" t="n">
-        <v>1.9711146358673224</v>
+        <v>1.7447809787137285</v>
       </c>
       <c r="L10" t="n">
-        <v>1.8887802733148469</v>
+        <v>1.9284421346560683</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0568685308069354</v>
+        <v>2.0362998454988657</v>
       </c>
       <c r="C13" t="n">
-        <v>2.2384133315765933</v>
+        <v>2.2460474678510907</v>
       </c>
       <c r="D13" t="n">
-        <v>1.992432352327711</v>
+        <v>1.988764072239863</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0847809996823687</v>
+        <v>2.0909266106958846</v>
       </c>
       <c r="F13" t="n">
-        <v>2.14475792916913</v>
+        <v>2.1285900190980382</v>
       </c>
       <c r="G13" t="n">
-        <v>2.086256899280931</v>
+        <v>2.0362998454988657</v>
       </c>
       <c r="H13" t="n">
-        <v>2.281230909122746</v>
+        <v>2.252954134885807</v>
       </c>
       <c r="I13" t="n">
-        <v>2.0568685308069354</v>
+        <v>2.241923758844747</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2384133315765933</v>
+        <v>1.9464949106343352</v>
       </c>
       <c r="K13" t="n">
-        <v>1.992432352327711</v>
+        <v>2.2188391413691124</v>
       </c>
       <c r="L13" t="n">
-        <v>2.0847809996823687</v>
+        <v>2.2682993330087515</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.8194476129953667</v>
+        <v>2.8764061506316367</v>
       </c>
       <c r="C19" t="n">
-        <v>2.7400602520731634</v>
+        <v>2.820189743518</v>
       </c>
       <c r="D19" t="n">
-        <v>2.9461553257447695</v>
+        <v>3.038332802072092</v>
       </c>
       <c r="E19" t="n">
-        <v>2.819438915670351</v>
+        <v>2.8875983929734637</v>
       </c>
       <c r="F19" t="n">
-        <v>2.843061078736972</v>
+        <v>2.8875983929734637</v>
       </c>
       <c r="G19" t="n">
-        <v>2.8893495855674893</v>
+        <v>2.9650625050220536</v>
       </c>
       <c r="H19" t="n">
-        <v>3.003275098444606</v>
+        <v>3.018471534058894</v>
       </c>
       <c r="I19" t="n">
-        <v>2.8194476129953667</v>
+        <v>3.2508069520580136</v>
       </c>
       <c r="J19" t="n">
-        <v>2.7400602520731634</v>
+        <v>2.882791069063468</v>
       </c>
       <c r="K19" t="n">
-        <v>2.9461553257447695</v>
+        <v>2.7602494732310596</v>
       </c>
       <c r="L19" t="n">
-        <v>2.819438915670351</v>
+        <v>3.179185745910191</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5.027067045555959</v>
+        <v>4.977782074521096</v>
       </c>
       <c r="C26" t="n">
-        <v>5.0040944421465055</v>
+        <v>4.925384369083695</v>
       </c>
       <c r="D26" t="n">
-        <v>4.865809305958422</v>
+        <v>4.892063811309255</v>
       </c>
       <c r="E26" t="n">
-        <v>4.271954255881696</v>
+        <v>4.226618360206665</v>
       </c>
       <c r="F26" t="n">
-        <v>4.9285361330550685</v>
+        <v>4.868112456676669</v>
       </c>
       <c r="G26" t="n">
-        <v>4.790986995293595</v>
+        <v>4.737638926276796</v>
       </c>
       <c r="H26" t="n">
-        <v>4.384499615335291</v>
+        <v>4.406922855566366</v>
       </c>
       <c r="I26" t="n">
-        <v>5.027067045555959</v>
+        <v>4.748952689320702</v>
       </c>
       <c r="J26" t="n">
-        <v>5.0040944421465055</v>
+        <v>4.540237302614825</v>
       </c>
       <c r="K26" t="n">
-        <v>4.865809305958422</v>
+        <v>4.421620763995068</v>
       </c>
       <c r="L26" t="n">
-        <v>4.271954255881696</v>
+        <v>4.877066676953917</v>
       </c>
     </row>
     <row r="27">
@@ -1246,34 +1246,34 @@
         <v>3.4432816976581133</v>
       </c>
       <c r="C31" t="n">
-        <v>3.494471377446183</v>
+        <v>3.5119185424545982</v>
       </c>
       <c r="D31" t="n">
-        <v>3.5520453119081346</v>
+        <v>3.5138642042609094</v>
       </c>
       <c r="E31" t="n">
-        <v>3.9094930558290373</v>
+        <v>3.927259993872785</v>
       </c>
       <c r="F31" t="n">
-        <v>3.8408726537194617</v>
+        <v>3.8416262201071403</v>
       </c>
       <c r="G31" t="n">
-        <v>3.854873405340113</v>
+        <v>3.88873383528735</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5911486102588515</v>
+        <v>3.620162607647463</v>
       </c>
       <c r="I31" t="n">
-        <v>3.4432816976581133</v>
+        <v>3.88873383528735</v>
       </c>
       <c r="J31" t="n">
-        <v>3.494471377446183</v>
+        <v>3.8815941790826702</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5520453119081346</v>
+        <v>3.969039355018019</v>
       </c>
       <c r="L31" t="n">
-        <v>3.9094930558290373</v>
+        <v>3.900691814881015</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>2.668515184248206</v>
+        <v>2.695744931026249</v>
       </c>
       <c r="C32" t="n">
-        <v>2.467560064635604</v>
+        <v>2.4484976194648724</v>
       </c>
       <c r="D32" t="n">
-        <v>2.452392469960176</v>
+        <v>2.5141822016444673</v>
       </c>
       <c r="E32" t="n">
-        <v>2.425115607843805</v>
+        <v>2.4403585691664307</v>
       </c>
       <c r="F32" t="n">
-        <v>2.6347199403189125</v>
+        <v>2.709008129733472</v>
       </c>
       <c r="G32" t="n">
-        <v>2.3786102401771108</v>
+        <v>2.4444213181418544</v>
       </c>
       <c r="H32" t="n">
-        <v>2.648544045714923</v>
+        <v>2.695744931026249</v>
       </c>
       <c r="I32" t="n">
-        <v>2.668515184248206</v>
+        <v>2.7007033813781054</v>
       </c>
       <c r="J32" t="n">
-        <v>2.467560064635604</v>
+        <v>2.756475104994648</v>
       </c>
       <c r="K32" t="n">
-        <v>2.452392469960176</v>
+        <v>2.7007033813781054</v>
       </c>
       <c r="L32" t="n">
-        <v>2.425115607843805</v>
+        <v>2.3405139304624645</v>
       </c>
     </row>
     <row r="33">
@@ -1360,34 +1360,34 @@
         <v>1.129373215198162</v>
       </c>
       <c r="C34" t="n">
-        <v>1.198243340062753</v>
+        <v>1.1922904829501568</v>
       </c>
       <c r="D34" t="n">
-        <v>1.234440947632287</v>
+        <v>1.2170260617990318</v>
       </c>
       <c r="E34" t="n">
-        <v>1.1566025566903866</v>
+        <v>1.133139885195084</v>
       </c>
       <c r="F34" t="n">
-        <v>1.246340015547493</v>
+        <v>1.2475634353795773</v>
       </c>
       <c r="G34" t="n">
-        <v>1.2582989073390491</v>
+        <v>1.2537015093319246</v>
       </c>
       <c r="H34" t="n">
-        <v>1.2532521805393548</v>
+        <v>1.2498581559534432</v>
       </c>
       <c r="I34" t="n">
-        <v>1.129373215198162</v>
+        <v>1.1635380441797516</v>
       </c>
       <c r="J34" t="n">
-        <v>1.198243340062753</v>
+        <v>1.2498581559534432</v>
       </c>
       <c r="K34" t="n">
-        <v>1.234440947632287</v>
+        <v>1.2622406525616237</v>
       </c>
       <c r="L34" t="n">
-        <v>1.1566025566903866</v>
+        <v>1.2141266552598984</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.7031455553395047</v>
       </c>
       <c r="C38" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.4507117304894437</v>
       </c>
       <c r="D38" t="n">
-        <v>2.593419972647541</v>
+        <v>2.6704000021618812</v>
       </c>
       <c r="E38" t="n">
-        <v>2.321346912262945</v>
+        <v>2.441212847381481</v>
       </c>
       <c r="F38" t="n">
-        <v>2.360182749657774</v>
+        <v>2.4425653202651225</v>
       </c>
       <c r="G38" t="n">
-        <v>2.581933850213038</v>
+        <v>2.6981826211933817</v>
       </c>
       <c r="H38" t="n">
-        <v>2.5492572473952375</v>
+        <v>2.632137554180939</v>
       </c>
       <c r="I38" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.393501846885497</v>
       </c>
       <c r="J38" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.625866828289326</v>
       </c>
       <c r="K38" t="n">
-        <v>2.593419972647541</v>
+        <v>2.5617840814245727</v>
       </c>
       <c r="L38" t="n">
-        <v>2.321346912262945</v>
+        <v>2.446631743075973</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1.5087016512685543</v>
+        <v>1.5239410618874287</v>
       </c>
       <c r="C45" t="n">
-        <v>1.525509731340206</v>
+        <v>1.5203104702191128</v>
       </c>
       <c r="D45" t="n">
-        <v>1.4255572673749264</v>
+        <v>1.418900099278522</v>
       </c>
       <c r="E45" t="n">
-        <v>1.566784547835699</v>
+        <v>1.5621794850258757</v>
       </c>
       <c r="F45" t="n">
-        <v>1.3704295930095067</v>
+        <v>1.3563237398702312</v>
       </c>
       <c r="G45" t="n">
-        <v>1.4082785153729664</v>
+        <v>1.4141835338284743</v>
       </c>
       <c r="H45" t="n">
-        <v>1.489979404074553</v>
+        <v>1.4929675556655218</v>
       </c>
       <c r="I45" t="n">
-        <v>1.5087016512685543</v>
+        <v>1.4134004862407081</v>
       </c>
       <c r="J45" t="n">
-        <v>1.525509731340206</v>
+        <v>1.4832081808077513</v>
       </c>
       <c r="K45" t="n">
-        <v>1.4255572673749264</v>
+        <v>1.5698654855401593</v>
       </c>
       <c r="L45" t="n">
-        <v>1.566784547835699</v>
+        <v>1.5973725149018025</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.5824359126973113</v>
+        <v>1.59874968499316</v>
       </c>
       <c r="C51" t="n">
-        <v>1.4654147838855656</v>
+        <v>1.4883153283805295</v>
       </c>
       <c r="D51" t="n">
-        <v>1.5134638271162648</v>
+        <v>1.5509465380395122</v>
       </c>
       <c r="E51" t="n">
-        <v>1.4708779486171828</v>
+        <v>1.5206348791749362</v>
       </c>
       <c r="F51" t="n">
-        <v>1.6682691415290645</v>
+        <v>1.7173571101625293</v>
       </c>
       <c r="G51" t="n">
-        <v>1.647218344410366</v>
+        <v>1.6965532698126393</v>
       </c>
       <c r="H51" t="n">
-        <v>1.5443972182967902</v>
+        <v>1.5569813497468727</v>
       </c>
       <c r="I51" t="n">
-        <v>1.5824359126973113</v>
+        <v>1.6275476169773304</v>
       </c>
       <c r="J51" t="n">
-        <v>1.4654147838855656</v>
+        <v>1.722638037618147</v>
       </c>
       <c r="K51" t="n">
-        <v>1.5134638271162648</v>
+        <v>1.5543892601791998</v>
       </c>
       <c r="L51" t="n">
-        <v>1.4708779486171828</v>
+        <v>1.7173571101625293</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.1805178029579269</v>
+        <v>1.1928148634054054</v>
       </c>
       <c r="C59" t="n">
-        <v>1.3173315828051988</v>
+        <v>1.3132643446803323</v>
       </c>
       <c r="D59" t="n">
-        <v>1.3149528387046177</v>
+        <v>1.3287145137520529</v>
       </c>
       <c r="E59" t="n">
-        <v>1.3372643485099265</v>
+        <v>1.3428497743702879</v>
       </c>
       <c r="F59" t="n">
-        <v>1.2919004435660366</v>
+        <v>1.2811187697410413</v>
       </c>
       <c r="G59" t="n">
-        <v>1.2530522778412772</v>
+        <v>1.2550805316634936</v>
       </c>
       <c r="H59" t="n">
-        <v>1.1727574967495649</v>
+        <v>1.1881915497712614</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1805178029579269</v>
+        <v>1.1928148634054054</v>
       </c>
       <c r="J59" t="n">
-        <v>1.3173315828051988</v>
+        <v>1.2997419378983297</v>
       </c>
       <c r="K59" t="n">
-        <v>1.3149528387046177</v>
+        <v>1.3132643446803323</v>
       </c>
       <c r="L59" t="n">
-        <v>1.3372643485099265</v>
+        <v>1.2468761997349715</v>
       </c>
     </row>
     <row r="60">
@@ -2421,37 +2421,37 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>4.465348848953728</v>
+        <v>4.510002337443266</v>
       </c>
       <c r="C62" t="n">
-        <v>4.605140883281952</v>
+        <v>4.586489353500297</v>
       </c>
       <c r="D62" t="n">
-        <v>4.667627926110814</v>
+        <v>4.642730789578062</v>
       </c>
       <c r="E62" t="n">
-        <v>4.132247713183179</v>
+        <v>4.202160886934262</v>
       </c>
       <c r="F62" t="n">
-        <v>4.155415370143239</v>
+        <v>4.192853776617308</v>
       </c>
       <c r="G62" t="n">
-        <v>4.065353354706467</v>
+        <v>4.023535558669755</v>
       </c>
       <c r="H62" t="n">
-        <v>4.19891810631605</v>
+        <v>4.209168383496256</v>
       </c>
       <c r="I62" t="n">
-        <v>4.465348848953728</v>
+        <v>4.634206806427639</v>
       </c>
       <c r="J62" t="n">
-        <v>4.605140883281952</v>
+        <v>4.428889557544148</v>
       </c>
       <c r="K62" t="n">
-        <v>4.667627926110814</v>
+        <v>4.642730789578062</v>
       </c>
       <c r="L62" t="n">
-        <v>4.132247713183179</v>
+        <v>4.195176687970175</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1.485183477821703</v>
+        <v>1.5003384112688631</v>
       </c>
       <c r="C65" t="n">
-        <v>1.3666287670516426</v>
+        <v>1.3992882214637772</v>
       </c>
       <c r="D65" t="n">
-        <v>1.507192995921036</v>
+        <v>1.5341382755212805</v>
       </c>
       <c r="E65" t="n">
-        <v>1.446252480101125</v>
+        <v>1.5077201506343758</v>
       </c>
       <c r="F65" t="n">
-        <v>1.4920611042510703</v>
+        <v>1.5030980764870512</v>
       </c>
       <c r="G65" t="n">
-        <v>1.4082088052232655</v>
+        <v>1.424493297284097</v>
       </c>
       <c r="H65" t="n">
-        <v>1.4349983491514366</v>
+        <v>1.484889742164259</v>
       </c>
       <c r="I65" t="n">
-        <v>1.485183477821703</v>
+        <v>1.3604622435611955</v>
       </c>
       <c r="J65" t="n">
-        <v>1.3666287670516426</v>
+        <v>1.3627309416788995</v>
       </c>
       <c r="K65" t="n">
-        <v>1.507192995921036</v>
+        <v>1.3309190898045966</v>
       </c>
       <c r="L65" t="n">
-        <v>1.446252480101125</v>
+        <v>1.3574490385641556</v>
       </c>
     </row>
     <row r="66">
@@ -2690,34 +2690,34 @@
         <v>1.963390118128283</v>
       </c>
       <c r="C69" t="n">
-        <v>1.8762644237658097</v>
+        <v>1.859781858622397</v>
       </c>
       <c r="D69" t="n">
-        <v>2.0713412169204255</v>
+        <v>2.054410192641648</v>
       </c>
       <c r="E69" t="n">
-        <v>2.05077668426156</v>
+        <v>2.0041231372813804</v>
       </c>
       <c r="F69" t="n">
-        <v>2.153983935311426</v>
+        <v>2.1006922748095933</v>
       </c>
       <c r="G69" t="n">
-        <v>2.1178301728003848</v>
+        <v>2.0581889963501587</v>
       </c>
       <c r="H69" t="n">
-        <v>1.8838434085527227</v>
+        <v>1.8628780539668424</v>
       </c>
       <c r="I69" t="n">
-        <v>1.963390118128283</v>
+        <v>1.8659845774698274</v>
       </c>
       <c r="J69" t="n">
-        <v>1.8762644237658097</v>
+        <v>2.0785797248059477</v>
       </c>
       <c r="K69" t="n">
-        <v>2.0713412169204255</v>
+        <v>1.9993485741788672</v>
       </c>
       <c r="L69" t="n">
-        <v>2.05077668426156</v>
+        <v>2.033256362923721</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>3.1713196035783198</v>
+        <v>3.1399203995824947</v>
       </c>
       <c r="C76" t="n">
-        <v>3.030591879650236</v>
+        <v>2.9742265394657394</v>
       </c>
       <c r="D76" t="n">
-        <v>3.345685071075785</v>
+        <v>3.2854828051875944</v>
       </c>
       <c r="E76" t="n">
-        <v>3.312468694484433</v>
+        <v>3.205062032207865</v>
       </c>
       <c r="F76" t="n">
-        <v>3.479171773747097</v>
+        <v>3.359498688527591</v>
       </c>
       <c r="G76" t="n">
-        <v>3.420775261135695</v>
+        <v>3.291525996879769</v>
       </c>
       <c r="H76" t="n">
-        <v>3.0428336561611986</v>
+        <v>2.9791780805952137</v>
       </c>
       <c r="I76" t="n">
-        <v>3.1713196035783198</v>
+        <v>2.984146138867863</v>
       </c>
       <c r="J76" t="n">
-        <v>3.030591879650236</v>
+        <v>3.3241355448496424</v>
       </c>
       <c r="K76" t="n">
-        <v>3.345685071075785</v>
+        <v>3.1974263881520795</v>
       </c>
       <c r="L76" t="n">
-        <v>3.312468694484433</v>
+        <v>3.251652879668802</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1.7496287205070558</v>
+        <v>1.7673017378859148</v>
       </c>
       <c r="C79" t="n">
-        <v>1.6719887162393237</v>
+        <v>1.6740410784818405</v>
       </c>
       <c r="D79" t="n">
-        <v>1.8458267919515032</v>
+        <v>1.8492314238839906</v>
       </c>
       <c r="E79" t="n">
-        <v>1.8275011944904866</v>
+        <v>1.8039666547936333</v>
       </c>
       <c r="F79" t="n">
-        <v>1.9194718980883894</v>
+        <v>1.890891205856594</v>
       </c>
       <c r="G79" t="n">
-        <v>1.8872543267256432</v>
+        <v>1.852632829595224</v>
       </c>
       <c r="H79" t="n">
-        <v>1.678742549485724</v>
+        <v>1.6768280495287808</v>
       </c>
       <c r="I79" t="n">
-        <v>1.7496287205070558</v>
+        <v>1.679624317236822</v>
       </c>
       <c r="J79" t="n">
-        <v>1.6719887162393237</v>
+        <v>1.8709870881319992</v>
       </c>
       <c r="K79" t="n">
-        <v>1.8458267919515032</v>
+        <v>1.7996689385166658</v>
       </c>
       <c r="L79" t="n">
-        <v>1.8275011944904866</v>
+        <v>1.8301902767995413</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.301717392118357</v>
+        <v>3.2690271209092643</v>
       </c>
       <c r="C90" t="n">
-        <v>3.588988564597656</v>
+        <v>3.5748454638705454</v>
       </c>
       <c r="D90" t="n">
-        <v>3.8100138637428502</v>
+        <v>3.7721085460542065</v>
       </c>
       <c r="E90" t="n">
-        <v>3.6508678368810834</v>
+        <v>3.5983676217118767</v>
       </c>
       <c r="F90" t="n">
-        <v>3.445557308720226</v>
+        <v>3.4141559594800492</v>
       </c>
       <c r="G90" t="n">
-        <v>3.9660725868827926</v>
+        <v>3.8500056586111517</v>
       </c>
       <c r="H90" t="n">
-        <v>3.919806383226669</v>
+        <v>3.7721085460542065</v>
       </c>
       <c r="I90" t="n">
-        <v>3.301717392118357</v>
+        <v>3.726413714437537</v>
       </c>
       <c r="J90" t="n">
-        <v>3.588988564597656</v>
+        <v>3.3400157656324794</v>
       </c>
       <c r="K90" t="n">
-        <v>3.8100138637428502</v>
+        <v>3.40659415330243</v>
       </c>
       <c r="L90" t="n">
-        <v>3.6508678368810834</v>
+        <v>3.76518301210761</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>1.8742611153794229</v>
+        <v>1.8557040746330922</v>
       </c>
       <c r="C93" t="n">
-        <v>2.0373341843927455</v>
+        <v>2.029305676620701</v>
       </c>
       <c r="D93" t="n">
-        <v>2.1628019560111875</v>
+        <v>2.1412845289959255</v>
       </c>
       <c r="E93" t="n">
-        <v>2.072460726163298</v>
+        <v>2.042658323306049</v>
       </c>
       <c r="F93" t="n">
-        <v>1.9559136405682407</v>
+        <v>1.9380882724759245</v>
       </c>
       <c r="G93" t="n">
-        <v>2.2513906393416208</v>
+        <v>2.1855037978571357</v>
       </c>
       <c r="H93" t="n">
-        <v>2.2251270509812424</v>
+        <v>2.1412845289959255</v>
       </c>
       <c r="I93" t="n">
-        <v>1.8742611153794229</v>
+        <v>2.115345287110058</v>
       </c>
       <c r="J93" t="n">
-        <v>2.0373341843927455</v>
+        <v>1.8960016654432015</v>
       </c>
       <c r="K93" t="n">
-        <v>2.1628019560111875</v>
+        <v>1.9337957187538586</v>
       </c>
       <c r="L93" t="n">
-        <v>2.072460726163298</v>
+        <v>2.1373531631527034</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>1.8742611153794229</v>
+        <v>1.8557040746330922</v>
       </c>
       <c r="C94" t="n">
-        <v>2.0373341843927455</v>
+        <v>2.029305676620701</v>
       </c>
       <c r="D94" t="n">
-        <v>2.1628019560111875</v>
+        <v>2.1412845289959255</v>
       </c>
       <c r="E94" t="n">
-        <v>2.072460726163298</v>
+        <v>2.042658323306049</v>
       </c>
       <c r="F94" t="n">
-        <v>1.9559136405682407</v>
+        <v>1.9380882724759245</v>
       </c>
       <c r="G94" t="n">
-        <v>2.2513906393416208</v>
+        <v>2.1855037978571357</v>
       </c>
       <c r="H94" t="n">
-        <v>2.2251270509812424</v>
+        <v>2.1412845289959255</v>
       </c>
       <c r="I94" t="n">
-        <v>1.8742611153794229</v>
+        <v>2.115345287110058</v>
       </c>
       <c r="J94" t="n">
-        <v>2.0373341843927455</v>
+        <v>1.8960016654432015</v>
       </c>
       <c r="K94" t="n">
-        <v>2.1628019560111875</v>
+        <v>1.9337957187538586</v>
       </c>
       <c r="L94" t="n">
-        <v>2.072460726163298</v>
+        <v>2.1373531631527034</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>1.6986689145868659</v>
+        <v>1.6818504104820455</v>
       </c>
       <c r="C97" t="n">
-        <v>1.8464643049229308</v>
+        <v>1.839187956675088</v>
       </c>
       <c r="D97" t="n">
-        <v>1.9601774912457373</v>
+        <v>1.9406759478947095</v>
       </c>
       <c r="E97" t="n">
-        <v>1.8782999782413177</v>
+        <v>1.8512896460639061</v>
       </c>
       <c r="F97" t="n">
-        <v>1.772671733723242</v>
+        <v>1.7565163547202707</v>
       </c>
       <c r="G97" t="n">
-        <v>2.040466646968377</v>
+        <v>1.9807524862297061</v>
       </c>
       <c r="H97" t="n">
-        <v>2.0166635915844697</v>
+        <v>1.9406759478947095</v>
       </c>
       <c r="I97" t="n">
-        <v>1.6986689145868659</v>
+        <v>1.9171668522314016</v>
       </c>
       <c r="J97" t="n">
-        <v>1.8464643049229308</v>
+        <v>1.7183726774597803</v>
       </c>
       <c r="K97" t="n">
-        <v>1.9601774912457373</v>
+        <v>1.7526259535845723</v>
       </c>
       <c r="L97" t="n">
-        <v>1.8782999782413177</v>
+        <v>1.9371128963567181</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.878918424119692</v>
+        <v>1.860129239878495</v>
       </c>
       <c r="C100" t="n">
-        <v>2.0447568653522135</v>
+        <v>2.051730533860218</v>
       </c>
       <c r="D100" t="n">
-        <v>1.820056945560835</v>
+        <v>1.816706026949044</v>
       </c>
       <c r="E100" t="n">
-        <v>1.9044160440439681</v>
+        <v>1.910029967144944</v>
       </c>
       <c r="F100" t="n">
-        <v>1.959204065809556</v>
+        <v>1.944434923466673</v>
       </c>
       <c r="G100" t="n">
-        <v>1.9057642560985333</v>
+        <v>1.860129239878495</v>
       </c>
       <c r="H100" t="n">
-        <v>2.0838700775593533</v>
+        <v>2.058039670174194</v>
       </c>
       <c r="I100" t="n">
-        <v>1.878918424119692</v>
+        <v>2.047963587790657</v>
       </c>
       <c r="J100" t="n">
-        <v>2.0447568653522135</v>
+        <v>1.7780937844438989</v>
       </c>
       <c r="K100" t="n">
-        <v>1.820056945560835</v>
+        <v>2.0268761374071804</v>
       </c>
       <c r="L100" t="n">
-        <v>1.9044160440439681</v>
+        <v>2.0720572775434194</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>1.839038355710333</v>
+        <v>1.8578040532175812</v>
       </c>
       <c r="C101" t="n">
-        <v>2.001356873833711</v>
+        <v>2.0491658429952797</v>
       </c>
       <c r="D101" t="n">
-        <v>1.7814262128126042</v>
+        <v>1.8144351198904896</v>
       </c>
       <c r="E101" t="n">
-        <v>1.8639947883143921</v>
+        <v>1.9076424039013058</v>
       </c>
       <c r="F101" t="n">
-        <v>1.9176199335931792</v>
+        <v>1.9420043535631781</v>
       </c>
       <c r="G101" t="n">
-        <v>1.8653143845502627</v>
+        <v>1.8578040532175812</v>
       </c>
       <c r="H101" t="n">
-        <v>2.039639907594301</v>
+        <v>2.055467092803692</v>
       </c>
       <c r="I101" t="n">
-        <v>1.839038355710333</v>
+        <v>2.045403605659158</v>
       </c>
       <c r="J101" t="n">
-        <v>2.001356873833711</v>
+        <v>1.7758711432097272</v>
       </c>
       <c r="K101" t="n">
-        <v>1.7814262128126042</v>
+        <v>2.0243425148733336</v>
       </c>
       <c r="L101" t="n">
-        <v>1.8639947883143921</v>
+        <v>2.0694671779744738</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1.878918424119692</v>
+        <v>1.860129239878495</v>
       </c>
       <c r="C104" t="n">
-        <v>2.0447568653522135</v>
+        <v>2.051730533860218</v>
       </c>
       <c r="D104" t="n">
-        <v>1.820056945560835</v>
+        <v>1.816706026949044</v>
       </c>
       <c r="E104" t="n">
-        <v>1.9044160440439681</v>
+        <v>1.910029967144944</v>
       </c>
       <c r="F104" t="n">
-        <v>1.959204065809556</v>
+        <v>1.944434923466673</v>
       </c>
       <c r="G104" t="n">
-        <v>1.9057642560985333</v>
+        <v>1.860129239878495</v>
       </c>
       <c r="H104" t="n">
-        <v>2.0838700775593533</v>
+        <v>2.058039670174194</v>
       </c>
       <c r="I104" t="n">
-        <v>1.878918424119692</v>
+        <v>2.047963587790657</v>
       </c>
       <c r="J104" t="n">
-        <v>2.0447568653522135</v>
+        <v>1.7780937844438989</v>
       </c>
       <c r="K104" t="n">
-        <v>1.820056945560835</v>
+        <v>2.0268761374071804</v>
       </c>
       <c r="L104" t="n">
-        <v>1.9044160440439681</v>
+        <v>2.0720572775434194</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>2.8102479643288043</v>
+        <v>2.8670206504768605</v>
       </c>
       <c r="C106" t="n">
-        <v>2.7311196384834306</v>
+        <v>2.8109876733345267</v>
       </c>
       <c r="D106" t="n">
-        <v>2.9365422391993596</v>
+        <v>3.028418947250912</v>
       </c>
       <c r="E106" t="n">
-        <v>2.8102392953825155</v>
+        <v>2.8781763733611663</v>
       </c>
       <c r="F106" t="n">
-        <v>2.833784381081231</v>
+        <v>2.8781763733611663</v>
       </c>
       <c r="G106" t="n">
-        <v>2.879921851943505</v>
+        <v>2.955387725751506</v>
       </c>
       <c r="H106" t="n">
-        <v>2.9934756343129165</v>
+        <v>3.0086224850837073</v>
       </c>
       <c r="I106" t="n">
-        <v>2.8102479643288043</v>
+        <v>3.240199809827773</v>
       </c>
       <c r="J106" t="n">
-        <v>2.7311196384834306</v>
+        <v>2.8733847353929107</v>
       </c>
       <c r="K106" t="n">
-        <v>2.9365422391993596</v>
+        <v>2.7512429837085204</v>
       </c>
       <c r="L106" t="n">
-        <v>2.8102392953825155</v>
+        <v>3.1688122983691507</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>2.8252924115402704</v>
+        <v>2.8823690259148216</v>
       </c>
       <c r="C107" t="n">
-        <v>2.7457404782637296</v>
+        <v>2.8260360805214937</v>
       </c>
       <c r="D107" t="n">
-        <v>2.9522627931371783</v>
+        <v>3.044631356107511</v>
       </c>
       <c r="E107" t="n">
-        <v>2.825283696185442</v>
+        <v>2.8935844701070574</v>
       </c>
       <c r="F107" t="n">
-        <v>2.848954828696887</v>
+        <v>2.8935844701070574</v>
       </c>
       <c r="G107" t="n">
-        <v>2.8953392929752826</v>
+        <v>2.971209167558014</v>
       </c>
       <c r="H107" t="n">
-        <v>3.0095009768203655</v>
+        <v>3.024728915096507</v>
       </c>
       <c r="I107" t="n">
-        <v>2.8252924115402704</v>
+        <v>3.2575459713097197</v>
       </c>
       <c r="J107" t="n">
-        <v>2.7457404782637296</v>
+        <v>2.88876718047198</v>
       </c>
       <c r="K107" t="n">
-        <v>2.9522627931371783</v>
+        <v>2.76597155227603</v>
       </c>
       <c r="L107" t="n">
-        <v>2.825283696185442</v>
+        <v>3.1857762922768016</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.5323164430109517</v>
+        <v>2.5834743509505675</v>
       </c>
       <c r="C111" t="n">
-        <v>2.4610138522112726</v>
+        <v>2.532982995323066</v>
       </c>
       <c r="D111" t="n">
-        <v>2.6461203040838437</v>
+        <v>2.7289104711729726</v>
       </c>
       <c r="E111" t="n">
-        <v>2.5323086314172745</v>
+        <v>2.5935267807902767</v>
       </c>
       <c r="F111" t="n">
-        <v>2.553525124916701</v>
+        <v>2.5935267807902767</v>
       </c>
       <c r="G111" t="n">
-        <v>2.5950996327845077</v>
+        <v>2.6631019854437454</v>
       </c>
       <c r="H111" t="n">
-        <v>2.697423026986779</v>
+        <v>2.7110718650087544</v>
       </c>
       <c r="I111" t="n">
-        <v>2.5323164430109517</v>
+        <v>2.9197463573388096</v>
       </c>
       <c r="J111" t="n">
-        <v>2.4610138522112726</v>
+        <v>2.58920903240295</v>
       </c>
       <c r="K111" t="n">
-        <v>2.6461203040838437</v>
+        <v>2.479147012931862</v>
       </c>
       <c r="L111" t="n">
-        <v>2.5323086314172745</v>
+        <v>2.855419019898507</v>
       </c>
     </row>
     <row r="112">
@@ -4476,34 +4476,34 @@
         <v>2.165600725248808</v>
       </c>
       <c r="C116" t="n">
-        <v>2.2151251951791813</v>
+        <v>2.192156220175683</v>
       </c>
       <c r="D116" t="n">
-        <v>2.1094071695807073</v>
+        <v>2.077517023731487</v>
       </c>
       <c r="E116" t="n">
-        <v>2.197567729660401</v>
+        <v>2.1294858834431007</v>
       </c>
       <c r="F116" t="n">
-        <v>2.022837654108184</v>
+        <v>1.9874412434942663</v>
       </c>
       <c r="G116" t="n">
-        <v>1.972504690482417</v>
+        <v>1.9797379825105175</v>
       </c>
       <c r="H116" t="n">
-        <v>2.182837056171974</v>
+        <v>2.188131454680811</v>
       </c>
       <c r="I116" t="n">
-        <v>2.165600725248808</v>
+        <v>1.8997910716329813</v>
       </c>
       <c r="J116" t="n">
-        <v>2.2151251951791813</v>
+        <v>2.1345712221667825</v>
       </c>
       <c r="K116" t="n">
-        <v>2.1094071695807073</v>
+        <v>2.0407573041870055</v>
       </c>
       <c r="L116" t="n">
-        <v>2.197567729660401</v>
+        <v>2.091186896693591</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>2.201667870356706</v>
+        <v>2.1796511916531385</v>
       </c>
       <c r="C117" t="n">
-        <v>2.2520171489521967</v>
+        <v>2.2063789792307174</v>
       </c>
       <c r="D117" t="n">
-        <v>2.1445384352798196</v>
+        <v>2.090996001091457</v>
       </c>
       <c r="E117" t="n">
-        <v>2.2341672714254175</v>
+        <v>2.1433020359383286</v>
       </c>
       <c r="F117" t="n">
-        <v>2.056527141902411</v>
+        <v>2.000335807158161</v>
       </c>
       <c r="G117" t="n">
-        <v>2.005355904498087</v>
+        <v>1.992582567243211</v>
       </c>
       <c r="H117" t="n">
-        <v>2.2191912649298255</v>
+        <v>2.2023281009664366</v>
       </c>
       <c r="I117" t="n">
-        <v>2.201667870356706</v>
+        <v>1.912116959002713</v>
       </c>
       <c r="J117" t="n">
-        <v>2.2520171489521967</v>
+        <v>2.1484203684544756</v>
       </c>
       <c r="K117" t="n">
-        <v>2.1445384352798196</v>
+        <v>2.0539977836565426</v>
       </c>
       <c r="L117" t="n">
-        <v>2.2341672714254175</v>
+        <v>2.104754564498003</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1.8816681611700523</v>
+        <v>1.9006749102727802</v>
       </c>
       <c r="C126" t="n">
-        <v>2.0677643208317837</v>
+        <v>2.106406021619631</v>
       </c>
       <c r="D126" t="n">
-        <v>2.0602714657384373</v>
+        <v>2.096093139455789</v>
       </c>
       <c r="E126" t="n">
-        <v>2.0646208144469247</v>
+        <v>2.074510109200303</v>
       </c>
       <c r="F126" t="n">
-        <v>2.041007378434338</v>
+        <v>2.03991434852078</v>
       </c>
       <c r="G126" t="n">
-        <v>1.8198252478334227</v>
+        <v>1.8594007540944266</v>
       </c>
       <c r="H126" t="n">
-        <v>2.082597387964853</v>
+        <v>2.1207530592395307</v>
       </c>
       <c r="I126" t="n">
-        <v>1.8816681611700523</v>
+        <v>2.00322631353</v>
       </c>
       <c r="J126" t="n">
-        <v>2.0677643208317837</v>
+        <v>1.8964652211288975</v>
       </c>
       <c r="K126" t="n">
-        <v>2.0602714657384373</v>
+        <v>1.9038444635710885</v>
       </c>
       <c r="L126" t="n">
-        <v>2.0646208144469247</v>
+        <v>2.044785785100934</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>2.1789053584834095</v>
+        <v>2.2009145035185953</v>
       </c>
       <c r="C127" t="n">
-        <v>2.228734088059099</v>
+        <v>2.227903030651619</v>
       </c>
       <c r="D127" t="n">
-        <v>2.1223665708251285</v>
+        <v>2.111394448444361</v>
       </c>
       <c r="E127" t="n">
-        <v>2.2110687561009823</v>
+        <v>2.1642107482068544</v>
       </c>
       <c r="F127" t="n">
-        <v>2.0352652049338142</v>
+        <v>2.019849830441393</v>
       </c>
       <c r="G127" t="n">
-        <v>1.9846230145827122</v>
+        <v>2.0120209547738463</v>
       </c>
       <c r="H127" t="n">
-        <v>2.1962475829162</v>
+        <v>2.2238126345561398</v>
       </c>
       <c r="I127" t="n">
-        <v>2.1789053584834095</v>
+        <v>1.9307703744566174</v>
       </c>
       <c r="J127" t="n">
-        <v>2.228734088059099</v>
+        <v>2.1693790119693124</v>
       </c>
       <c r="K127" t="n">
-        <v>2.1223665708251285</v>
+        <v>2.074035299572895</v>
       </c>
       <c r="L127" t="n">
-        <v>2.2110687561009823</v>
+        <v>2.1252872317782296</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5.359182134404961</v>
+        <v>5.306641133087265</v>
       </c>
       <c r="C128" t="n">
-        <v>5.334691837248182</v>
+        <v>5.25078175338948</v>
       </c>
       <c r="D128" t="n">
-        <v>5.18727084114906</v>
+        <v>5.21525986034231</v>
       </c>
       <c r="E128" t="n">
-        <v>4.554182532209392</v>
+        <v>4.505851503411265</v>
       </c>
       <c r="F128" t="n">
-        <v>5.254141739841655</v>
+        <v>5.189726150392047</v>
       </c>
       <c r="G128" t="n">
-        <v>5.107505366184027</v>
+        <v>5.050632836776928</v>
       </c>
       <c r="H128" t="n">
-        <v>4.67416324347265</v>
+        <v>4.698067883564546</v>
       </c>
       <c r="I128" t="n">
-        <v>5.359182134404961</v>
+        <v>5.062694047862504</v>
       </c>
       <c r="J128" t="n">
-        <v>5.334691837248182</v>
+        <v>4.84018980006291</v>
       </c>
       <c r="K128" t="n">
-        <v>5.18727084114906</v>
+        <v>4.713736814881835</v>
       </c>
       <c r="L128" t="n">
-        <v>4.554182532209392</v>
+        <v>5.199271934624182</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>5.359182134404961</v>
+        <v>5.306641133087265</v>
       </c>
       <c r="C132" t="n">
-        <v>5.334691837248182</v>
+        <v>5.25078175338948</v>
       </c>
       <c r="D132" t="n">
-        <v>5.18727084114906</v>
+        <v>5.21525986034231</v>
       </c>
       <c r="E132" t="n">
-        <v>4.554182532209392</v>
+        <v>4.505851503411265</v>
       </c>
       <c r="F132" t="n">
-        <v>5.254141739841655</v>
+        <v>5.189726150392047</v>
       </c>
       <c r="G132" t="n">
-        <v>5.107505366184027</v>
+        <v>5.050632836776928</v>
       </c>
       <c r="H132" t="n">
-        <v>4.67416324347265</v>
+        <v>4.698067883564546</v>
       </c>
       <c r="I132" t="n">
-        <v>5.359182134404961</v>
+        <v>5.062694047862504</v>
       </c>
       <c r="J132" t="n">
-        <v>5.334691837248182</v>
+        <v>4.84018980006291</v>
       </c>
       <c r="K132" t="n">
-        <v>5.18727084114906</v>
+        <v>4.713736814881835</v>
       </c>
       <c r="L132" t="n">
-        <v>4.554182532209392</v>
+        <v>5.199271934624182</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>1.8920110422608727</v>
+        <v>1.8730909318382638</v>
       </c>
       <c r="C133" t="n">
-        <v>2.059005073515991</v>
+        <v>2.0660273357136663</v>
       </c>
       <c r="D133" t="n">
-        <v>1.832739407065036</v>
+        <v>1.8293651386913587</v>
       </c>
       <c r="E133" t="n">
-        <v>1.9176863338695032</v>
+        <v>1.9233393757265096</v>
       </c>
       <c r="F133" t="n">
-        <v>1.9728561277431713</v>
+        <v>1.957984071543845</v>
       </c>
       <c r="G133" t="n">
-        <v>1.9190439404913775</v>
+        <v>1.8730909318382638</v>
       </c>
       <c r="H133" t="n">
-        <v>2.098390833133987</v>
+        <v>2.0723804351457313</v>
       </c>
       <c r="I133" t="n">
-        <v>1.8920110422608727</v>
+        <v>2.0622341409332434</v>
       </c>
       <c r="J133" t="n">
-        <v>2.059005073515991</v>
+        <v>1.790483839616112</v>
       </c>
       <c r="K133" t="n">
-        <v>1.832739407065036</v>
+        <v>2.0409997496651084</v>
       </c>
       <c r="L133" t="n">
-        <v>1.9176863338695032</v>
+        <v>2.0864957195498843</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>4.302192604274473</v>
+        <v>4.260014245409037</v>
       </c>
       <c r="C138" t="n">
-        <v>4.282532519458924</v>
+        <v>4.215171990716409</v>
       </c>
       <c r="D138" t="n">
-        <v>4.164187312442959</v>
+        <v>4.186656067628766</v>
       </c>
       <c r="E138" t="n">
-        <v>3.6559627788732882</v>
+        <v>3.6171640611888476</v>
       </c>
       <c r="F138" t="n">
-        <v>4.217869288270864</v>
+        <v>4.1661583619429505</v>
       </c>
       <c r="G138" t="n">
-        <v>4.100153952899542</v>
+        <v>4.054498371643809</v>
       </c>
       <c r="H138" t="n">
-        <v>3.7522797383844417</v>
+        <v>3.7714696750635794</v>
       </c>
       <c r="I138" t="n">
-        <v>4.302192604274473</v>
+        <v>4.06418075448313</v>
       </c>
       <c r="J138" t="n">
-        <v>4.282532519458924</v>
+        <v>3.8855609380082123</v>
       </c>
       <c r="K138" t="n">
-        <v>4.164187312442959</v>
+        <v>3.7840482287942616</v>
       </c>
       <c r="L138" t="n">
-        <v>3.6559627788732882</v>
+        <v>4.173821434646124</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>2.6916664485308046</v>
+        <v>2.7188549985159645</v>
       </c>
       <c r="C153" t="n">
-        <v>2.488967900546292</v>
+        <v>2.469488086546155</v>
       </c>
       <c r="D153" t="n">
-        <v>2.473668716215712</v>
+        <v>2.5357357691547753</v>
       </c>
       <c r="E153" t="n">
-        <v>2.4461552079496833</v>
+        <v>2.461279261841561</v>
       </c>
       <c r="F153" t="n">
-        <v>2.6575780068605646</v>
+        <v>2.732231899900961</v>
       </c>
       <c r="G153" t="n">
-        <v>2.399246373192464</v>
+        <v>2.465376839929315</v>
       </c>
       <c r="H153" t="n">
-        <v>2.6715220461881426</v>
+        <v>2.7188549985159645</v>
       </c>
       <c r="I153" t="n">
-        <v>2.6916664485308046</v>
+        <v>2.7238559566440412</v>
       </c>
       <c r="J153" t="n">
-        <v>2.488967900546292</v>
+        <v>2.7801057997896095</v>
       </c>
       <c r="K153" t="n">
-        <v>2.473668716215712</v>
+        <v>2.7238559566440412</v>
       </c>
       <c r="L153" t="n">
-        <v>2.4461552079496833</v>
+        <v>2.360578675561703</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.985457189791305</v>
+        <v>3.0156133230215203</v>
       </c>
       <c r="C154" t="n">
-        <v>2.7606344455872716</v>
+        <v>2.739028443553011</v>
       </c>
       <c r="D154" t="n">
-        <v>2.743665381726256</v>
+        <v>2.8125069462325953</v>
       </c>
       <c r="E154" t="n">
-        <v>2.7131488215803903</v>
+        <v>2.729923639817971</v>
       </c>
       <c r="F154" t="n">
-        <v>2.9476480536226135</v>
+        <v>3.030450290075431</v>
       </c>
       <c r="G154" t="n">
-        <v>2.661119968574806</v>
+        <v>2.7344684614727837</v>
       </c>
       <c r="H154" t="n">
-        <v>2.9631140607454403</v>
+        <v>3.0156133230215203</v>
       </c>
       <c r="I154" t="n">
-        <v>2.985457189791305</v>
+        <v>3.0211601270868833</v>
       </c>
       <c r="J154" t="n">
-        <v>2.7606344455872716</v>
+        <v>3.083549543403765</v>
       </c>
       <c r="K154" t="n">
-        <v>2.743665381726256</v>
+        <v>3.0211601270868833</v>
       </c>
       <c r="L154" t="n">
-        <v>2.7131488215803903</v>
+        <v>2.6182317585711323</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4.902680687257798</v>
+        <v>5.051246768689853</v>
       </c>
       <c r="C156" t="n">
-        <v>4.533479571316669</v>
+        <v>4.5879584326097005</v>
       </c>
       <c r="D156" t="n">
-        <v>4.505613185572896</v>
+        <v>4.711037226032902</v>
       </c>
       <c r="E156" t="n">
-        <v>4.455499269828175</v>
+        <v>4.572707601180127</v>
       </c>
       <c r="F156" t="n">
-        <v>4.84059099381654</v>
+        <v>5.07609915321677</v>
       </c>
       <c r="G156" t="n">
-        <v>4.370058134151235</v>
+        <v>4.580320319801208</v>
       </c>
       <c r="H156" t="n">
-        <v>4.865989078468148</v>
+        <v>5.051246768689853</v>
       </c>
       <c r="I156" t="n">
-        <v>4.902680687257798</v>
+        <v>5.060537839231897</v>
       </c>
       <c r="J156" t="n">
-        <v>4.533479571316669</v>
+        <v>5.1650420656740765</v>
       </c>
       <c r="K156" t="n">
-        <v>4.505613185572896</v>
+        <v>5.060537839231897</v>
       </c>
       <c r="L156" t="n">
-        <v>4.455499269828175</v>
+        <v>4.3856202017678925</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.3523859734219914</v>
+        <v>2.3763899119262977</v>
       </c>
       <c r="C157" t="n">
-        <v>2.1752372701077167</v>
+        <v>2.158433082931473</v>
       </c>
       <c r="D157" t="n">
-        <v>2.1618665247675213</v>
+        <v>2.2163362534666984</v>
       </c>
       <c r="E157" t="n">
-        <v>2.1378210525062893</v>
+        <v>2.15125823608329</v>
       </c>
       <c r="F157" t="n">
-        <v>2.322594328144154</v>
+        <v>2.388081868106929</v>
       </c>
       <c r="G157" t="n">
-        <v>2.0968250052535975</v>
+        <v>2.154839686082052</v>
       </c>
       <c r="H157" t="n">
-        <v>2.3347807424544946</v>
+        <v>2.3763899119262977</v>
       </c>
       <c r="I157" t="n">
-        <v>2.3523859734219914</v>
+        <v>2.3807609528431595</v>
       </c>
       <c r="J157" t="n">
-        <v>2.1752372701077167</v>
+        <v>2.4299256048277367</v>
       </c>
       <c r="K157" t="n">
-        <v>2.1618665247675213</v>
+        <v>2.3807609528431595</v>
       </c>
       <c r="L157" t="n">
-        <v>2.1378210525062893</v>
+        <v>2.063241825685848</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>1.7123626893256294</v>
       </c>
       <c r="C159" t="n">
-        <v>1.8167840007577682</v>
+        <v>1.8077582417993288</v>
       </c>
       <c r="D159" t="n">
-        <v>1.8716670383673022</v>
+        <v>1.845262480212008</v>
       </c>
       <c r="E159" t="n">
-        <v>1.753647986159954</v>
+        <v>1.7180737377894448</v>
       </c>
       <c r="F159" t="n">
-        <v>1.889708479107665</v>
+        <v>1.8915634358621285</v>
       </c>
       <c r="G159" t="n">
-        <v>1.9078406251812285</v>
+        <v>1.9008700217443488</v>
       </c>
       <c r="H159" t="n">
-        <v>1.9001887466359242</v>
+        <v>1.895042705460732</v>
       </c>
       <c r="I159" t="n">
-        <v>1.7123626893256294</v>
+        <v>1.7641636154039058</v>
       </c>
       <c r="J159" t="n">
-        <v>1.8167840007577682</v>
+        <v>1.895042705460732</v>
       </c>
       <c r="K159" t="n">
-        <v>1.8716670383673022</v>
+        <v>1.9138171237904857</v>
       </c>
       <c r="L159" t="n">
-        <v>1.753647986159954</v>
+        <v>1.8408663819939997</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>2.062424999804896</v>
+        <v>2.0830492498029445</v>
       </c>
       <c r="C165" t="n">
-        <v>2.1881934042162707</v>
+        <v>2.1990957131214923</v>
       </c>
       <c r="D165" t="n">
-        <v>2.254296309597673</v>
+        <v>2.2447187439063603</v>
       </c>
       <c r="E165" t="n">
-        <v>2.112150346453864</v>
+        <v>2.0899966069792586</v>
       </c>
       <c r="F165" t="n">
-        <v>2.276026004274726</v>
+        <v>2.3010427759197687</v>
       </c>
       <c r="G165" t="n">
-        <v>2.297864947388441</v>
+        <v>2.312364020455773</v>
       </c>
       <c r="H165" t="n">
-        <v>2.288648777411319</v>
+        <v>2.305275226190037</v>
       </c>
       <c r="I165" t="n">
-        <v>2.062424999804896</v>
+        <v>2.146063867488259</v>
       </c>
       <c r="J165" t="n">
-        <v>2.1881934042162707</v>
+        <v>2.305275226190037</v>
       </c>
       <c r="K165" t="n">
-        <v>2.254296309597673</v>
+        <v>2.3281138679457047</v>
       </c>
       <c r="L165" t="n">
-        <v>2.112150346453864</v>
+        <v>2.239370993016805</v>
       </c>
     </row>
     <row r="166">
@@ -6414,34 +6414,34 @@
         <v>3.4860919873160308</v>
       </c>
       <c r="C167" t="n">
-        <v>3.537918107921799</v>
+        <v>3.5555821933721945</v>
       </c>
       <c r="D167" t="n">
-        <v>3.596207858581054</v>
+        <v>3.557552045573838</v>
       </c>
       <c r="E167" t="n">
-        <v>3.958099747012477</v>
+        <v>3.9760875812334104</v>
       </c>
       <c r="F167" t="n">
-        <v>3.8886261880749973</v>
+        <v>3.889389123546639</v>
       </c>
       <c r="G167" t="n">
-        <v>3.902801010911697</v>
+        <v>3.9370824272728457</v>
       </c>
       <c r="H167" t="n">
-        <v>3.635797327880291</v>
+        <v>3.665172056031415</v>
       </c>
       <c r="I167" t="n">
-        <v>3.4860919873160308</v>
+        <v>3.9370824272728457</v>
       </c>
       <c r="J167" t="n">
-        <v>3.537918107921799</v>
+        <v>3.9298540037882805</v>
       </c>
       <c r="K167" t="n">
-        <v>3.596207858581054</v>
+        <v>4.0183863847912615</v>
       </c>
       <c r="L167" t="n">
-        <v>3.958099747012477</v>
+        <v>3.9491890803167466</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>1.2544949018622056</v>
+        <v>1.2671665675375816</v>
       </c>
       <c r="C168" t="n">
-        <v>1.2684709260431624</v>
+        <v>1.264147707755188</v>
       </c>
       <c r="D168" t="n">
-        <v>1.1853598242772312</v>
+        <v>1.1798243471795846</v>
       </c>
       <c r="E168" t="n">
-        <v>1.3027911952795332</v>
+        <v>1.2989620566205937</v>
       </c>
       <c r="F168" t="n">
-        <v>1.139520816687633</v>
+        <v>1.12779171117843</v>
       </c>
       <c r="G168" t="n">
-        <v>1.1709924334290978</v>
+        <v>1.1759024933747524</v>
       </c>
       <c r="H168" t="n">
-        <v>1.2389272356927346</v>
+        <v>1.241411902514508</v>
       </c>
       <c r="I168" t="n">
-        <v>1.2544949018622056</v>
+        <v>1.1752513843858132</v>
       </c>
       <c r="J168" t="n">
-        <v>1.2684709260431624</v>
+        <v>1.2332969210043194</v>
       </c>
       <c r="K168" t="n">
-        <v>1.1853598242772312</v>
+        <v>1.3053530143376293</v>
       </c>
       <c r="L168" t="n">
-        <v>1.3027911952795332</v>
+        <v>1.3282252820723008</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.0189230581938893</v>
+        <v>1.9987338276119504</v>
       </c>
       <c r="C171" t="n">
-        <v>1.9568499610660592</v>
+        <v>1.9271373916427714</v>
       </c>
       <c r="D171" t="n">
-        <v>1.7962764981068264</v>
+        <v>1.791318051813989</v>
       </c>
       <c r="E171" t="n">
-        <v>1.8930263715809723</v>
+        <v>1.8756276186199459</v>
       </c>
       <c r="F171" t="n">
-        <v>1.8234758780844185</v>
+        <v>1.8424401431659478</v>
       </c>
       <c r="G171" t="n">
-        <v>1.955367590995309</v>
+        <v>1.9754927361311552</v>
       </c>
       <c r="H171" t="n">
-        <v>2.0365775992058865</v>
+        <v>2.0199969531873587</v>
       </c>
       <c r="I171" t="n">
-        <v>2.0189230581938893</v>
+        <v>1.9852122583316503</v>
       </c>
       <c r="J171" t="n">
-        <v>1.9568499610660592</v>
+        <v>1.9754927361311552</v>
       </c>
       <c r="K171" t="n">
-        <v>1.7962764981068264</v>
+        <v>1.788340792727901</v>
       </c>
       <c r="L171" t="n">
-        <v>1.8930263715809723</v>
+        <v>1.7943052423160364</v>
       </c>
     </row>
     <row r="172">
@@ -6718,34 +6718,34 @@
         <v>2.0138936785016393</v>
       </c>
       <c r="C175" t="n">
-        <v>1.9519752129100942</v>
+        <v>1.9417542030949266</v>
       </c>
       <c r="D175" t="n">
-        <v>1.7918017577225513</v>
+        <v>1.8049047106208567</v>
       </c>
       <c r="E175" t="n">
-        <v>1.8883106156478857</v>
+        <v>1.8898537424939954</v>
       </c>
       <c r="F175" t="n">
-        <v>1.8189333807795682</v>
+        <v>1.8564145490911952</v>
       </c>
       <c r="G175" t="n">
-        <v>1.950496535601136</v>
+        <v>1.9904763096814129</v>
       </c>
       <c r="H175" t="n">
-        <v>2.0315042399327004</v>
+        <v>2.035318079084614</v>
       </c>
       <c r="I175" t="n">
-        <v>2.0138936785016393</v>
+        <v>2.0002695518066136</v>
       </c>
       <c r="J175" t="n">
-        <v>1.9519752129100942</v>
+        <v>1.9904763096814129</v>
       </c>
       <c r="K175" t="n">
-        <v>1.7918017577225513</v>
+        <v>1.8019048698367046</v>
       </c>
       <c r="L175" t="n">
-        <v>1.8883106156478857</v>
+        <v>1.8079145581480487</v>
       </c>
     </row>
     <row r="176">
@@ -6756,34 +6756,34 @@
         <v>2.356075181427179</v>
       </c>
       <c r="C176" t="n">
-        <v>2.2836361238892304</v>
+        <v>2.2716784580940046</v>
       </c>
       <c r="D176" t="n">
-        <v>2.09624753107554</v>
+        <v>2.1115768120880687</v>
       </c>
       <c r="E176" t="n">
-        <v>2.2091542487305342</v>
+        <v>2.2109595688935224</v>
       </c>
       <c r="F176" t="n">
-        <v>2.1279890993613275</v>
+        <v>2.1718387083911455</v>
       </c>
       <c r="G176" t="n">
-        <v>2.2819062039107494</v>
+        <v>2.328678957842669</v>
       </c>
       <c r="H176" t="n">
-        <v>2.3766779605915653</v>
+        <v>2.3811398107218387</v>
       </c>
       <c r="I176" t="n">
-        <v>2.356075181427179</v>
+        <v>2.3401361737638497</v>
       </c>
       <c r="J176" t="n">
-        <v>2.2836361238892304</v>
+        <v>2.328678957842669</v>
       </c>
       <c r="K176" t="n">
-        <v>2.09624753107554</v>
+        <v>2.1080672671228986</v>
       </c>
       <c r="L176" t="n">
-        <v>2.2091542487305342</v>
+        <v>2.1150980640461032</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6.41916776734148</v>
+        <v>6.292055534324817</v>
       </c>
       <c r="C177" t="n">
-        <v>6.588347580494569</v>
+        <v>6.421991603816919</v>
       </c>
       <c r="D177" t="n">
-        <v>5.603732408951456</v>
+        <v>5.452891913593273</v>
       </c>
       <c r="E177" t="n">
-        <v>6.4512755140238855</v>
+        <v>6.280503416016233</v>
       </c>
       <c r="F177" t="n">
-        <v>6.487918906102214</v>
+        <v>6.354391692985018</v>
       </c>
       <c r="G177" t="n">
-        <v>5.920320030141825</v>
+        <v>5.7044705847977015</v>
       </c>
       <c r="H177" t="n">
-        <v>5.620600116901042</v>
+        <v>5.571304331860545</v>
       </c>
       <c r="I177" t="n">
-        <v>6.41916776734148</v>
+        <v>6.112175453039077</v>
       </c>
       <c r="J177" t="n">
-        <v>6.588347580494569</v>
+        <v>5.685508355614159</v>
       </c>
       <c r="K177" t="n">
-        <v>5.603732408951456</v>
+        <v>6.126771690919284</v>
       </c>
       <c r="L177" t="n">
-        <v>6.4512755140238855</v>
+        <v>5.7044705847977015</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.4093806729830227</v>
+        <v>2.482392208527963</v>
       </c>
       <c r="C178" t="n">
-        <v>2.1456113333037887</v>
+        <v>2.250573482104257</v>
       </c>
       <c r="D178" t="n">
-        <v>2.3816274047190493</v>
+        <v>2.4523208326408947</v>
       </c>
       <c r="E178" t="n">
-        <v>2.1317732879420292</v>
+        <v>2.241850328676449</v>
       </c>
       <c r="F178" t="n">
-        <v>2.1674375828114467</v>
+        <v>2.243092351379209</v>
       </c>
       <c r="G178" t="n">
-        <v>2.371079300573756</v>
+        <v>2.477834574170672</v>
       </c>
       <c r="H178" t="n">
-        <v>2.3410712441907604</v>
+        <v>2.4171831011341767</v>
       </c>
       <c r="I178" t="n">
-        <v>2.4093806729830227</v>
+        <v>2.1980356640690046</v>
       </c>
       <c r="J178" t="n">
-        <v>2.1456113333037887</v>
+        <v>2.4114244763111787</v>
       </c>
       <c r="K178" t="n">
-        <v>2.3816274047190493</v>
+        <v>2.3525750698469556</v>
       </c>
       <c r="L178" t="n">
-        <v>2.1317732879420292</v>
+        <v>2.246826688319481</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.7031455553395047</v>
       </c>
       <c r="C179" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.4507117304894437</v>
       </c>
       <c r="D179" t="n">
-        <v>2.593419972647541</v>
+        <v>2.6704000021618812</v>
       </c>
       <c r="E179" t="n">
-        <v>2.321346912262945</v>
+        <v>2.441212847381481</v>
       </c>
       <c r="F179" t="n">
-        <v>2.360182749657774</v>
+        <v>2.4425653202651225</v>
       </c>
       <c r="G179" t="n">
-        <v>2.581933850213038</v>
+        <v>2.6981826211933817</v>
       </c>
       <c r="H179" t="n">
-        <v>2.5492572473952375</v>
+        <v>2.632137554180939</v>
       </c>
       <c r="I179" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.393501846885497</v>
       </c>
       <c r="J179" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.625866828289326</v>
       </c>
       <c r="K179" t="n">
-        <v>2.593419972647541</v>
+        <v>2.5617840814245727</v>
       </c>
       <c r="L179" t="n">
-        <v>2.321346912262945</v>
+        <v>2.446631743075973</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.7031455553395047</v>
       </c>
       <c r="C184" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.4507117304894437</v>
       </c>
       <c r="D184" t="n">
-        <v>2.593419972647541</v>
+        <v>2.6704000021618812</v>
       </c>
       <c r="E184" t="n">
-        <v>2.321346912262945</v>
+        <v>2.441212847381481</v>
       </c>
       <c r="F184" t="n">
-        <v>2.360182749657774</v>
+        <v>2.4425653202651225</v>
       </c>
       <c r="G184" t="n">
-        <v>2.581933850213038</v>
+        <v>2.6981826211933817</v>
       </c>
       <c r="H184" t="n">
-        <v>2.5492572473952375</v>
+        <v>2.632137554180939</v>
       </c>
       <c r="I184" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.393501846885497</v>
       </c>
       <c r="J184" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.625866828289326</v>
       </c>
       <c r="K184" t="n">
-        <v>2.593419972647541</v>
+        <v>2.5617840814245727</v>
       </c>
       <c r="L184" t="n">
-        <v>2.321346912262945</v>
+        <v>2.446631743075973</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.7031455553395047</v>
       </c>
       <c r="C187" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.4507117304894437</v>
       </c>
       <c r="D187" t="n">
-        <v>2.593419972647541</v>
+        <v>2.6704000021618812</v>
       </c>
       <c r="E187" t="n">
-        <v>2.321346912262945</v>
+        <v>2.441212847381481</v>
       </c>
       <c r="F187" t="n">
-        <v>2.360182749657774</v>
+        <v>2.4425653202651225</v>
       </c>
       <c r="G187" t="n">
-        <v>2.581933850213038</v>
+        <v>2.6981826211933817</v>
       </c>
       <c r="H187" t="n">
-        <v>2.5492572473952375</v>
+        <v>2.632137554180939</v>
       </c>
       <c r="I187" t="n">
-        <v>2.6236412743001076</v>
+        <v>2.393501846885497</v>
       </c>
       <c r="J187" t="n">
-        <v>2.3364155427097058</v>
+        <v>2.625866828289326</v>
       </c>
       <c r="K187" t="n">
-        <v>2.593419972647541</v>
+        <v>2.5617840814245727</v>
       </c>
       <c r="L187" t="n">
-        <v>2.321346912262945</v>
+        <v>2.446631743075973</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1.8438020420360022</v>
+        <v>1.862426305086871</v>
       </c>
       <c r="C200" t="n">
-        <v>1.8643433944848167</v>
+        <v>1.8579893162851346</v>
       </c>
       <c r="D200" t="n">
-        <v>1.7421903120574496</v>
+        <v>1.7340545085869579</v>
       </c>
       <c r="E200" t="n">
-        <v>1.914785833435594</v>
+        <v>1.909157931984491</v>
       </c>
       <c r="F200" t="n">
-        <v>1.6748181324868956</v>
+        <v>1.6575792033712633</v>
       </c>
       <c r="G200" t="n">
-        <v>1.721073745903857</v>
+        <v>1.7282903384471016</v>
       </c>
       <c r="H200" t="n">
-        <v>1.820921363421528</v>
+        <v>1.8245732186446655</v>
       </c>
       <c r="I200" t="n">
-        <v>1.8438020420360022</v>
+        <v>1.7273333667753856</v>
       </c>
       <c r="J200" t="n">
-        <v>1.8643433944848167</v>
+        <v>1.812646171785121</v>
       </c>
       <c r="K200" t="n">
-        <v>1.7421903120574496</v>
+        <v>1.9185510836599136</v>
       </c>
       <c r="L200" t="n">
-        <v>1.914785833435594</v>
+        <v>1.9521677479385648</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5719165569796884</v>
+        <v>0.5778126039588604</v>
       </c>
       <c r="C213" t="n">
-        <v>0.5611994716159505</v>
+        <v>0.5749836558661139</v>
       </c>
       <c r="D213" t="n">
-        <v>0.5166072999328565</v>
+        <v>0.5222475229076785</v>
       </c>
       <c r="E213" t="n">
-        <v>0.5719539998739245</v>
+        <v>0.5760412588603466</v>
       </c>
       <c r="F213" t="n">
-        <v>0.5440086396352407</v>
+        <v>0.5495091642634384</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5659790921615084</v>
+        <v>0.5609094290941911</v>
       </c>
       <c r="H213" t="n">
-        <v>0.5673305905332032</v>
+        <v>0.5595731352237269</v>
       </c>
       <c r="I213" t="n">
-        <v>0.5719165569796884</v>
+        <v>0.5817481696006049</v>
       </c>
       <c r="J213" t="n">
-        <v>0.5611994716159505</v>
+        <v>0.5760412588603466</v>
       </c>
       <c r="K213" t="n">
-        <v>0.5166072999328565</v>
+        <v>0.5749836558661139</v>
       </c>
       <c r="L213" t="n">
-        <v>0.5719539998739245</v>
+        <v>0.5100560767958052</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3732672930670401</v>
+        <v>0.377037669764687</v>
       </c>
       <c r="C214" t="n">
-        <v>0.3662726757675922</v>
+        <v>0.37519170796069296</v>
       </c>
       <c r="D214" t="n">
-        <v>0.33716913083084304</v>
+        <v>0.34078001713425876</v>
       </c>
       <c r="E214" t="n">
-        <v>0.37329173056164583</v>
+        <v>0.3758818212703536</v>
       </c>
       <c r="F214" t="n">
-        <v>0.3550529003638217</v>
+        <v>0.3585689432675976</v>
       </c>
       <c r="G214" t="n">
-        <v>0.3693921448599888</v>
+        <v>0.3660079109485333</v>
       </c>
       <c r="H214" t="n">
-        <v>0.37027421433783564</v>
+        <v>0.3651359446335227</v>
       </c>
       <c r="I214" t="n">
-        <v>0.3732672930670401</v>
+        <v>0.3796057281431348</v>
       </c>
       <c r="J214" t="n">
-        <v>0.3662726757675922</v>
+        <v>0.3758818212703536</v>
       </c>
       <c r="K214" t="n">
-        <v>0.33716913083084304</v>
+        <v>0.37519170796069296</v>
       </c>
       <c r="L214" t="n">
-        <v>0.37329173056164583</v>
+        <v>0.3328247832027232</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>1.0322686917965844</v>
+        <v>1.0429106370728378</v>
       </c>
       <c r="C221" t="n">
-        <v>0.9559324265603146</v>
+        <v>0.9708711137561529</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9872762064883672</v>
+        <v>1.0117272623948135</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9594962068469761</v>
+        <v>0.99195409105103</v>
       </c>
       <c r="F221" t="n">
-        <v>1.0882601882786151</v>
+        <v>1.1202816892807295</v>
       </c>
       <c r="G221" t="n">
-        <v>1.0745281447698485</v>
+        <v>1.1067107428114213</v>
       </c>
       <c r="H221" t="n">
-        <v>1.0074549517952305</v>
+        <v>1.0156639445292432</v>
       </c>
       <c r="I221" t="n">
-        <v>1.0322686917965844</v>
+        <v>1.0616963606128678</v>
       </c>
       <c r="J221" t="n">
-        <v>0.9559324265603146</v>
+        <v>1.123726590924039</v>
       </c>
       <c r="K221" t="n">
-        <v>0.9872762064883672</v>
+        <v>1.0139730495706725</v>
       </c>
       <c r="L221" t="n">
-        <v>0.9594962068469761</v>
+        <v>1.1202816892807295</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>1.5824359126973113</v>
+        <v>1.59874968499316</v>
       </c>
       <c r="C222" t="n">
-        <v>1.4654147838855656</v>
+        <v>1.4883153283805295</v>
       </c>
       <c r="D222" t="n">
-        <v>1.5134638271162648</v>
+        <v>1.5509465380395122</v>
       </c>
       <c r="E222" t="n">
-        <v>1.4708779486171828</v>
+        <v>1.5206348791749362</v>
       </c>
       <c r="F222" t="n">
-        <v>1.6682691415290645</v>
+        <v>1.7173571101625293</v>
       </c>
       <c r="G222" t="n">
-        <v>1.647218344410366</v>
+        <v>1.6965532698126393</v>
       </c>
       <c r="H222" t="n">
-        <v>1.5443972182967902</v>
+        <v>1.5569813497468727</v>
       </c>
       <c r="I222" t="n">
-        <v>1.5824359126973113</v>
+        <v>1.6275476169773304</v>
       </c>
       <c r="J222" t="n">
-        <v>1.4654147838855656</v>
+        <v>1.722638037618147</v>
       </c>
       <c r="K222" t="n">
-        <v>1.5134638271162648</v>
+        <v>1.5543892601791998</v>
       </c>
       <c r="L222" t="n">
-        <v>1.4708779486171828</v>
+        <v>1.7173571101625293</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.5824359126973113</v>
+        <v>1.59874968499316</v>
       </c>
       <c r="C224" t="n">
-        <v>1.4654147838855656</v>
+        <v>1.4883153283805295</v>
       </c>
       <c r="D224" t="n">
-        <v>1.5134638271162648</v>
+        <v>1.5509465380395122</v>
       </c>
       <c r="E224" t="n">
-        <v>1.4708779486171828</v>
+        <v>1.5206348791749362</v>
       </c>
       <c r="F224" t="n">
-        <v>1.6682691415290645</v>
+        <v>1.7173571101625293</v>
       </c>
       <c r="G224" t="n">
-        <v>1.647218344410366</v>
+        <v>1.6965532698126393</v>
       </c>
       <c r="H224" t="n">
-        <v>1.5443972182967902</v>
+        <v>1.5569813497468727</v>
       </c>
       <c r="I224" t="n">
-        <v>1.5824359126973113</v>
+        <v>1.6275476169773304</v>
       </c>
       <c r="J224" t="n">
-        <v>1.4654147838855656</v>
+        <v>1.722638037618147</v>
       </c>
       <c r="K224" t="n">
-        <v>1.5134638271162648</v>
+        <v>1.5543892601791998</v>
       </c>
       <c r="L224" t="n">
-        <v>1.4708779486171828</v>
+        <v>1.7173571101625293</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>5.12469625934368</v>
+        <v>5.073956692419485</v>
       </c>
       <c r="C230" t="n">
-        <v>5.259759742188461</v>
+        <v>5.1787380291050145</v>
       </c>
       <c r="D230" t="n">
-        <v>4.473699326043615</v>
+        <v>4.397249399195843</v>
       </c>
       <c r="E230" t="n">
-        <v>5.1503292471830715</v>
+        <v>5.064640985066983</v>
       </c>
       <c r="F230" t="n">
-        <v>5.179583234790137</v>
+        <v>5.124224997854522</v>
       </c>
       <c r="G230" t="n">
-        <v>4.726444768579499</v>
+        <v>4.600124163327226</v>
       </c>
       <c r="H230" t="n">
-        <v>4.487165538949396</v>
+        <v>4.492737984580249</v>
       </c>
       <c r="I230" t="n">
-        <v>5.12469625934368</v>
+        <v>4.928900162435968</v>
       </c>
       <c r="J230" t="n">
-        <v>5.259759742188461</v>
+        <v>4.5848328917953465</v>
       </c>
       <c r="K230" t="n">
-        <v>4.473699326043615</v>
+        <v>4.940670668667581</v>
       </c>
       <c r="L230" t="n">
-        <v>5.1503292471830715</v>
+        <v>4.600124163327226</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>4.469089600576816</v>
+        <v>4.380592776803017</v>
       </c>
       <c r="C238" t="n">
-        <v>4.586874299620931</v>
+        <v>4.471055584125388</v>
       </c>
       <c r="D238" t="n">
-        <v>3.9013752469086977</v>
+        <v>3.796358566618645</v>
       </c>
       <c r="E238" t="n">
-        <v>4.491443338942455</v>
+        <v>4.372550075059002</v>
       </c>
       <c r="F238" t="n">
-        <v>4.516954839561007</v>
+        <v>4.423991841682668</v>
       </c>
       <c r="G238" t="n">
-        <v>4.121786754570415</v>
+        <v>3.9715101850148544</v>
       </c>
       <c r="H238" t="n">
-        <v>3.9131187159868217</v>
+        <v>3.8787984912689684</v>
       </c>
       <c r="I238" t="n">
-        <v>4.469089600576816</v>
+        <v>4.255358442733268</v>
       </c>
       <c r="J238" t="n">
-        <v>4.586874299620931</v>
+        <v>3.9583084890443785</v>
       </c>
       <c r="K238" t="n">
-        <v>3.9013752469086977</v>
+        <v>4.2655204913480205</v>
       </c>
       <c r="L238" t="n">
-        <v>4.491443338942455</v>
+        <v>3.9715101850148544</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.707197323132611</v>
+        <v>2.626785521455405</v>
       </c>
       <c r="C242" t="n">
-        <v>3.0209426115494002</v>
+        <v>2.892036201327473</v>
       </c>
       <c r="D242" t="n">
-        <v>3.015487607274687</v>
+        <v>2.92606015732159</v>
       </c>
       <c r="E242" t="n">
-        <v>3.0666530022129384</v>
+        <v>2.957188456501208</v>
       </c>
       <c r="F242" t="n">
-        <v>2.9626231928163937</v>
+        <v>2.8212460616168396</v>
       </c>
       <c r="G242" t="n">
-        <v>2.8735354636901014</v>
+        <v>2.763905338521687</v>
       </c>
       <c r="H242" t="n">
-        <v>2.6894011661061548</v>
+        <v>2.6166041817622987</v>
       </c>
       <c r="I242" t="n">
-        <v>2.707197323132611</v>
+        <v>2.626785521455405</v>
       </c>
       <c r="J242" t="n">
-        <v>3.0209426115494002</v>
+        <v>2.862257512748102</v>
       </c>
       <c r="K242" t="n">
-        <v>3.015487607274687</v>
+        <v>2.892036201327473</v>
       </c>
       <c r="L242" t="n">
-        <v>3.0666530022129384</v>
+        <v>2.745837974520597</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.1839574453570405</v>
+        <v>1.1961631922163913</v>
       </c>
       <c r="C250" t="n">
-        <v>1.321169855768601</v>
+        <v>1.3169507850296587</v>
       </c>
       <c r="D250" t="n">
-        <v>1.3187841807864653</v>
+        <v>1.3324443239887143</v>
       </c>
       <c r="E250" t="n">
-        <v>1.34116069902699</v>
+        <v>1.3466192634387872</v>
       </c>
       <c r="F250" t="n">
-        <v>1.2956646185153593</v>
+        <v>1.2847149748342377</v>
       </c>
       <c r="G250" t="n">
-        <v>1.256703261953816</v>
+        <v>1.258603645294287</v>
       </c>
       <c r="H250" t="n">
-        <v>1.1761745281569616</v>
+        <v>1.1915269005630105</v>
       </c>
       <c r="I250" t="n">
-        <v>1.1839574453570405</v>
+        <v>1.1961631922163913</v>
       </c>
       <c r="J250" t="n">
-        <v>1.321169855768601</v>
+        <v>1.3033904197466253</v>
       </c>
       <c r="K250" t="n">
-        <v>1.3187841807864653</v>
+        <v>1.3169507850296587</v>
       </c>
       <c r="L250" t="n">
-        <v>1.34116069902699</v>
+        <v>1.2503762831354972</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4.165674755483356</v>
+        <v>4.207331503038189</v>
       </c>
       <c r="C253" t="n">
-        <v>4.296085204502403</v>
+        <v>4.27868539781523</v>
       </c>
       <c r="D253" t="n">
-        <v>4.354378678464239</v>
+        <v>4.331152414034168</v>
       </c>
       <c r="E253" t="n">
-        <v>3.8549283750236656</v>
+        <v>3.920149604724196</v>
       </c>
       <c r="F253" t="n">
-        <v>3.8765412270105464</v>
+        <v>3.911467104027096</v>
       </c>
       <c r="G253" t="n">
-        <v>3.7925233648404224</v>
+        <v>3.753512003539748</v>
       </c>
       <c r="H253" t="n">
-        <v>3.9171244504046134</v>
+        <v>3.9266868210794814</v>
       </c>
       <c r="I253" t="n">
-        <v>4.165674755483356</v>
+        <v>4.3232004840446</v>
       </c>
       <c r="J253" t="n">
-        <v>4.296085204502403</v>
+        <v>4.131662284125538</v>
       </c>
       <c r="K253" t="n">
-        <v>4.354378678464239</v>
+        <v>4.331152414034168</v>
       </c>
       <c r="L253" t="n">
-        <v>3.8549283750236656</v>
+        <v>3.9136341224413753</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>3.5252933857512967</v>
+        <v>3.5965114339482924</v>
       </c>
       <c r="C254" t="n">
-        <v>3.6356560809556084</v>
+        <v>3.6575061756835363</v>
       </c>
       <c r="D254" t="n">
-        <v>3.684988208462592</v>
+        <v>3.702356034459889</v>
       </c>
       <c r="E254" t="n">
-        <v>3.2623174637260086</v>
+        <v>3.351022581890067</v>
       </c>
       <c r="F254" t="n">
-        <v>3.280607812499945</v>
+        <v>3.3436006059868526</v>
       </c>
       <c r="G254" t="n">
-        <v>3.209505858752014</v>
+        <v>3.2085774150300734</v>
       </c>
       <c r="H254" t="n">
-        <v>3.314952253053123</v>
+        <v>3.3566107256698</v>
       </c>
       <c r="I254" t="n">
-        <v>3.5252933857512967</v>
+        <v>3.6955585650641956</v>
       </c>
       <c r="J254" t="n">
-        <v>3.6356560809556084</v>
+        <v>3.531827866508749</v>
       </c>
       <c r="K254" t="n">
-        <v>3.684988208462592</v>
+        <v>3.702356034459889</v>
       </c>
       <c r="L254" t="n">
-        <v>3.2623174637260086</v>
+        <v>3.345453016831804</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>6.321407322406469</v>
+        <v>6.511049542078664</v>
       </c>
       <c r="C260" t="n">
-        <v>6.5193050498423855</v>
+        <v>6.621473154664953</v>
       </c>
       <c r="D260" t="n">
-        <v>6.6077653389386</v>
+        <v>6.70266840673384</v>
       </c>
       <c r="E260" t="n">
-        <v>5.849849997326427</v>
+        <v>6.0666216271020685</v>
       </c>
       <c r="F260" t="n">
-        <v>5.882647478845624</v>
+        <v>6.053185036201843</v>
       </c>
       <c r="G260" t="n">
-        <v>5.7551504560797335</v>
+        <v>5.808741857917823</v>
       </c>
       <c r="H260" t="n">
-        <v>5.944232480217233</v>
+        <v>6.076738286444412</v>
       </c>
       <c r="I260" t="n">
-        <v>6.321407322406469</v>
+        <v>6.69036240943369</v>
       </c>
       <c r="J260" t="n">
-        <v>6.5193050498423855</v>
+        <v>6.393947756114118</v>
       </c>
       <c r="K260" t="n">
-        <v>6.6077653389386</v>
+        <v>6.70266840673384</v>
       </c>
       <c r="L260" t="n">
-        <v>5.849849997326427</v>
+        <v>6.056538602290891</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>1.1234693603534711</v>
+        <v>1.1349333334183023</v>
       </c>
       <c r="C265" t="n">
-        <v>1.0337884643128807</v>
+        <v>1.058493759588391</v>
       </c>
       <c r="D265" t="n">
-        <v>1.1401184946792935</v>
+        <v>1.1605012934978152</v>
       </c>
       <c r="E265" t="n">
-        <v>1.0940199463516334</v>
+        <v>1.1405172616851533</v>
       </c>
       <c r="F265" t="n">
-        <v>1.128671951602792</v>
+        <v>1.1370208864807796</v>
       </c>
       <c r="G265" t="n">
-        <v>1.065241749099391</v>
+        <v>1.0775601785409148</v>
       </c>
       <c r="H265" t="n">
-        <v>1.0855067414256503</v>
+        <v>1.12324716355684</v>
       </c>
       <c r="I265" t="n">
-        <v>1.1234693603534711</v>
+        <v>1.0291237879918256</v>
       </c>
       <c r="J265" t="n">
-        <v>1.0337884643128807</v>
+        <v>1.0308399482246813</v>
       </c>
       <c r="K265" t="n">
-        <v>1.1401184946792935</v>
+        <v>1.0067758232121264</v>
       </c>
       <c r="L265" t="n">
-        <v>1.0940199463516334</v>
+        <v>1.0268444443678288</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>2.4801107894038843</v>
+        <v>2.5054180423569856</v>
       </c>
       <c r="C266" t="n">
-        <v>2.2821360464133877</v>
+        <v>2.3366741331031076</v>
       </c>
       <c r="D266" t="n">
-        <v>2.51686452665108</v>
+        <v>2.561860501665619</v>
       </c>
       <c r="E266" t="n">
-        <v>2.4150998402983386</v>
+        <v>2.5177448233361455</v>
       </c>
       <c r="F266" t="n">
-        <v>2.491595751206705</v>
+        <v>2.5100264126930254</v>
       </c>
       <c r="G266" t="n">
-        <v>2.3515706333403283</v>
+        <v>2.3787641384278384</v>
       </c>
       <c r="H266" t="n">
-        <v>2.396306545052001</v>
+        <v>2.4796202796560065</v>
       </c>
       <c r="I266" t="n">
-        <v>2.4801107894038843</v>
+        <v>2.2718385567966832</v>
       </c>
       <c r="J266" t="n">
-        <v>2.2821360464133877</v>
+        <v>2.2756270602130226</v>
       </c>
       <c r="K266" t="n">
-        <v>2.51686452665108</v>
+        <v>2.222504386656154</v>
       </c>
       <c r="L266" t="n">
-        <v>2.4150998402983386</v>
+        <v>2.266806799888907</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>0.9222928997935781</v>
+        <v>0.9316089896904829</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9325679418446103</v>
+        <v>0.9293895522590185</v>
       </c>
       <c r="D268" t="n">
-        <v>0.871465438407606</v>
+        <v>0.8673958075015329</v>
       </c>
       <c r="E268" t="n">
-        <v>0.9577998822763504</v>
+        <v>0.9549847354055079</v>
       </c>
       <c r="F268" t="n">
-        <v>0.8377650294456299</v>
+        <v>0.8291419009530312</v>
       </c>
       <c r="G268" t="n">
-        <v>0.8609026672491719</v>
+        <v>0.8645124973239818</v>
       </c>
       <c r="H268" t="n">
-        <v>0.9108476974630253</v>
+        <v>0.9126744012341387</v>
       </c>
       <c r="I268" t="n">
-        <v>0.9222928997935781</v>
+        <v>0.8640338080948754</v>
       </c>
       <c r="J268" t="n">
-        <v>0.9325679418446103</v>
+        <v>0.9067083428486538</v>
       </c>
       <c r="K268" t="n">
-        <v>0.871465438407606</v>
+        <v>0.9596833076488492</v>
       </c>
       <c r="L268" t="n">
-        <v>0.9577998822763504</v>
+        <v>0.9764987846209369</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>1.923822694024017</v>
+        <v>1.9432552464889061</v>
       </c>
       <c r="C269" t="n">
-        <v>1.7702536256437151</v>
+        <v>1.8123738999723142</v>
       </c>
       <c r="D269" t="n">
-        <v>1.9523325791906174</v>
+        <v>1.987033212210369</v>
       </c>
       <c r="E269" t="n">
-        <v>1.873393681020388</v>
+        <v>1.9528161586421282</v>
       </c>
       <c r="F269" t="n">
-        <v>1.9327315823892728</v>
+        <v>1.9468295960313278</v>
       </c>
       <c r="G269" t="n">
-        <v>1.824114055851488</v>
+        <v>1.8450197986962984</v>
       </c>
       <c r="H269" t="n">
-        <v>1.8588157161791126</v>
+        <v>1.9232459558759945</v>
       </c>
       <c r="I269" t="n">
-        <v>1.923822694024017</v>
+        <v>1.762086055115069</v>
       </c>
       <c r="J269" t="n">
-        <v>1.7702536256437151</v>
+        <v>1.7650244985267787</v>
       </c>
       <c r="K269" t="n">
-        <v>1.9523325791906174</v>
+        <v>1.7238214288786544</v>
       </c>
       <c r="L269" t="n">
-        <v>1.873393681020388</v>
+        <v>1.7581833179890547</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.3057510305489441</v>
+        <v>1.3190750206565862</v>
       </c>
       <c r="C272" t="n">
-        <v>1.2015195075916016</v>
+        <v>1.2302332099001931</v>
       </c>
       <c r="D272" t="n">
-        <v>1.3251014686390852</v>
+        <v>1.3487913541864602</v>
       </c>
       <c r="E272" t="n">
-        <v>1.2715234814595202</v>
+        <v>1.3255649351538163</v>
       </c>
       <c r="F272" t="n">
-        <v>1.311797736516242</v>
+        <v>1.3215012769114054</v>
       </c>
       <c r="G272" t="n">
-        <v>1.238076053300346</v>
+        <v>1.2523931343936419</v>
       </c>
       <c r="H272" t="n">
-        <v>1.2616290183814356</v>
+        <v>1.305492782566022</v>
       </c>
       <c r="I272" t="n">
-        <v>1.3057510305489441</v>
+        <v>1.1960979926590727</v>
       </c>
       <c r="J272" t="n">
-        <v>1.2015195075916016</v>
+        <v>1.198092598005438</v>
       </c>
       <c r="K272" t="n">
-        <v>1.3251014686390852</v>
+        <v>1.1701240951309884</v>
       </c>
       <c r="L272" t="n">
-        <v>1.2715234814595202</v>
+        <v>1.1934488280347055</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>1.3233329682946666</v>
+        <v>1.336699967974411</v>
       </c>
       <c r="C274" t="n">
-        <v>1.2826462390307496</v>
+        <v>1.2888181778405903</v>
       </c>
       <c r="D274" t="n">
-        <v>1.1773959886535563</v>
+        <v>1.1979858195288529</v>
       </c>
       <c r="E274" t="n">
-        <v>1.2408121236702179</v>
+        <v>1.2543698130814644</v>
       </c>
       <c r="F274" t="n">
-        <v>1.1952242244030262</v>
+        <v>1.2321749131084585</v>
       </c>
       <c r="G274" t="n">
-        <v>1.281674597651017</v>
+        <v>1.3211569447819798</v>
       </c>
       <c r="H274" t="n">
-        <v>1.3349048982235796</v>
+        <v>1.3509201802323096</v>
       </c>
       <c r="I274" t="n">
-        <v>1.3233329682946666</v>
+        <v>1.327657102449122</v>
       </c>
       <c r="J274" t="n">
-        <v>1.2826462390307496</v>
+        <v>1.3211569447819798</v>
       </c>
       <c r="K274" t="n">
-        <v>1.1773959886535563</v>
+        <v>1.1959947079210704</v>
       </c>
       <c r="L274" t="n">
-        <v>1.2408121236702179</v>
+        <v>1.1999835730032067</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>4.542400999041197</v>
+        <v>4.497867655913343</v>
       </c>
       <c r="C275" t="n">
-        <v>4.340831358112404</v>
+        <v>4.260514806362863</v>
       </c>
       <c r="D275" t="n">
-        <v>4.79215125217402</v>
+        <v>4.706382634883884</v>
       </c>
       <c r="E275" t="n">
-        <v>4.744574179827594</v>
+        <v>4.591181627336949</v>
       </c>
       <c r="F275" t="n">
-        <v>4.983349304520657</v>
+        <v>4.812408777375614</v>
       </c>
       <c r="G275" t="n">
-        <v>4.899705771107232</v>
+        <v>4.715039375498814</v>
       </c>
       <c r="H275" t="n">
-        <v>4.358365717560343</v>
+        <v>4.2676077812981985</v>
       </c>
       <c r="I275" t="n">
-        <v>4.542400999041197</v>
+        <v>4.274724416681763</v>
       </c>
       <c r="J275" t="n">
-        <v>4.340831358112404</v>
+        <v>4.761751843466841</v>
       </c>
       <c r="K275" t="n">
-        <v>4.79215125217402</v>
+        <v>4.580243733358761</v>
       </c>
       <c r="L275" t="n">
-        <v>4.744574179827594</v>
+        <v>4.657922002629267</v>
       </c>
     </row>
     <row r="276">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>0.5971627120623081</v>
+        <v>0.6033831569796237</v>
       </c>
       <c r="C280" t="n">
-        <v>0.5317877316750368</v>
+        <v>0.5470360920331557</v>
       </c>
       <c r="D280" t="n">
-        <v>0.5902840908751512</v>
+        <v>0.5960738520055239</v>
       </c>
       <c r="E280" t="n">
-        <v>0.5283579852715187</v>
+        <v>0.5449157970064445</v>
       </c>
       <c r="F280" t="n">
-        <v>0.5371973468912179</v>
+        <v>0.5452176895022626</v>
       </c>
       <c r="G280" t="n">
-        <v>0.5876697532782946</v>
+        <v>0.6022753546760983</v>
       </c>
       <c r="H280" t="n">
-        <v>0.5802322849967873</v>
+        <v>0.5875330922928602</v>
       </c>
       <c r="I280" t="n">
-        <v>0.5971627120623081</v>
+        <v>0.5342659768200848</v>
       </c>
       <c r="J280" t="n">
-        <v>0.5317877316750368</v>
+        <v>0.5861333710023949</v>
       </c>
       <c r="K280" t="n">
-        <v>0.5902840908751512</v>
+        <v>0.5718291282897511</v>
       </c>
       <c r="L280" t="n">
-        <v>0.5283579852715187</v>
+        <v>0.546125376855013</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>1.8645686347686468</v>
+        <v>1.8832143211163332</v>
       </c>
       <c r="C282" t="n">
-        <v>1.7818281567094143</v>
+        <v>1.7838369450738032</v>
       </c>
       <c r="D282" t="n">
-        <v>1.9670863316023888</v>
+        <v>1.9705175555830787</v>
       </c>
       <c r="E282" t="n">
-        <v>1.9475568543831847</v>
+        <v>1.922283991633238</v>
       </c>
       <c r="F282" t="n">
-        <v>2.0455694711379873</v>
+        <v>2.0149096909743105</v>
       </c>
       <c r="G282" t="n">
-        <v>2.011235402231078</v>
+        <v>1.9741420503764715</v>
       </c>
       <c r="H282" t="n">
-        <v>1.789025675524747</v>
+        <v>1.7868067060804398</v>
       </c>
       <c r="I282" t="n">
-        <v>1.8645686347686468</v>
+        <v>1.7897863734912562</v>
       </c>
       <c r="J282" t="n">
-        <v>1.7818281567094143</v>
+        <v>1.993700115526837</v>
       </c>
       <c r="K282" t="n">
-        <v>1.9670863316023888</v>
+        <v>1.9177043996669212</v>
       </c>
       <c r="L282" t="n">
-        <v>1.9475568543831847</v>
+        <v>1.9502275507065983</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>0.48463089480406835</v>
+        <v>0.4896791332916108</v>
       </c>
       <c r="C284" t="n">
-        <v>0.5267969765233562</v>
+        <v>0.5354887444043824</v>
       </c>
       <c r="D284" t="n">
-        <v>0.5592393923263477</v>
+        <v>0.5650374791017132</v>
       </c>
       <c r="E284" t="n">
-        <v>0.5358797063681724</v>
+        <v>0.5390122116130875</v>
       </c>
       <c r="F284" t="n">
-        <v>0.5057439275723216</v>
+        <v>0.5114184952664338</v>
       </c>
       <c r="G284" t="n">
-        <v>0.5821459193409952</v>
+        <v>0.5767059630732362</v>
       </c>
       <c r="H284" t="n">
-        <v>0.5753548984830081</v>
+        <v>0.5650374791017132</v>
       </c>
       <c r="I284" t="n">
-        <v>0.48463089480406835</v>
+        <v>0.5581926886749721</v>
       </c>
       <c r="J284" t="n">
-        <v>0.5267969765233562</v>
+        <v>0.5003127734346577</v>
       </c>
       <c r="K284" t="n">
-        <v>0.5592393923263477</v>
+        <v>0.5102857855769083</v>
       </c>
       <c r="L284" t="n">
-        <v>0.5358797063681724</v>
+        <v>0.5640000788798368</v>
       </c>
     </row>
     <row r="285">
@@ -11427,37 +11427,37 @@
         <v>298.0</v>
       </c>
       <c r="B299" t="n">
-        <v>1.5081030965361775</v>
+        <v>1.5231841275015392</v>
       </c>
       <c r="C299" t="n">
-        <v>1.6393180048126392</v>
+        <v>1.6656784013844308</v>
       </c>
       <c r="D299" t="n">
-        <v>1.7402742340918027</v>
+        <v>1.7575919844202945</v>
       </c>
       <c r="E299" t="n">
-        <v>1.6675821810152456</v>
+        <v>1.676638413688806</v>
       </c>
       <c r="F299" t="n">
-        <v>1.5738038812703932</v>
+        <v>1.5908060636854966</v>
       </c>
       <c r="G299" t="n">
-        <v>1.8115561203521617</v>
+        <v>1.7938876898508256</v>
       </c>
       <c r="H299" t="n">
-        <v>1.790423419786894</v>
+        <v>1.7575919844202945</v>
       </c>
       <c r="I299" t="n">
-        <v>1.5081030965361775</v>
+        <v>1.736300744044165</v>
       </c>
       <c r="J299" t="n">
-        <v>1.6393180048126392</v>
+        <v>1.556260872623547</v>
       </c>
       <c r="K299" t="n">
-        <v>1.7402742340918027</v>
+        <v>1.5872826841848124</v>
       </c>
       <c r="L299" t="n">
-        <v>1.6675821810152456</v>
+        <v>1.7543650722559823</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>0.48463089480406835</v>
+        <v>0.4896791332916108</v>
       </c>
       <c r="C302" t="n">
-        <v>0.5267969765233562</v>
+        <v>0.5354887444043824</v>
       </c>
       <c r="D302" t="n">
-        <v>0.5592393923263477</v>
+        <v>0.5650374791017132</v>
       </c>
       <c r="E302" t="n">
-        <v>0.5358797063681724</v>
+        <v>0.5390122116130875</v>
       </c>
       <c r="F302" t="n">
-        <v>0.5057439275723216</v>
+        <v>0.5114184952664338</v>
       </c>
       <c r="G302" t="n">
-        <v>0.5821459193409952</v>
+        <v>0.5767059630732362</v>
       </c>
       <c r="H302" t="n">
-        <v>0.5753548984830081</v>
+        <v>0.5650374791017132</v>
       </c>
       <c r="I302" t="n">
-        <v>0.48463089480406835</v>
+        <v>0.5581926886749721</v>
       </c>
       <c r="J302" t="n">
-        <v>0.5267969765233562</v>
+        <v>0.5003127734346577</v>
       </c>
       <c r="K302" t="n">
-        <v>0.5592393923263477</v>
+        <v>0.5102857855769083</v>
       </c>
       <c r="L302" t="n">
-        <v>0.5358797063681724</v>
+        <v>0.5640000788798368</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.3717861172077375</v>
+        <v>1.35806825603566</v>
       </c>
       <c r="C305" t="n">
-        <v>1.491140549910488</v>
+        <v>1.4851158969171534</v>
       </c>
       <c r="D305" t="n">
-        <v>1.5829713763897144</v>
+        <v>1.5670658838988674</v>
       </c>
       <c r="E305" t="n">
-        <v>1.5168499358391432</v>
+        <v>1.4948878243733217</v>
       </c>
       <c r="F305" t="n">
-        <v>1.4315482280309673</v>
+        <v>1.4183598539357367</v>
       </c>
       <c r="G305" t="n">
-        <v>1.6478101146728803</v>
+        <v>1.5994270702358588</v>
       </c>
       <c r="H305" t="n">
-        <v>1.6285875924718944</v>
+        <v>1.5670658838988674</v>
       </c>
       <c r="I305" t="n">
-        <v>1.3717861172077375</v>
+        <v>1.5480826518887782</v>
       </c>
       <c r="J305" t="n">
-        <v>1.491140549910488</v>
+        <v>1.3875594230929638</v>
       </c>
       <c r="K305" t="n">
-        <v>1.5829713763897144</v>
+        <v>1.4152184150463394</v>
       </c>
       <c r="L305" t="n">
-        <v>1.5168499358391432</v>
+        <v>1.564188774758716</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>1.5362556101531324</v>
       </c>
       <c r="C310" t="n">
-        <v>1.6699199726482645</v>
+        <v>1.6799727246600704</v>
       </c>
       <c r="D310" t="n">
-        <v>1.7727608022747294</v>
+        <v>1.772675080887833</v>
       </c>
       <c r="E310" t="n">
-        <v>1.6987117703425603</v>
+        <v>1.6910267923108158</v>
       </c>
       <c r="F310" t="n">
-        <v>1.603182864245526</v>
+        <v>1.6044578563270222</v>
       </c>
       <c r="G310" t="n">
-        <v>1.8453733431025352</v>
+        <v>1.8092822645403968</v>
       </c>
       <c r="H310" t="n">
-        <v>1.8238461478626045</v>
+        <v>1.772675080887833</v>
       </c>
       <c r="I310" t="n">
-        <v>1.5362556101531324</v>
+        <v>1.7512011258456412</v>
       </c>
       <c r="J310" t="n">
-        <v>1.6699199726482645</v>
+        <v>1.5696162094016552</v>
       </c>
       <c r="K310" t="n">
-        <v>1.7727608022747294</v>
+        <v>1.6009042403019504</v>
       </c>
       <c r="L310" t="n">
-        <v>1.6987117703425603</v>
+        <v>1.7694204763877008</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>1.2727193769288188</v>
+        <v>1.2857063093464598</v>
       </c>
       <c r="C312" t="n">
-        <v>1.3850530444722566</v>
+        <v>1.4181395764926386</v>
       </c>
       <c r="D312" t="n">
-        <v>1.2328484898509853</v>
+        <v>1.255692535228734</v>
       </c>
       <c r="E312" t="n">
-        <v>1.2899906509376395</v>
+        <v>1.320197289065504</v>
       </c>
       <c r="F312" t="n">
-        <v>1.327102308383508</v>
+        <v>1.3439777170418556</v>
       </c>
       <c r="G312" t="n">
-        <v>1.2909038867567293</v>
+        <v>1.2857063093464598</v>
       </c>
       <c r="H312" t="n">
-        <v>1.4115470861671633</v>
+        <v>1.4225004005641615</v>
       </c>
       <c r="I312" t="n">
-        <v>1.2727193769288188</v>
+        <v>1.415535893788893</v>
       </c>
       <c r="J312" t="n">
-        <v>1.3850530444722566</v>
+        <v>1.229004065017856</v>
       </c>
       <c r="K312" t="n">
-        <v>1.2328484898509853</v>
+        <v>1.4009604183730897</v>
       </c>
       <c r="L312" t="n">
-        <v>1.2899906509376395</v>
+        <v>1.4321892575802104</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>1.6937672896510316</v>
       </c>
       <c r="C314" t="n">
-        <v>1.5685132060012705</v>
+        <v>1.5767695490791978</v>
       </c>
       <c r="D314" t="n">
-        <v>1.619942712289753</v>
+        <v>1.6431230847373548</v>
       </c>
       <c r="E314" t="n">
-        <v>1.5743607285746277</v>
+        <v>1.61100992983775</v>
       </c>
       <c r="F314" t="n">
-        <v>1.7856392663888117</v>
+        <v>1.8194238442369797</v>
       </c>
       <c r="G314" t="n">
-        <v>1.7631074524337325</v>
+        <v>1.797383580764517</v>
       </c>
       <c r="H314" t="n">
-        <v>1.653052404580701</v>
+        <v>1.6495165600669053</v>
       </c>
       <c r="I314" t="n">
-        <v>1.6937672896510316</v>
+        <v>1.7242767531788332</v>
       </c>
       <c r="J314" t="n">
-        <v>1.5685132060012705</v>
+        <v>1.8250186301295463</v>
       </c>
       <c r="K314" t="n">
-        <v>1.619942712289753</v>
+        <v>1.646770416275428</v>
       </c>
       <c r="L314" t="n">
-        <v>1.5743607285746277</v>
+        <v>1.8194238442369797</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>1.876761228307869</v>
+        <v>1.8395976396285052</v>
       </c>
       <c r="C315" t="n">
-        <v>2.0424092695814178</v>
+        <v>2.029084090678309</v>
       </c>
       <c r="D315" t="n">
-        <v>1.8179673289123197</v>
+        <v>1.7966537203042103</v>
       </c>
       <c r="E315" t="n">
-        <v>1.902229574284854</v>
+        <v>1.8889475762496304</v>
       </c>
       <c r="F315" t="n">
-        <v>1.9569546936436244</v>
+        <v>1.9229727800280025</v>
       </c>
       <c r="G315" t="n">
-        <v>1.9035762384502932</v>
+        <v>1.8395976396285052</v>
       </c>
       <c r="H315" t="n">
-        <v>2.081477575710424</v>
+        <v>2.0353235884629055</v>
       </c>
       <c r="I315" t="n">
-        <v>1.876761228307869</v>
+        <v>2.0253587231341563</v>
       </c>
       <c r="J315" t="n">
-        <v>2.0424092695814178</v>
+        <v>1.7584676692221533</v>
       </c>
       <c r="K315" t="n">
-        <v>1.8179673289123197</v>
+        <v>2.0045040302883192</v>
       </c>
       <c r="L315" t="n">
-        <v>1.902229574284854</v>
+        <v>2.0491864732973757</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>0.919705364843247</v>
+        <v>0.8921142038979496</v>
       </c>
       <c r="C316" t="n">
-        <v>1.0008810572739875</v>
+        <v>0.984005795181944</v>
       </c>
       <c r="D316" t="n">
-        <v>0.8908934606550438</v>
+        <v>0.8712885192074714</v>
       </c>
       <c r="E316" t="n">
-        <v>0.9321861077717634</v>
+        <v>0.9160464913029607</v>
       </c>
       <c r="F316" t="n">
-        <v>0.9590041095009059</v>
+        <v>0.9325470384483341</v>
       </c>
       <c r="G316" t="n">
-        <v>0.9328460394875913</v>
+        <v>0.8921142038979496</v>
       </c>
       <c r="H316" t="n">
-        <v>1.0200264499857614</v>
+        <v>0.9870316441387584</v>
       </c>
       <c r="I316" t="n">
-        <v>0.919705364843247</v>
+        <v>0.9821991755009413</v>
       </c>
       <c r="J316" t="n">
-        <v>1.0008810572739875</v>
+        <v>0.8527701661572059</v>
       </c>
       <c r="K316" t="n">
-        <v>0.8908934606550438</v>
+        <v>0.972085677144063</v>
       </c>
       <c r="L316" t="n">
-        <v>0.9321861077717634</v>
+        <v>0.9937544601510305</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2.233667642840128</v>
+        <v>2.211552121623889</v>
       </c>
       <c r="C319" t="n">
-        <v>2.430817213233893</v>
+        <v>2.4393514804678156</v>
       </c>
       <c r="D319" t="n">
-        <v>2.163692822018279</v>
+        <v>2.159925225694805</v>
       </c>
       <c r="E319" t="n">
-        <v>2.263979341242348</v>
+        <v>2.2708802891999755</v>
       </c>
       <c r="F319" t="n">
-        <v>2.3291116162054566</v>
+        <v>2.3117851642572953</v>
       </c>
       <c r="G319" t="n">
-        <v>2.265582102492284</v>
+        <v>2.211552121623889</v>
       </c>
       <c r="H319" t="n">
-        <v>2.477315196005849</v>
+        <v>2.446852563457995</v>
       </c>
       <c r="I319" t="n">
-        <v>2.233667642840128</v>
+        <v>2.434872868232934</v>
       </c>
       <c r="J319" t="n">
-        <v>2.430817213233893</v>
+        <v>2.114018207514451</v>
       </c>
       <c r="K319" t="n">
-        <v>2.163692822018279</v>
+        <v>2.4098014943544923</v>
       </c>
       <c r="L319" t="n">
-        <v>2.263979341242348</v>
+        <v>2.4635184319648125</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.0211493931691846</v>
+        <v>0.990514911374109</v>
       </c>
       <c r="C323" t="n">
-        <v>1.0020141800298457</v>
+        <v>0.9856653887950407</v>
       </c>
       <c r="D323" t="n">
-        <v>0.9223954515657479</v>
+        <v>0.8952625043552666</v>
       </c>
       <c r="E323" t="n">
-        <v>1.0212162469580128</v>
+        <v>0.9874783840965001</v>
       </c>
       <c r="F323" t="n">
-        <v>0.9713201785519366</v>
+        <v>0.9419957567737892</v>
       </c>
       <c r="G323" t="n">
-        <v>1.0105481288377811</v>
+        <v>0.9615386539537861</v>
       </c>
       <c r="H323" t="n">
-        <v>1.0129612111752004</v>
+        <v>0.9592479129841294</v>
       </c>
       <c r="I323" t="n">
-        <v>1.0211493931691846</v>
+        <v>0.9972614524258807</v>
       </c>
       <c r="J323" t="n">
-        <v>1.0020141800298457</v>
+        <v>0.9874783840965001</v>
       </c>
       <c r="K323" t="n">
-        <v>0.9223954515657479</v>
+        <v>0.9856653887950407</v>
       </c>
       <c r="L323" t="n">
-        <v>1.0212162469580128</v>
+        <v>0.8743633251364551</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>4.915737150459458</v>
+        <v>4.96539106107016</v>
       </c>
       <c r="C327" t="n">
-        <v>4.893273300465165</v>
+        <v>4.9131237873517755</v>
       </c>
       <c r="D327" t="n">
-        <v>4.758050639785308</v>
+        <v>4.879886173240476</v>
       </c>
       <c r="E327" t="n">
-        <v>4.1773471589692335</v>
+        <v>4.2160971915075836</v>
       </c>
       <c r="F327" t="n">
-        <v>4.81938831272564</v>
+        <v>4.855994439851443</v>
       </c>
       <c r="G327" t="n">
-        <v>4.684885350982674</v>
+        <v>4.7258456925067485</v>
       </c>
       <c r="H327" t="n">
-        <v>4.287400078408</v>
+        <v>4.395952861387619</v>
       </c>
       <c r="I327" t="n">
-        <v>4.915737150459458</v>
+        <v>4.737131292608211</v>
       </c>
       <c r="J327" t="n">
-        <v>4.893273300465165</v>
+        <v>4.528935453589512</v>
       </c>
       <c r="K327" t="n">
-        <v>4.758050639785308</v>
+        <v>4.410614182842783</v>
       </c>
       <c r="L327" t="n">
-        <v>4.1773471589692335</v>
+        <v>4.864926370710988</v>
       </c>
     </row>
     <row r="328">
@@ -12567,37 +12567,37 @@
         <v>328.0</v>
       </c>
       <c r="B329" t="n">
-        <v>3.9587616896771314</v>
+        <v>3.9983493065739024</v>
       </c>
       <c r="C329" t="n">
-        <v>3.6606433077534484</v>
+        <v>3.6316302207450564</v>
       </c>
       <c r="D329" t="n">
-        <v>3.638142070705943</v>
+        <v>3.729054090706818</v>
       </c>
       <c r="E329" t="n">
-        <v>3.5976766473130772</v>
+        <v>3.619558319675189</v>
       </c>
       <c r="F329" t="n">
-        <v>3.9086261994425975</v>
+        <v>4.018021383387857</v>
       </c>
       <c r="G329" t="n">
-        <v>3.528685596046069</v>
+        <v>3.625584219737806</v>
       </c>
       <c r="H329" t="n">
-        <v>3.9291343603700026</v>
+        <v>3.9983493065739024</v>
       </c>
       <c r="I329" t="n">
-        <v>3.9587616896771314</v>
+        <v>4.005703717704512</v>
       </c>
       <c r="J329" t="n">
-        <v>3.6606433077534484</v>
+        <v>4.088424760738707</v>
       </c>
       <c r="K329" t="n">
-        <v>3.638142070705943</v>
+        <v>4.005703717704512</v>
       </c>
       <c r="L329" t="n">
-        <v>3.5976766473130772</v>
+        <v>3.471467995055661</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>5.142359100483188</v>
+        <v>5.246245142917192</v>
       </c>
       <c r="C331" t="n">
-        <v>4.997565377053113</v>
+        <v>5.1437126640781345</v>
       </c>
       <c r="D331" t="n">
-        <v>5.373459886592872</v>
+        <v>5.541581359063784</v>
       </c>
       <c r="E331" t="n">
-        <v>5.142343237528956</v>
+        <v>5.2666585490737825</v>
       </c>
       <c r="F331" t="n">
-        <v>5.185427437660514</v>
+        <v>5.2666585490737825</v>
       </c>
       <c r="G331" t="n">
-        <v>5.269852529742578</v>
+        <v>5.407944480302954</v>
       </c>
       <c r="H331" t="n">
-        <v>5.477640003863602</v>
+        <v>5.505356613534181</v>
       </c>
       <c r="I331" t="n">
-        <v>5.142359100483188</v>
+        <v>5.929110594847932</v>
       </c>
       <c r="J331" t="n">
-        <v>4.997565377053113</v>
+        <v>5.257890524534652</v>
       </c>
       <c r="K331" t="n">
-        <v>5.373459886592872</v>
+        <v>5.0343882726708395</v>
       </c>
       <c r="L331" t="n">
-        <v>5.142343237528956</v>
+        <v>5.798481474617336</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>2.2779878460010576</v>
       </c>
       <c r="C333" t="n">
-        <v>2.213846401246654</v>
+        <v>2.2334669106934375</v>
       </c>
       <c r="D333" t="n">
-        <v>2.3803620232361102</v>
+        <v>2.406226670634361</v>
       </c>
       <c r="E333" t="n">
-        <v>2.2779808189505864</v>
+        <v>2.2868516123431584</v>
       </c>
       <c r="F333" t="n">
-        <v>2.2970664725069754</v>
+        <v>2.2868516123431584</v>
       </c>
       <c r="G333" t="n">
-        <v>2.334465520279114</v>
+        <v>2.348199800501219</v>
       </c>
       <c r="H333" t="n">
-        <v>2.426512250456801</v>
+        <v>2.390497415177756</v>
       </c>
       <c r="I333" t="n">
-        <v>2.2779878460010576</v>
+        <v>2.574496902969614</v>
       </c>
       <c r="J333" t="n">
-        <v>2.213846401246654</v>
+        <v>2.283044422097665</v>
       </c>
       <c r="K333" t="n">
-        <v>2.3803620232361102</v>
+        <v>2.1859968386489577</v>
       </c>
       <c r="L333" t="n">
-        <v>2.2779808189505864</v>
+        <v>2.517776040693315</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.860288533186575</v>
+        <v>1.8792710692394992</v>
       </c>
       <c r="C341" t="n">
-        <v>1.9028309106661685</v>
+        <v>1.9023154710830927</v>
       </c>
       <c r="D341" t="n">
-        <v>1.8120172955435696</v>
+        <v>1.8028335477688635</v>
       </c>
       <c r="E341" t="n">
-        <v>1.8877487436740727</v>
+        <v>1.8479312305590196</v>
       </c>
       <c r="F341" t="n">
-        <v>1.7376525822889832</v>
+        <v>1.72466733464131</v>
       </c>
       <c r="G341" t="n">
-        <v>1.694415694721191</v>
+        <v>1.7179825772265294</v>
       </c>
       <c r="H341" t="n">
-        <v>1.8750948399986906</v>
+        <v>1.898822848797368</v>
       </c>
       <c r="I341" t="n">
-        <v>1.860288533186575</v>
+        <v>1.6486060227511143</v>
       </c>
       <c r="J341" t="n">
-        <v>1.9028309106661685</v>
+        <v>1.8523442000548627</v>
       </c>
       <c r="K341" t="n">
-        <v>1.8120172955435696</v>
+        <v>1.770934095276131</v>
       </c>
       <c r="L341" t="n">
-        <v>1.8877487436740727</v>
+        <v>1.8146960284553297</v>
       </c>
     </row>
     <row r="342">
@@ -13292,34 +13292,34 @@
         <v>2.5043287685828775</v>
       </c>
       <c r="C348" t="n">
-        <v>2.561599507989931</v>
+        <v>2.535037887366391</v>
       </c>
       <c r="D348" t="n">
-        <v>2.4393458119243174</v>
+        <v>2.402467633618697</v>
       </c>
       <c r="E348" t="n">
-        <v>2.5412958271269535</v>
+        <v>2.462565097074843</v>
       </c>
       <c r="F348" t="n">
-        <v>2.3392357013427785</v>
+        <v>2.2983028329836666</v>
       </c>
       <c r="G348" t="n">
-        <v>2.281030009339437</v>
+        <v>2.2893946820634232</v>
       </c>
       <c r="H348" t="n">
-        <v>2.524261085234064</v>
+        <v>2.530383596343077</v>
       </c>
       <c r="I348" t="n">
-        <v>2.5043287685828775</v>
+        <v>2.1969430373370193</v>
       </c>
       <c r="J348" t="n">
-        <v>2.561599507989931</v>
+        <v>2.468445848736598</v>
       </c>
       <c r="K348" t="n">
-        <v>2.4393458119243174</v>
+        <v>2.3599582171288658</v>
       </c>
       <c r="L348" t="n">
-        <v>2.5412958271269535</v>
+        <v>2.4182756520233535</v>
       </c>
     </row>
     <row r="349">
@@ -13406,34 +13406,34 @@
         <v>2.165600725248808</v>
       </c>
       <c r="C351" t="n">
-        <v>2.2151251951791813</v>
+        <v>2.192156220175683</v>
       </c>
       <c r="D351" t="n">
-        <v>2.1094071695807073</v>
+        <v>2.077517023731487</v>
       </c>
       <c r="E351" t="n">
-        <v>2.197567729660401</v>
+        <v>2.1294858834431007</v>
       </c>
       <c r="F351" t="n">
-        <v>2.022837654108184</v>
+        <v>1.9874412434942663</v>
       </c>
       <c r="G351" t="n">
-        <v>1.972504690482417</v>
+        <v>1.9797379825105175</v>
       </c>
       <c r="H351" t="n">
-        <v>2.182837056171974</v>
+        <v>2.188131454680811</v>
       </c>
       <c r="I351" t="n">
-        <v>2.165600725248808</v>
+        <v>1.8997910716329813</v>
       </c>
       <c r="J351" t="n">
-        <v>2.2151251951791813</v>
+        <v>2.1345712221667825</v>
       </c>
       <c r="K351" t="n">
-        <v>2.1094071695807073</v>
+        <v>2.0407573041870055</v>
       </c>
       <c r="L351" t="n">
-        <v>2.197567729660401</v>
+        <v>2.091186896693591</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>3.716273289853755</v>
+        <v>3.569094149661527</v>
       </c>
       <c r="C353" t="n">
-        <v>3.8012596230455604</v>
+        <v>3.6128598634793336</v>
       </c>
       <c r="D353" t="n">
-        <v>3.619842490050028</v>
+        <v>3.4239247192579216</v>
       </c>
       <c r="E353" t="n">
-        <v>3.7711301816465803</v>
+        <v>3.509573819296892</v>
       </c>
       <c r="F353" t="n">
-        <v>3.4712851062649093</v>
+        <v>3.275472173725123</v>
       </c>
       <c r="G353" t="n">
-        <v>3.3849113596454217</v>
+        <v>3.2627765445678802</v>
       </c>
       <c r="H353" t="n">
-        <v>3.745851649095153</v>
+        <v>3.6062267076930308</v>
       </c>
       <c r="I353" t="n">
-        <v>3.716273289853755</v>
+        <v>3.131017237060379</v>
       </c>
       <c r="J353" t="n">
-        <v>3.8012596230455604</v>
+        <v>3.517954889951389</v>
       </c>
       <c r="K353" t="n">
-        <v>3.619842490050028</v>
+        <v>3.363341575541836</v>
       </c>
       <c r="L353" t="n">
-        <v>3.7711301816465803</v>
+        <v>3.4464538323334892</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>3.57432704184242</v>
+        <v>3.5389376651905144</v>
       </c>
       <c r="C356" t="n">
-        <v>3.5579931443941013</v>
+        <v>3.5016856902012687</v>
       </c>
       <c r="D356" t="n">
-        <v>3.4596701466535245</v>
+        <v>3.477996550104779</v>
       </c>
       <c r="E356" t="n">
-        <v>3.037429475266342</v>
+        <v>3.0049003125071905</v>
       </c>
       <c r="F356" t="n">
-        <v>3.5042699485476967</v>
+        <v>3.46096841392432</v>
       </c>
       <c r="G356" t="n">
-        <v>3.4064702577483534</v>
+        <v>3.3682086899890544</v>
       </c>
       <c r="H356" t="n">
-        <v>3.117451069982187</v>
+        <v>3.1330871957975774</v>
       </c>
       <c r="I356" t="n">
-        <v>3.57432704184242</v>
+        <v>3.3762521723214887</v>
       </c>
       <c r="J356" t="n">
-        <v>3.5579931443941013</v>
+        <v>3.2278666600068915</v>
       </c>
       <c r="K356" t="n">
-        <v>3.4596701466535245</v>
+        <v>3.1435366250733376</v>
       </c>
       <c r="L356" t="n">
-        <v>3.037429475266342</v>
+        <v>3.4673343871483717</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>5.9589858461216725</v>
+        <v>5.8999859862590815</v>
       </c>
       <c r="C362" t="n">
-        <v>5.9317545764121276</v>
+        <v>5.837880871337485</v>
       </c>
       <c r="D362" t="n">
-        <v>5.7678341110978115</v>
+        <v>5.798387213121753</v>
       </c>
       <c r="E362" t="n">
-        <v>5.0638900805157165</v>
+        <v>5.009658663468871</v>
       </c>
       <c r="F362" t="n">
-        <v>5.842189251272733</v>
+        <v>5.769998534274703</v>
       </c>
       <c r="G362" t="n">
-        <v>5.6791412239361065</v>
+        <v>5.615352953288505</v>
       </c>
       <c r="H362" t="n">
-        <v>5.197299123592538</v>
+        <v>5.223367094243052</v>
       </c>
       <c r="I362" t="n">
-        <v>5.9589858461216725</v>
+        <v>5.628762749541452</v>
       </c>
       <c r="J362" t="n">
-        <v>5.9317545764121276</v>
+        <v>5.381379911513173</v>
       </c>
       <c r="K362" t="n">
-        <v>5.7678341110978115</v>
+        <v>5.2407879962549195</v>
       </c>
       <c r="L362" t="n">
-        <v>5.0638900805157165</v>
+        <v>5.780611649385558</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>2.1512852129008637</v>
+        <v>2.1086855057147083</v>
       </c>
       <c r="C364" t="n">
-        <v>1.9921976808310389</v>
+        <v>1.9630271019584131</v>
       </c>
       <c r="D364" t="n">
-        <v>2.0575192495383905</v>
+        <v>2.045635108235419</v>
       </c>
       <c r="E364" t="n">
-        <v>1.9996247275812207</v>
+        <v>2.0056552688009712</v>
       </c>
       <c r="F364" t="n">
-        <v>2.2679735125531018</v>
+        <v>2.26512385292593</v>
       </c>
       <c r="G364" t="n">
-        <v>2.239355438229927</v>
+        <v>2.2376844375998193</v>
       </c>
       <c r="H364" t="n">
-        <v>2.0995724830991174</v>
+        <v>2.0535947782803783</v>
       </c>
       <c r="I364" t="n">
-        <v>2.1512852129008637</v>
+        <v>2.146668801248454</v>
       </c>
       <c r="J364" t="n">
-        <v>1.9921976808310389</v>
+        <v>2.27208918044838</v>
       </c>
       <c r="K364" t="n">
-        <v>2.0575192495383905</v>
+        <v>2.050175918059687</v>
       </c>
       <c r="L364" t="n">
-        <v>1.9996247275812207</v>
+        <v>2.26512385292593</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>3.308938845519599</v>
+        <v>3.342028233974795</v>
       </c>
       <c r="C366" t="n">
-        <v>3.1621042496555387</v>
+        <v>3.165669126661088</v>
       </c>
       <c r="D366" t="n">
-        <v>3.4908708930081382</v>
+        <v>3.4969600817382664</v>
       </c>
       <c r="E366" t="n">
-        <v>3.456213093558813</v>
+        <v>3.4113628500593776</v>
       </c>
       <c r="F366" t="n">
-        <v>3.6301502438912987</v>
+        <v>3.5757401590668967</v>
       </c>
       <c r="G366" t="n">
-        <v>3.5692196177870383</v>
+        <v>3.503392256662591</v>
       </c>
       <c r="H366" t="n">
-        <v>3.17487725739326</v>
+        <v>3.170939384549979</v>
       </c>
       <c r="I366" t="n">
-        <v>3.308938845519599</v>
+        <v>3.1762272227440413</v>
       </c>
       <c r="J366" t="n">
-        <v>3.1621042496555387</v>
+        <v>3.538100789409779</v>
       </c>
       <c r="K366" t="n">
-        <v>3.4908708930081382</v>
+        <v>3.403235721096997</v>
       </c>
       <c r="L366" t="n">
-        <v>3.456213093558813</v>
+        <v>3.460952619175807</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>2.6766777387590333</v>
       </c>
       <c r="C381" t="n">
-        <v>2.475107930075989</v>
+        <v>2.431179224709185</v>
       </c>
       <c r="D381" t="n">
-        <v>2.459893940192069</v>
+        <v>2.496399215249194</v>
       </c>
       <c r="E381" t="n">
-        <v>2.4325336425849713</v>
+        <v>2.4230977424822346</v>
       </c>
       <c r="F381" t="n">
-        <v>2.642779120667806</v>
+        <v>2.68984712593501</v>
       </c>
       <c r="G381" t="n">
-        <v>2.3858860225522927</v>
+        <v>2.427131755350264</v>
       </c>
       <c r="H381" t="n">
-        <v>2.656645511756821</v>
+        <v>2.6766777387590333</v>
       </c>
       <c r="I381" t="n">
-        <v>2.6766777387590333</v>
+        <v>2.6816011176450703</v>
       </c>
       <c r="J381" t="n">
-        <v>2.475107930075989</v>
+        <v>2.7369783639633227</v>
       </c>
       <c r="K381" t="n">
-        <v>2.459893940192069</v>
+        <v>2.6816011176450703</v>
       </c>
       <c r="L381" t="n">
-        <v>2.4325336425849713</v>
+        <v>2.323959311884647</v>
       </c>
     </row>
     <row r="382">
@@ -14774,34 +14774,34 @@
         <v>4.6162823822894925</v>
       </c>
       <c r="C387" t="n">
-        <v>4.2686487679955265</v>
+        <v>4.192887944895626</v>
       </c>
       <c r="D387" t="n">
-        <v>4.242410243854764</v>
+        <v>4.305368386206621</v>
       </c>
       <c r="E387" t="n">
-        <v>4.195223816445539</v>
+        <v>4.178950367171253</v>
       </c>
       <c r="F387" t="n">
-        <v>4.557819762298845</v>
+        <v>4.63899472047115</v>
       </c>
       <c r="G387" t="n">
-        <v>4.114773867834084</v>
+        <v>4.1859075522903115</v>
       </c>
       <c r="H387" t="n">
-        <v>4.581734175290464</v>
+        <v>4.6162823822894925</v>
       </c>
       <c r="I387" t="n">
-        <v>4.6162823822894925</v>
+        <v>4.624773395938182</v>
       </c>
       <c r="J387" t="n">
-        <v>4.2686487679955265</v>
+        <v>4.720278731846559</v>
       </c>
       <c r="K387" t="n">
-        <v>4.242410243854764</v>
+        <v>4.624773395938182</v>
       </c>
       <c r="L387" t="n">
-        <v>4.195223816445539</v>
+        <v>4.007973120284726</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>1.6012522914754466</v>
+        <v>1.6177600470576678</v>
       </c>
       <c r="C389" t="n">
-        <v>1.4806684373295855</v>
+        <v>1.4693829443938253</v>
       </c>
       <c r="D389" t="n">
-        <v>1.471567066697122</v>
+        <v>1.5088013224216648</v>
       </c>
       <c r="E389" t="n">
-        <v>1.4551994858694326</v>
+        <v>1.4644985689314929</v>
       </c>
       <c r="F389" t="n">
-        <v>1.5809733318119668</v>
+        <v>1.6257195066926575</v>
       </c>
       <c r="G389" t="n">
-        <v>1.427293769993515</v>
+        <v>1.4669366901713845</v>
       </c>
       <c r="H389" t="n">
-        <v>1.5892685367909845</v>
+        <v>1.6177600470576678</v>
       </c>
       <c r="I389" t="n">
-        <v>1.6012522914754466</v>
+        <v>1.6207356931517136</v>
       </c>
       <c r="J389" t="n">
-        <v>1.4806684373295855</v>
+        <v>1.6542052047453186</v>
       </c>
       <c r="K389" t="n">
-        <v>1.471567066697122</v>
+        <v>1.6207356931517136</v>
       </c>
       <c r="L389" t="n">
-        <v>1.4551994858694326</v>
+        <v>1.4045801895814505</v>
       </c>
     </row>
     <row r="390">
@@ -15040,34 +15040,34 @@
         <v>2.587541445108008</v>
       </c>
       <c r="C394" t="n">
-        <v>2.472718953635132</v>
+        <v>2.4509966682693842</v>
       </c>
       <c r="D394" t="n">
-        <v>2.7298096268567797</v>
+        <v>2.70749631957008</v>
       </c>
       <c r="E394" t="n">
-        <v>2.702707738106917</v>
+        <v>2.6412232754635028</v>
       </c>
       <c r="F394" t="n">
-        <v>2.8387240280237576</v>
+        <v>2.7684912307034915</v>
       </c>
       <c r="G394" t="n">
-        <v>2.7910771757603405</v>
+        <v>2.7124763849775704</v>
       </c>
       <c r="H394" t="n">
-        <v>2.4827072575727502</v>
+        <v>2.4550771277266925</v>
       </c>
       <c r="I394" t="n">
-        <v>2.587541445108008</v>
+        <v>2.4591711986094773</v>
       </c>
       <c r="J394" t="n">
-        <v>2.472718953635132</v>
+        <v>2.7393492180880865</v>
       </c>
       <c r="K394" t="n">
-        <v>2.7298096268567797</v>
+        <v>2.6349309040208815</v>
       </c>
       <c r="L394" t="n">
-        <v>2.702707738106917</v>
+        <v>2.6796177993450345</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>3.214797260868986</v>
+        <v>3.2472699604737234</v>
       </c>
       <c r="C395" t="n">
-        <v>3.4108382912307205</v>
+        <v>3.4281750419974486</v>
       </c>
       <c r="D395" t="n">
-        <v>3.5138759479579793</v>
+        <v>3.4992968829176685</v>
       </c>
       <c r="E395" t="n">
-        <v>3.292306459127341</v>
+        <v>3.2581002105340424</v>
       </c>
       <c r="F395" t="n">
-        <v>3.5477470283288612</v>
+        <v>3.587100537693092</v>
       </c>
       <c r="G395" t="n">
-        <v>3.581788399292115</v>
+        <v>3.6047492501757286</v>
       </c>
       <c r="H395" t="n">
-        <v>3.5674227287824203</v>
+        <v>3.5936985135321846</v>
       </c>
       <c r="I395" t="n">
-        <v>3.214797260868986</v>
+        <v>3.3455035836583957</v>
       </c>
       <c r="J395" t="n">
-        <v>3.4108382912307205</v>
+        <v>3.5936985135321846</v>
       </c>
       <c r="K395" t="n">
-        <v>3.5138759479579793</v>
+        <v>3.6293017213383454</v>
       </c>
       <c r="L395" t="n">
-        <v>3.292306459127341</v>
+        <v>3.490960262541846</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>0.9134361448808096</v>
+        <v>0.9228530123538076</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9691382462828992</v>
+        <v>0.974265060463884</v>
       </c>
       <c r="D397" t="n">
-        <v>0.9984148420683077</v>
+        <v>0.9944774252922761</v>
       </c>
       <c r="E397" t="n">
-        <v>0.9354592143016092</v>
+        <v>0.9259308990137921</v>
       </c>
       <c r="F397" t="n">
-        <v>1.0080387985938162</v>
+        <v>1.0194306531703032</v>
       </c>
       <c r="G397" t="n">
-        <v>1.0177111406222297</v>
+        <v>1.0244463025240735</v>
       </c>
       <c r="H397" t="n">
-        <v>1.013629352060093</v>
+        <v>1.0213057550105138</v>
       </c>
       <c r="I397" t="n">
-        <v>0.9134361448808096</v>
+        <v>0.9507703694488052</v>
       </c>
       <c r="J397" t="n">
-        <v>0.9691382462828992</v>
+        <v>1.0213057550105138</v>
       </c>
       <c r="K397" t="n">
-        <v>0.9984148420683077</v>
+        <v>1.0314239552135485</v>
       </c>
       <c r="L397" t="n">
-        <v>0.9354592143016092</v>
+        <v>0.9921082119776075</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>3.846820609912456</v>
+        <v>3.8087332771410454</v>
       </c>
       <c r="C398" t="n">
-        <v>4.081402953615258</v>
+        <v>4.020917423328512</v>
       </c>
       <c r="D398" t="n">
-        <v>4.204697628001151</v>
+        <v>4.104336457021928</v>
       </c>
       <c r="E398" t="n">
-        <v>3.9395679768918073</v>
+        <v>3.821436111924292</v>
       </c>
       <c r="F398" t="n">
-        <v>4.245227701743808</v>
+        <v>4.207321643307139</v>
       </c>
       <c r="G398" t="n">
-        <v>4.285961544902465</v>
+        <v>4.228021874378014</v>
       </c>
       <c r="H398" t="n">
-        <v>4.268771609454726</v>
+        <v>4.215060430179192</v>
       </c>
       <c r="I398" t="n">
-        <v>3.846820609912456</v>
+        <v>3.9239518065863193</v>
       </c>
       <c r="J398" t="n">
-        <v>4.081402953615258</v>
+        <v>4.215060430179192</v>
       </c>
       <c r="K398" t="n">
-        <v>4.204697628001151</v>
+        <v>4.2568195459887415</v>
       </c>
       <c r="L398" t="n">
-        <v>3.9395679768918073</v>
+        <v>4.094558408436261</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>2.67642901185322</v>
+        <v>2.6499297147061585</v>
       </c>
       <c r="C403" t="n">
-        <v>2.8396398953388915</v>
+        <v>2.7975570314695375</v>
       </c>
       <c r="D403" t="n">
-        <v>2.9254222795454976</v>
+        <v>2.8555959016322148</v>
       </c>
       <c r="E403" t="n">
-        <v>2.7409580785627234</v>
+        <v>2.6587677238036074</v>
       </c>
       <c r="F403" t="n">
-        <v>2.953621115991855</v>
+        <v>2.927247940631538</v>
       </c>
       <c r="G403" t="n">
-        <v>2.9819617251986332</v>
+        <v>2.9416501456232114</v>
       </c>
       <c r="H403" t="n">
-        <v>2.970001811646735</v>
+        <v>2.9326322087847085</v>
       </c>
       <c r="I403" t="n">
-        <v>2.67642901185322</v>
+        <v>2.730093113570088</v>
       </c>
       <c r="J403" t="n">
-        <v>2.8396398953388915</v>
+        <v>2.9326322087847085</v>
       </c>
       <c r="K403" t="n">
-        <v>2.9254222795454976</v>
+        <v>2.961686152390506</v>
       </c>
       <c r="L403" t="n">
-        <v>2.7409580785627234</v>
+        <v>2.848792815247954</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>3.2896788060341797</v>
+        <v>3.35613696373184</v>
       </c>
       <c r="C406" t="n">
-        <v>3.188535500340797</v>
+        <v>3.23591713160206</v>
       </c>
       <c r="D406" t="n">
-        <v>2.9268934750220823</v>
+        <v>3.007858597498173</v>
       </c>
       <c r="E406" t="n">
-        <v>3.084539902885021</v>
+        <v>3.1494254482937887</v>
       </c>
       <c r="F406" t="n">
-        <v>2.9712127587542723</v>
+        <v>3.093699312294388</v>
       </c>
       <c r="G406" t="n">
-        <v>3.186120093084609</v>
+        <v>3.317112114540508</v>
       </c>
       <c r="H406" t="n">
-        <v>3.3184455136913726</v>
+        <v>3.391840548032188</v>
       </c>
       <c r="I406" t="n">
-        <v>3.2896788060341797</v>
+        <v>3.333432470596055</v>
       </c>
       <c r="J406" t="n">
-        <v>3.188535500340797</v>
+        <v>3.317112114540508</v>
       </c>
       <c r="K406" t="n">
-        <v>2.9268934750220823</v>
+        <v>3.0028593879329026</v>
       </c>
       <c r="L406" t="n">
-        <v>3.084539902885021</v>
+        <v>3.012874483216987</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>6.198066814270246</v>
+        <v>6.137301453346028</v>
       </c>
       <c r="C407" t="n">
-        <v>6.007503235432746</v>
+        <v>5.917457818111698</v>
       </c>
       <c r="D407" t="n">
-        <v>5.514544849534469</v>
+        <v>5.500411676095075</v>
       </c>
       <c r="E407" t="n">
-        <v>5.81156566844641</v>
+        <v>5.759292183214621</v>
       </c>
       <c r="F407" t="n">
-        <v>5.5980465826607695</v>
+        <v>5.657386897716919</v>
       </c>
       <c r="G407" t="n">
-        <v>6.002952379121162</v>
+        <v>6.06593748153951</v>
       </c>
       <c r="H407" t="n">
-        <v>6.252266019298656</v>
+        <v>6.202591893570653</v>
       </c>
       <c r="I407" t="n">
-        <v>6.198066814270246</v>
+        <v>6.0957821946788275</v>
       </c>
       <c r="J407" t="n">
-        <v>6.007503235432746</v>
+        <v>6.06593748153951</v>
       </c>
       <c r="K407" t="n">
-        <v>5.514544849534469</v>
+        <v>5.491269720190987</v>
       </c>
       <c r="L407" t="n">
-        <v>5.81156566844641</v>
+        <v>5.509584127352149</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>3.6161344034705354</v>
+        <v>3.6891876237426677</v>
       </c>
       <c r="C410" t="n">
-        <v>3.5049540089810507</v>
+        <v>3.5570376186581187</v>
       </c>
       <c r="D410" t="n">
-        <v>3.2173475936029763</v>
+        <v>3.3063473963587824</v>
       </c>
       <c r="E410" t="n">
-        <v>3.390638271809536</v>
+        <v>3.461962819546601</v>
       </c>
       <c r="F410" t="n">
-        <v>3.2660649596714126</v>
+        <v>3.400706627242878</v>
       </c>
       <c r="G410" t="n">
-        <v>3.5022989056130642</v>
+        <v>3.6462900923811947</v>
       </c>
       <c r="H410" t="n">
-        <v>3.647755813148266</v>
+        <v>3.728434300129091</v>
       </c>
       <c r="I410" t="n">
-        <v>3.6161344034705354</v>
+        <v>3.664230020407329</v>
       </c>
       <c r="J410" t="n">
-        <v>3.5049540089810507</v>
+        <v>3.6462900923811947</v>
       </c>
       <c r="K410" t="n">
-        <v>3.2173475936029763</v>
+        <v>3.3008520836656485</v>
       </c>
       <c r="L410" t="n">
-        <v>3.390638271809536</v>
+        <v>3.311861040085462</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>5.629620170431251</v>
+        <v>5.742212573839876</v>
       </c>
       <c r="C414" t="n">
-        <v>5.45653385185476</v>
+        <v>5.536521376150216</v>
       </c>
       <c r="D414" t="n">
-        <v>5.008786424213821</v>
+        <v>5.146322586215651</v>
       </c>
       <c r="E414" t="n">
-        <v>5.278566412602272</v>
+        <v>5.3885376565367356</v>
       </c>
       <c r="F414" t="n">
-        <v>5.084629917864371</v>
+        <v>5.293192525427587</v>
       </c>
       <c r="G414" t="n">
-        <v>5.452400370681978</v>
+        <v>5.675442658863136</v>
       </c>
       <c r="H414" t="n">
-        <v>5.678848574543768</v>
+        <v>5.803299940927732</v>
       </c>
       <c r="I414" t="n">
-        <v>5.629620170431251</v>
+        <v>5.703366118115377</v>
       </c>
       <c r="J414" t="n">
-        <v>5.45653385185476</v>
+        <v>5.675442658863136</v>
       </c>
       <c r="K414" t="n">
-        <v>5.008786424213821</v>
+        <v>5.137769143869533</v>
       </c>
       <c r="L414" t="n">
-        <v>5.278566412602272</v>
+        <v>5.154904560775918</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>6.6357570103815195</v>
+        <v>6.702114580485334</v>
       </c>
       <c r="C416" t="n">
-        <v>6.431736362962408</v>
+        <v>6.462038833134257</v>
       </c>
       <c r="D416" t="n">
-        <v>5.903966630387171</v>
+        <v>6.0066121198805185</v>
       </c>
       <c r="E416" t="n">
-        <v>6.221962231335889</v>
+        <v>6.2893172850999015</v>
       </c>
       <c r="F416" t="n">
-        <v>5.993365023075698</v>
+        <v>6.178033701434591</v>
       </c>
       <c r="G416" t="n">
-        <v>6.42686413786743</v>
+        <v>6.624183014046628</v>
       </c>
       <c r="H416" t="n">
-        <v>6.693783612143268</v>
+        <v>6.773413670927958</v>
       </c>
       <c r="I416" t="n">
-        <v>6.6357570103815195</v>
+        <v>6.656774322881941</v>
       </c>
       <c r="J416" t="n">
-        <v>6.431736362962408</v>
+        <v>6.624183014046628</v>
       </c>
       <c r="K416" t="n">
-        <v>5.903966630387171</v>
+        <v>5.996628833834575</v>
       </c>
       <c r="L416" t="n">
-        <v>6.221962231335889</v>
+        <v>6.016628707753242</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.2222071028901567</v>
+        <v>1.2345526291819764</v>
       </c>
       <c r="C420" t="n">
-        <v>1.0884047676695163</v>
+        <v>1.1192636683091446</v>
       </c>
       <c r="D420" t="n">
-        <v>1.2081286959447535</v>
+        <v>1.2195974194302854</v>
       </c>
       <c r="E420" t="n">
-        <v>1.0813851391313996</v>
+        <v>1.1149254368394912</v>
       </c>
       <c r="F420" t="n">
-        <v>1.099476574410908</v>
+        <v>1.115543124241155</v>
       </c>
       <c r="G420" t="n">
-        <v>1.2027779566643386</v>
+        <v>1.232286009322587</v>
       </c>
       <c r="H420" t="n">
-        <v>1.1875557628173956</v>
+        <v>1.2021225906477568</v>
       </c>
       <c r="I420" t="n">
-        <v>1.2222071028901567</v>
+        <v>1.0931353630542038</v>
       </c>
       <c r="J420" t="n">
-        <v>1.0884047676695163</v>
+        <v>1.199258689693153</v>
       </c>
       <c r="K420" t="n">
-        <v>1.2081286959447535</v>
+        <v>1.1699914815434431</v>
       </c>
       <c r="L420" t="n">
-        <v>1.0813851391313996</v>
+        <v>1.117400298732771</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.4189509378085965</v>
+        <v>1.4332837755642387</v>
       </c>
       <c r="C423" t="n">
-        <v>1.2636098760578116</v>
+        <v>1.2994362641542305</v>
       </c>
       <c r="D423" t="n">
-        <v>1.4026062702880164</v>
+        <v>1.4159211625896408</v>
       </c>
       <c r="E423" t="n">
-        <v>1.2554602682919302</v>
+        <v>1.2943996892580947</v>
       </c>
       <c r="F423" t="n">
-        <v>1.276463958252051</v>
+        <v>1.2951168084073705</v>
       </c>
       <c r="G423" t="n">
-        <v>1.3963941999261602</v>
+        <v>1.4306522883412214</v>
       </c>
       <c r="H423" t="n">
-        <v>1.3787216252998573</v>
+        <v>1.395633336876324</v>
       </c>
       <c r="I423" t="n">
-        <v>1.4189509378085965</v>
+        <v>1.2691019753441124</v>
       </c>
       <c r="J423" t="n">
-        <v>1.2636098760578116</v>
+        <v>1.3923084216997417</v>
       </c>
       <c r="K423" t="n">
-        <v>1.4026062702880164</v>
+        <v>1.3583299475500932</v>
       </c>
       <c r="L423" t="n">
-        <v>1.2554602682919302</v>
+        <v>1.2972729401139536</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>3.109275880721429</v>
+        <v>3.140368639528643</v>
       </c>
       <c r="C425" t="n">
-        <v>3.0217278073286784</v>
+        <v>3.078993356386562</v>
       </c>
       <c r="D425" t="n">
-        <v>3.249008654381496</v>
+        <v>3.3171550012098074</v>
       </c>
       <c r="E425" t="n">
-        <v>3.1092662893451704</v>
+        <v>3.152587973313811</v>
       </c>
       <c r="F425" t="n">
-        <v>3.1353167190587703</v>
+        <v>3.152587973313811</v>
       </c>
       <c r="G425" t="n">
-        <v>3.1863635046700245</v>
+        <v>3.2371608240959944</v>
       </c>
       <c r="H425" t="n">
-        <v>3.312000117939568</v>
+        <v>3.2954711012514433</v>
       </c>
       <c r="I425" t="n">
-        <v>3.109275880721429</v>
+        <v>3.5491275121779724</v>
       </c>
       <c r="J425" t="n">
-        <v>3.0217278073286784</v>
+        <v>3.147339490152387</v>
       </c>
       <c r="K425" t="n">
-        <v>3.249008654381496</v>
+        <v>3.01355247801386</v>
       </c>
       <c r="L425" t="n">
-        <v>3.1092662893451704</v>
+        <v>3.470933759997861</v>
       </c>
     </row>
     <row r="426">
@@ -16332,34 +16332,34 @@
         <v>1.649708625379476</v>
       </c>
       <c r="C428" t="n">
-        <v>1.469105136832049</v>
+        <v>1.4956502331593151</v>
       </c>
       <c r="D428" t="n">
-        <v>1.6307058971883919</v>
+        <v>1.6297242699631567</v>
       </c>
       <c r="E428" t="n">
-        <v>1.45963019455843</v>
+        <v>1.4898531389689103</v>
       </c>
       <c r="F428" t="n">
-        <v>1.484049621311493</v>
+        <v>1.4906785426092461</v>
       </c>
       <c r="G428" t="n">
-        <v>1.6234835854196388</v>
+        <v>1.6466797854223094</v>
       </c>
       <c r="H428" t="n">
-        <v>1.6029369984892263</v>
+        <v>1.6063729967260905</v>
       </c>
       <c r="I428" t="n">
-        <v>1.649708625379476</v>
+        <v>1.460735487909301</v>
       </c>
       <c r="J428" t="n">
-        <v>1.469105136832049</v>
+        <v>1.6025460216783167</v>
       </c>
       <c r="K428" t="n">
-        <v>1.6307058971883919</v>
+        <v>1.563436821645796</v>
       </c>
       <c r="L428" t="n">
-        <v>1.45963019455843</v>
+        <v>1.4931602486987496</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>2.9465816339356903</v>
+        <v>3.0061085356313613</v>
       </c>
       <c r="C429" t="n">
-        <v>2.815826686927454</v>
+        <v>2.847475938682433</v>
       </c>
       <c r="D429" t="n">
-        <v>3.1085905602958466</v>
+        <v>3.145467606649438</v>
       </c>
       <c r="E429" t="n">
-        <v>3.077728087431386</v>
+        <v>3.0684740713583576</v>
       </c>
       <c r="F429" t="n">
-        <v>3.232617626512104</v>
+        <v>3.216329205150547</v>
       </c>
       <c r="G429" t="n">
-        <v>3.1783594270696707</v>
+        <v>3.1512532597286422</v>
       </c>
       <c r="H429" t="n">
-        <v>2.8272009406586918</v>
+        <v>2.852216463332619</v>
       </c>
       <c r="I429" t="n">
-        <v>2.9465816339356903</v>
+        <v>2.856972801226061</v>
       </c>
       <c r="J429" t="n">
-        <v>2.815826686927454</v>
+        <v>3.1824731086484914</v>
       </c>
       <c r="K429" t="n">
-        <v>3.1085905602958466</v>
+        <v>3.0611638303808504</v>
       </c>
       <c r="L429" t="n">
-        <v>3.077728087431386</v>
+        <v>3.1130793881852568</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>2.227789063845285</v>
+        <v>2.2055111732068324</v>
       </c>
       <c r="C446" t="n">
-        <v>2.252608322799749</v>
+        <v>2.200256829262648</v>
       </c>
       <c r="D446" t="n">
-        <v>2.1050158508626957</v>
+        <v>2.053491503632854</v>
       </c>
       <c r="E446" t="n">
-        <v>2.313555816774827</v>
+        <v>2.2608514167285896</v>
       </c>
       <c r="F446" t="n">
-        <v>2.0236128577903134</v>
+        <v>1.9629283819313754</v>
       </c>
       <c r="G446" t="n">
-        <v>2.079501585192943</v>
+        <v>2.0466654930610555</v>
       </c>
       <c r="H446" t="n">
-        <v>2.200143294707077</v>
+        <v>2.160685020966272</v>
       </c>
       <c r="I446" t="n">
-        <v>2.227789063845285</v>
+        <v>2.045532233877244</v>
       </c>
       <c r="J446" t="n">
-        <v>2.252608322799749</v>
+        <v>2.146560845937043</v>
       </c>
       <c r="K446" t="n">
-        <v>2.1050158508626957</v>
+        <v>2.2719749177848123</v>
       </c>
       <c r="L446" t="n">
-        <v>2.313555816774827</v>
+        <v>2.3117842398879227</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.2474630266603586</v>
+        <v>1.2600636632932913</v>
       </c>
       <c r="C447" t="n">
-        <v>1.2613607104210294</v>
+        <v>1.2570617252578176</v>
       </c>
       <c r="D447" t="n">
-        <v>1.1787154749528714</v>
+        <v>1.1732110261073725</v>
       </c>
       <c r="E447" t="n">
-        <v>1.295488602749526</v>
+        <v>1.2916809277291714</v>
       </c>
       <c r="F447" t="n">
-        <v>1.13313341075959</v>
+        <v>1.12147005091906</v>
       </c>
       <c r="G447" t="n">
-        <v>1.1644286182697394</v>
+        <v>1.1693111556413922</v>
       </c>
       <c r="H447" t="n">
-        <v>1.2319826226117023</v>
+        <v>1.2344533620217475</v>
       </c>
       <c r="I447" t="n">
-        <v>1.2474630266603586</v>
+        <v>1.1686636963421777</v>
       </c>
       <c r="J447" t="n">
-        <v>1.2613607104210294</v>
+        <v>1.226383867772735</v>
       </c>
       <c r="K447" t="n">
-        <v>1.1787154749528714</v>
+        <v>1.2980360619310856</v>
       </c>
       <c r="L447" t="n">
-        <v>1.295488602749526</v>
+        <v>1.3207801227419549</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>2.2009115482863133</v>
       </c>
       <c r="C449" t="n">
-        <v>2.2254313713428564</v>
+        <v>2.1956681623511565</v>
       </c>
       <c r="D449" t="n">
-        <v>2.0796195522625993</v>
+        <v>2.049208917895394</v>
       </c>
       <c r="E449" t="n">
-        <v>2.2856435545813025</v>
+        <v>2.2561363789431064</v>
       </c>
       <c r="F449" t="n">
-        <v>1.9991986585497827</v>
+        <v>1.9588346668722956</v>
       </c>
       <c r="G449" t="n">
-        <v>2.054413107509846</v>
+        <v>2.042397143065729</v>
       </c>
       <c r="H449" t="n">
-        <v>2.173599315927781</v>
+        <v>2.156178881623809</v>
       </c>
       <c r="I449" t="n">
-        <v>2.2009115482863133</v>
+        <v>2.041266247310064</v>
       </c>
       <c r="J449" t="n">
-        <v>2.2254313713428564</v>
+        <v>2.142084162762491</v>
       </c>
       <c r="K449" t="n">
-        <v>2.0796195522625993</v>
+        <v>2.267236681779668</v>
       </c>
       <c r="L449" t="n">
-        <v>2.2856435545813025</v>
+        <v>2.3069629809753276</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>3.3027313211154423</v>
+        <v>3.336432661126824</v>
       </c>
       <c r="C450" t="n">
-        <v>3.3395262516796023</v>
+        <v>3.328484043608518</v>
       </c>
       <c r="D450" t="n">
-        <v>3.120718157260655</v>
+        <v>3.1064617605655487</v>
       </c>
       <c r="E450" t="n">
-        <v>3.4298818425933764</v>
+        <v>3.420149759549969</v>
       </c>
       <c r="F450" t="n">
-        <v>3.00003697643618</v>
+        <v>2.969460524385423</v>
       </c>
       <c r="G450" t="n">
-        <v>3.082892868623451</v>
+        <v>3.096135571837232</v>
       </c>
       <c r="H450" t="n">
-        <v>3.2617460460232452</v>
+        <v>3.2686209718345913</v>
       </c>
       <c r="I450" t="n">
-        <v>3.3027313211154423</v>
+        <v>3.0944212105588473</v>
       </c>
       <c r="J450" t="n">
-        <v>3.3395262516796023</v>
+        <v>3.247254333818212</v>
       </c>
       <c r="K450" t="n">
-        <v>3.120718157260655</v>
+        <v>3.436977065927247</v>
       </c>
       <c r="L450" t="n">
-        <v>3.4298818425933764</v>
+        <v>3.4971994416266687</v>
       </c>
     </row>
     <row r="451">
@@ -17244,34 +17244,34 @@
         <v>2.8309433799329597</v>
       </c>
       <c r="C452" t="n">
-        <v>2.8624822351918615</v>
+        <v>2.824199024980066</v>
       </c>
       <c r="D452" t="n">
-        <v>2.674930398198393</v>
+        <v>2.6358144309490807</v>
       </c>
       <c r="E452" t="n">
-        <v>2.9399307276871243</v>
+        <v>2.9019768428076924</v>
       </c>
       <c r="F452" t="n">
-        <v>2.5714882599435156</v>
+        <v>2.5195696923318263</v>
       </c>
       <c r="G452" t="n">
-        <v>2.64250836926224</v>
+        <v>2.6270527208864256</v>
       </c>
       <c r="H452" t="n">
-        <v>2.795812761691267</v>
+        <v>2.7734055626346836</v>
       </c>
       <c r="I452" t="n">
-        <v>2.8309433799329597</v>
+        <v>2.625598095481153</v>
       </c>
       <c r="J452" t="n">
-        <v>2.8624822351918615</v>
+        <v>2.755276096648859</v>
       </c>
       <c r="K452" t="n">
-        <v>2.674930398198393</v>
+        <v>2.916254712745211</v>
       </c>
       <c r="L452" t="n">
-        <v>2.9399307276871243</v>
+        <v>2.9673530423463053</v>
       </c>
     </row>
     <row r="453">
@@ -17396,34 +17396,34 @@
         <v>1.007834949143148</v>
       </c>
       <c r="C456" t="n">
-        <v>0.9889492339969276</v>
+        <v>1.0029006283310933</v>
       </c>
       <c r="D456" t="n">
-        <v>0.9103686289559554</v>
+        <v>0.91091696872585</v>
       </c>
       <c r="E456" t="n">
-        <v>1.0079009312465643</v>
+        <v>1.0047453254744287</v>
       </c>
       <c r="F456" t="n">
-        <v>0.9586554418981227</v>
+        <v>0.9584673937963581</v>
       </c>
       <c r="G456" t="n">
-        <v>0.9973719113449921</v>
+        <v>0.9783520159856278</v>
       </c>
       <c r="H456" t="n">
-        <v>0.9997535302648872</v>
+        <v>0.9760212193644527</v>
       </c>
       <c r="I456" t="n">
-        <v>1.007834949143148</v>
+        <v>1.0146994594899654</v>
       </c>
       <c r="J456" t="n">
-        <v>0.9889492339969276</v>
+        <v>1.0047453254744287</v>
       </c>
       <c r="K456" t="n">
-        <v>0.9103686289559554</v>
+        <v>1.0029006283310933</v>
       </c>
       <c r="L456" t="n">
-        <v>1.0079009312465643</v>
+        <v>0.8896523486951384</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>2.0343192108085226</v>
+        <v>2.0550775701024873</v>
       </c>
       <c r="C458" t="n">
-        <v>1.9961983129725451</v>
+        <v>2.0450159900459863</v>
       </c>
       <c r="D458" t="n">
-        <v>1.8375830212844402</v>
+        <v>1.857451988786264</v>
       </c>
       <c r="E458" t="n">
-        <v>2.0344523959701046</v>
+        <v>2.0487775144167415</v>
       </c>
       <c r="F458" t="n">
-        <v>1.9350501623877363</v>
+        <v>1.954412123076428</v>
       </c>
       <c r="G458" t="n">
-        <v>2.013199523686836</v>
+        <v>1.9949588823308801</v>
       </c>
       <c r="H458" t="n">
-        <v>2.01800683179387</v>
+        <v>1.9902061518756406</v>
       </c>
       <c r="I458" t="n">
-        <v>2.0343192108085226</v>
+        <v>2.0690750021775255</v>
       </c>
       <c r="J458" t="n">
-        <v>1.9961983129725451</v>
+        <v>2.0487775144167415</v>
       </c>
       <c r="K458" t="n">
-        <v>1.8375830212844402</v>
+        <v>2.0450159900459863</v>
       </c>
       <c r="L458" t="n">
-        <v>2.0344523959701046</v>
+        <v>1.814091274118628</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>3.33079307867589</v>
       </c>
       <c r="C460" t="n">
-        <v>3.435066754965161</v>
+        <v>3.387281391681013</v>
       </c>
       <c r="D460" t="n">
-        <v>3.4816770908653596</v>
+        <v>3.428817641998969</v>
       </c>
       <c r="E460" t="n">
-        <v>3.082326274613406</v>
+        <v>3.1034414952471745</v>
       </c>
       <c r="F460" t="n">
-        <v>3.099607493631667</v>
+        <v>3.096567871619795</v>
       </c>
       <c r="G460" t="n">
-        <v>3.0324284337607477</v>
+        <v>2.971520497752322</v>
       </c>
       <c r="H460" t="n">
-        <v>3.132057055233514</v>
+        <v>3.1086167743936515</v>
       </c>
       <c r="I460" t="n">
-        <v>3.33079307867589</v>
+        <v>3.4225223849334765</v>
       </c>
       <c r="J460" t="n">
-        <v>3.435066754965161</v>
+        <v>3.2708884787076995</v>
       </c>
       <c r="K460" t="n">
-        <v>3.4816770908653596</v>
+        <v>3.428817641998969</v>
       </c>
       <c r="L460" t="n">
-        <v>3.082326274613406</v>
+        <v>3.0982834221844304</v>
       </c>
     </row>
     <row r="461">
@@ -17586,34 +17586,34 @@
         <v>1.630023279587606</v>
       </c>
       <c r="C461" t="n">
-        <v>1.599478441500604</v>
+        <v>1.6220427488474873</v>
       </c>
       <c r="D461" t="n">
-        <v>1.4723859888626365</v>
+        <v>1.4732728469645626</v>
       </c>
       <c r="E461" t="n">
-        <v>1.6301299958358335</v>
+        <v>1.6250262723797702</v>
       </c>
       <c r="F461" t="n">
-        <v>1.5504827340288387</v>
+        <v>1.550178594165641</v>
       </c>
       <c r="G461" t="n">
-        <v>1.6131008706150862</v>
+        <v>1.5823390159706898</v>
       </c>
       <c r="H461" t="n">
-        <v>1.6169527853416354</v>
+        <v>1.578569298760814</v>
       </c>
       <c r="I461" t="n">
-        <v>1.630023279587606</v>
+        <v>1.641125605100127</v>
       </c>
       <c r="J461" t="n">
-        <v>1.599478441500604</v>
+        <v>1.6250262723797702</v>
       </c>
       <c r="K461" t="n">
-        <v>1.4723859888626365</v>
+        <v>1.6220427488474873</v>
       </c>
       <c r="L461" t="n">
-        <v>1.6301299958358335</v>
+        <v>1.4388804837000082</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>1.1961034602382898</v>
+        <v>1.2081853133720102</v>
       </c>
       <c r="C466" t="n">
-        <v>1.173689800883974</v>
+        <v>1.202270084949282</v>
       </c>
       <c r="D466" t="n">
-        <v>1.0804299534486026</v>
+        <v>1.0920007331077433</v>
       </c>
       <c r="E466" t="n">
-        <v>1.1961817681222122</v>
+        <v>1.2044814946628388</v>
       </c>
       <c r="F466" t="n">
-        <v>1.1377369798551675</v>
+        <v>1.1490038418644175</v>
       </c>
       <c r="G466" t="n">
-        <v>1.1836858756669093</v>
+        <v>1.1728413844218095</v>
       </c>
       <c r="H466" t="n">
-        <v>1.186512392680908</v>
+        <v>1.1700472421383386</v>
       </c>
       <c r="I466" t="n">
-        <v>1.1961034602382898</v>
+        <v>1.2164144391743712</v>
       </c>
       <c r="J466" t="n">
-        <v>1.173689800883974</v>
+        <v>1.2044814946628388</v>
       </c>
       <c r="K466" t="n">
-        <v>1.0804299534486026</v>
+        <v>1.202270084949282</v>
       </c>
       <c r="L466" t="n">
-        <v>1.1961817681222122</v>
+        <v>1.0665088590291703</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>1.8699467535852523</v>
+        <v>1.907723455677884</v>
       </c>
       <c r="C468" t="n">
-        <v>1.7316641993493498</v>
+        <v>1.7759465962982288</v>
       </c>
       <c r="D468" t="n">
-        <v>1.7884432143357911</v>
+        <v>1.8506818902879394</v>
       </c>
       <c r="E468" t="n">
-        <v>1.7381199597831332</v>
+        <v>1.814512211482526</v>
       </c>
       <c r="F468" t="n">
-        <v>1.9713749165306276</v>
+        <v>2.049252907809806</v>
       </c>
       <c r="G468" t="n">
-        <v>1.946499425892024</v>
+        <v>2.024428524996037</v>
       </c>
       <c r="H468" t="n">
-        <v>1.824996855435107</v>
+        <v>1.8578829874658134</v>
       </c>
       <c r="I468" t="n">
-        <v>1.8699467535852523</v>
+        <v>1.9420868653078618</v>
       </c>
       <c r="J468" t="n">
-        <v>1.7316641993493498</v>
+        <v>2.0555544253452784</v>
       </c>
       <c r="K468" t="n">
-        <v>1.7884432143357911</v>
+        <v>1.854789951630445</v>
       </c>
       <c r="L468" t="n">
-        <v>1.7381199597831332</v>
+        <v>2.049252907809806</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>2.287790834178764</v>
       </c>
       <c r="C471" t="n">
-        <v>2.3218023646043293</v>
+        <v>2.333394638398194</v>
       </c>
       <c r="D471" t="n">
-        <v>2.360055731919367</v>
+        <v>2.3346873781847526</v>
       </c>
       <c r="E471" t="n">
-        <v>2.597551744167307</v>
+        <v>2.6093564820821724</v>
       </c>
       <c r="F471" t="n">
-        <v>2.5519588648246954</v>
+        <v>2.5524595506314505</v>
       </c>
       <c r="G471" t="n">
-        <v>2.5612612670217407</v>
+        <v>2.5837588690411537</v>
       </c>
       <c r="H471" t="n">
-        <v>2.386036809103314</v>
+        <v>2.405314336507969</v>
       </c>
       <c r="I471" t="n">
-        <v>2.287790834178764</v>
+        <v>2.5837588690411537</v>
       </c>
       <c r="J471" t="n">
-        <v>2.3218023646043293</v>
+        <v>2.5790151270361465</v>
       </c>
       <c r="K471" t="n">
-        <v>2.360055731919367</v>
+        <v>2.637115593266982</v>
       </c>
       <c r="L471" t="n">
-        <v>2.597551744167307</v>
+        <v>2.5917040093206403</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>4.403211003873092</v>
+        <v>4.360042268541003</v>
       </c>
       <c r="C473" t="n">
-        <v>4.077593569425944</v>
+        <v>4.058870379501813</v>
       </c>
       <c r="D473" t="n">
-        <v>4.211292554756959</v>
+        <v>4.229675555575506</v>
       </c>
       <c r="E473" t="n">
-        <v>4.092795112104045</v>
+        <v>4.147010886353249</v>
       </c>
       <c r="F473" t="n">
-        <v>4.642046469282695</v>
+        <v>4.6835034031735185</v>
       </c>
       <c r="G473" t="n">
-        <v>4.583471521147602</v>
+        <v>4.626768052965216</v>
       </c>
       <c r="H473" t="n">
-        <v>4.297366339698449</v>
+        <v>4.246133437865497</v>
       </c>
       <c r="I473" t="n">
-        <v>4.403211003873092</v>
+        <v>4.438578766077882</v>
       </c>
       <c r="J473" t="n">
-        <v>4.077593569425944</v>
+        <v>4.697905324337111</v>
       </c>
       <c r="K473" t="n">
-        <v>4.211292554756959</v>
+        <v>4.239064401239575</v>
       </c>
       <c r="L473" t="n">
-        <v>4.092795112104045</v>
+        <v>4.6835034031735185</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>0.7707519158105438</v>
+        <v>0.7476293583362276</v>
       </c>
       <c r="C475" t="n">
-        <v>0.7137548150128081</v>
+        <v>0.6959865227206393</v>
       </c>
       <c r="D475" t="n">
-        <v>0.7371579063012255</v>
+        <v>0.7252749920343127</v>
       </c>
       <c r="E475" t="n">
-        <v>0.7164157408989663</v>
+        <v>0.7111002364238829</v>
       </c>
       <c r="F475" t="n">
-        <v>0.8125584275507338</v>
+        <v>0.8030941968945332</v>
       </c>
       <c r="G475" t="n">
-        <v>0.8023052842301175</v>
+        <v>0.7933656183949014</v>
       </c>
       <c r="H475" t="n">
-        <v>0.7522245325851723</v>
+        <v>0.7280970738441197</v>
       </c>
       <c r="I475" t="n">
-        <v>0.7707519158105438</v>
+        <v>0.7610962441238096</v>
       </c>
       <c r="J475" t="n">
-        <v>0.7137548150128081</v>
+        <v>0.805563736962077</v>
       </c>
       <c r="K475" t="n">
-        <v>0.7371579063012255</v>
+        <v>0.7268849252017024</v>
       </c>
       <c r="L475" t="n">
-        <v>0.7164157408989663</v>
+        <v>0.8030941968945332</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>4.818793237870457</v>
+        <v>4.6756607654584625</v>
       </c>
       <c r="C482" t="n">
-        <v>4.94579452045945</v>
+        <v>4.772216966977638</v>
       </c>
       <c r="D482" t="n">
-        <v>4.206655569351832</v>
+        <v>4.0520737046243624</v>
       </c>
       <c r="E482" t="n">
-        <v>4.842896143138582</v>
+        <v>4.667076323372928</v>
       </c>
       <c r="F482" t="n">
-        <v>4.870403903701883</v>
+        <v>4.721983104752337</v>
       </c>
       <c r="G482" t="n">
-        <v>4.444314148077134</v>
+        <v>4.239023186547991</v>
       </c>
       <c r="H482" t="n">
-        <v>4.219317957990337</v>
+        <v>4.140066618103114</v>
       </c>
       <c r="I482" t="n">
-        <v>4.818793237870457</v>
+        <v>4.541990896531366</v>
       </c>
       <c r="J482" t="n">
-        <v>4.94579452045945</v>
+        <v>4.22493225067887</v>
       </c>
       <c r="K482" t="n">
-        <v>4.206655569351832</v>
+        <v>4.552837440464025</v>
       </c>
       <c r="L482" t="n">
-        <v>4.842896143138582</v>
+        <v>4.239023186547991</v>
       </c>
     </row>
     <row r="483">
@@ -18460,34 +18460,34 @@
         <v>2.568679778303263</v>
       </c>
       <c r="C484" t="n">
-        <v>2.636378392935895</v>
+        <v>2.621725107028638</v>
       </c>
       <c r="D484" t="n">
-        <v>2.242376993966251</v>
+        <v>2.226098151122477</v>
       </c>
       <c r="E484" t="n">
-        <v>2.58152794221161</v>
+        <v>2.5639637212796167</v>
       </c>
       <c r="F484" t="n">
-        <v>2.596191079810057</v>
+        <v>2.5941280009602403</v>
       </c>
       <c r="G484" t="n">
-        <v>2.369061986489765</v>
+        <v>2.328803068752319</v>
       </c>
       <c r="H484" t="n">
-        <v>2.2491267381522286</v>
+        <v>2.274439044276366</v>
       </c>
       <c r="I484" t="n">
-        <v>2.568679778303263</v>
+        <v>2.4952452186752376</v>
       </c>
       <c r="J484" t="n">
-        <v>2.636378392935895</v>
+        <v>2.321061895078692</v>
       </c>
       <c r="K484" t="n">
-        <v>2.242376993966251</v>
+        <v>2.501204012407692</v>
       </c>
       <c r="L484" t="n">
-        <v>2.58152794221161</v>
+        <v>2.328803068752319</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>5.147441978014142</v>
+        <v>5.096477205954597</v>
       </c>
       <c r="C485" t="n">
-        <v>5.283104933652621</v>
+        <v>5.2017236095798145</v>
       </c>
       <c r="D485" t="n">
-        <v>4.493555626034253</v>
+        <v>4.416766379851157</v>
       </c>
       <c r="E485" t="n">
-        <v>5.173188736641221</v>
+        <v>5.087120151281603</v>
       </c>
       <c r="F485" t="n">
-        <v>5.202572566669851</v>
+        <v>5.146968624853456</v>
       </c>
       <c r="G485" t="n">
-        <v>4.747422867100279</v>
+        <v>4.620541593897372</v>
       </c>
       <c r="H485" t="n">
-        <v>4.507081608080449</v>
+        <v>4.512678786744093</v>
       </c>
       <c r="I485" t="n">
-        <v>5.147441978014142</v>
+        <v>4.950776849516721</v>
       </c>
       <c r="J485" t="n">
-        <v>5.283104933652621</v>
+        <v>4.605182452789858</v>
       </c>
       <c r="K485" t="n">
-        <v>4.493555626034253</v>
+        <v>4.962599598575967</v>
       </c>
       <c r="L485" t="n">
-        <v>5.173188736641221</v>
+        <v>4.620541593897372</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>5.145057095962857</v>
+        <v>5.248997643356047</v>
       </c>
       <c r="C486" t="n">
-        <v>5.280657197051578</v>
+        <v>5.357393718188876</v>
       </c>
       <c r="D486" t="n">
-        <v>4.491473698699325</v>
+        <v>4.548945356216997</v>
       </c>
       <c r="E486" t="n">
-        <v>5.170791925755615</v>
+        <v>5.2393605634786145</v>
       </c>
       <c r="F486" t="n">
-        <v>5.200162141843741</v>
+        <v>5.301000100759401</v>
       </c>
       <c r="G486" t="n">
-        <v>4.745223319512571</v>
+        <v>4.758818877686543</v>
       </c>
       <c r="H486" t="n">
-        <v>4.504993413968363</v>
+        <v>4.647728099159793</v>
       </c>
       <c r="I486" t="n">
-        <v>5.145057095962857</v>
+        <v>5.098936964837757</v>
       </c>
       <c r="J486" t="n">
-        <v>5.280657197051578</v>
+        <v>4.743000089096039</v>
       </c>
       <c r="K486" t="n">
-        <v>4.491473698699325</v>
+        <v>5.1111135290491045</v>
       </c>
       <c r="L486" t="n">
-        <v>5.170791925755615</v>
+        <v>4.758818877686543</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>4.426515269403288</v>
       </c>
       <c r="C491" t="n">
-        <v>4.543177904395782</v>
+        <v>4.51792641358588</v>
       </c>
       <c r="D491" t="n">
-        <v>3.8642091892461585</v>
+        <v>3.83615643349792</v>
       </c>
       <c r="E491" t="n">
-        <v>4.448656057135755</v>
+        <v>4.418388254660977</v>
       </c>
       <c r="F491" t="n">
-        <v>4.473924525017634</v>
+        <v>4.47036929399669</v>
       </c>
       <c r="G491" t="n">
-        <v>4.082520968918436</v>
+        <v>4.013144195838465</v>
       </c>
       <c r="H491" t="n">
-        <v>3.875840785350961</v>
+        <v>3.919460589776842</v>
       </c>
       <c r="I491" t="n">
-        <v>4.426515269403288</v>
+        <v>4.299968082696318</v>
       </c>
       <c r="J491" t="n">
-        <v>4.543177904395782</v>
+        <v>3.999804104263466</v>
       </c>
       <c r="K491" t="n">
-        <v>3.8642091892461585</v>
+        <v>4.3102366617799115</v>
       </c>
       <c r="L491" t="n">
-        <v>4.448656057135755</v>
+        <v>4.013144195838465</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.832406480460447</v>
+        <v>1.795758350851238</v>
       </c>
       <c r="C494" t="n">
-        <v>2.0447696114359184</v>
+        <v>1.9770925783923279</v>
       </c>
       <c r="D494" t="n">
-        <v>2.0410773112483733</v>
+        <v>2.000352491547163</v>
       </c>
       <c r="E494" t="n">
-        <v>2.0757093642793953</v>
+        <v>2.0216328369514662</v>
       </c>
       <c r="F494" t="n">
-        <v>2.005295251768855</v>
+        <v>1.9286980735859884</v>
       </c>
       <c r="G494" t="n">
-        <v>1.9449949069119736</v>
+        <v>1.8894980393613</v>
       </c>
       <c r="H494" t="n">
-        <v>1.8203608888133496</v>
+        <v>1.7887980468494789</v>
       </c>
       <c r="I494" t="n">
-        <v>1.832406480460447</v>
+        <v>1.795758350851238</v>
       </c>
       <c r="J494" t="n">
-        <v>2.0447696114359184</v>
+        <v>1.9567348718886861</v>
       </c>
       <c r="K494" t="n">
-        <v>2.0410773112483733</v>
+        <v>1.9770925783923279</v>
       </c>
       <c r="L494" t="n">
-        <v>2.0757093642793953</v>
+        <v>1.8771465856480747</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>7.987859082803234</v>
+        <v>7.908771369112112</v>
       </c>
       <c r="C496" t="n">
-        <v>8.91359623921664</v>
+        <v>8.70739271275627</v>
       </c>
       <c r="D496" t="n">
-        <v>8.897500698241416</v>
+        <v>8.80983262908454</v>
       </c>
       <c r="E496" t="n">
-        <v>9.048469362841674</v>
+        <v>8.903554251695173</v>
       </c>
       <c r="F496" t="n">
-        <v>8.74151890497519</v>
+        <v>8.494256533351448</v>
       </c>
       <c r="G496" t="n">
-        <v>8.478656563842138</v>
+        <v>8.321614090565385</v>
       </c>
       <c r="H496" t="n">
-        <v>7.935349724387393</v>
+        <v>7.878117215125672</v>
       </c>
       <c r="I496" t="n">
-        <v>7.987859082803234</v>
+        <v>7.908771369112112</v>
       </c>
       <c r="J496" t="n">
-        <v>8.91359623921664</v>
+        <v>8.617734521129057</v>
       </c>
       <c r="K496" t="n">
-        <v>8.897500698241416</v>
+        <v>8.70739271275627</v>
       </c>
       <c r="L496" t="n">
-        <v>9.048469362841674</v>
+        <v>8.267216557930906</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>0.8851239480943044</v>
+        <v>0.8943439892202868</v>
       </c>
       <c r="C508" t="n">
-        <v>0.9877036403858557</v>
+        <v>0.9846541227437657</v>
       </c>
       <c r="D508" t="n">
-        <v>0.985920115084893</v>
+        <v>0.9962382891267044</v>
       </c>
       <c r="E508" t="n">
-        <v>1.0026487502628951</v>
+        <v>1.0068365686735314</v>
       </c>
       <c r="F508" t="n">
-        <v>0.9686359818452539</v>
+        <v>0.9605521412804328</v>
       </c>
       <c r="G508" t="n">
-        <v>0.9395085584922437</v>
+        <v>0.9410292945847951</v>
       </c>
       <c r="H508" t="n">
-        <v>0.8793054565371629</v>
+        <v>0.8908775394921437</v>
       </c>
       <c r="I508" t="n">
-        <v>0.8851239480943044</v>
+        <v>0.8943439892202868</v>
       </c>
       <c r="J508" t="n">
-        <v>0.9877036403858557</v>
+        <v>0.9745153463113955</v>
       </c>
       <c r="K508" t="n">
-        <v>0.985920115084893</v>
+        <v>0.9846541227437657</v>
       </c>
       <c r="L508" t="n">
-        <v>1.0026487502628951</v>
+        <v>0.93487788318731</v>
       </c>
     </row>
     <row r="509">
@@ -19448,34 +19448,34 @@
         <v>4.541653232008181</v>
       </c>
       <c r="C510" t="n">
-        <v>4.5208988641876</v>
+        <v>4.493846356438506</v>
       </c>
       <c r="D510" t="n">
-        <v>4.395966546791414</v>
+        <v>4.46344518245317</v>
       </c>
       <c r="E510" t="n">
-        <v>3.859454166295192</v>
+        <v>3.8563027968524537</v>
       </c>
       <c r="F510" t="n">
-        <v>4.45263646872312</v>
+        <v>4.4415923279992064</v>
       </c>
       <c r="G510" t="n">
-        <v>4.3283690817133165</v>
+        <v>4.322550248181136</v>
       </c>
       <c r="H510" t="n">
-        <v>3.9611321409229228</v>
+        <v>4.020809896969884</v>
       </c>
       <c r="I510" t="n">
-        <v>4.541653232008181</v>
+        <v>4.3328727548166786</v>
       </c>
       <c r="J510" t="n">
-        <v>4.5208988641876</v>
+        <v>4.142443986258389</v>
       </c>
       <c r="K510" t="n">
-        <v>4.395966546791414</v>
+        <v>4.034220046775487</v>
       </c>
       <c r="L510" t="n">
-        <v>3.859454166295192</v>
+        <v>4.449762023428509</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.8633178799319238</v>
+        <v>0.872310774514548</v>
       </c>
       <c r="C517" t="n">
-        <v>0.8903448753112188</v>
+        <v>0.8871046578043822</v>
       </c>
       <c r="D517" t="n">
-        <v>0.9024259429193786</v>
+        <v>0.8979827033116973</v>
       </c>
       <c r="E517" t="n">
-        <v>0.7989170512253989</v>
+        <v>0.8127690284068456</v>
       </c>
       <c r="F517" t="n">
-        <v>0.8033962203040782</v>
+        <v>0.8109688757679719</v>
       </c>
       <c r="G517" t="n">
-        <v>0.7859838857117902</v>
+        <v>0.7782198670565965</v>
       </c>
       <c r="H517" t="n">
-        <v>0.8118069159147355</v>
+        <v>0.8141243968293077</v>
       </c>
       <c r="I517" t="n">
-        <v>0.8633178799319238</v>
+        <v>0.896334020719637</v>
       </c>
       <c r="J517" t="n">
-        <v>0.8903448753112188</v>
+        <v>0.8566221902161772</v>
       </c>
       <c r="K517" t="n">
-        <v>0.9024259429193786</v>
+        <v>0.8979827033116973</v>
       </c>
       <c r="L517" t="n">
-        <v>0.7989170512253989</v>
+        <v>0.8114181661340822</v>
       </c>
     </row>
     <row r="518">
@@ -19752,34 +19752,34 @@
         <v>2.5618237311981917</v>
       </c>
       <c r="C518" t="n">
-        <v>2.5999091822266993</v>
+        <v>2.6128899852179526</v>
       </c>
       <c r="D518" t="n">
-        <v>2.6427445597978667</v>
+        <v>2.6143375701168834</v>
       </c>
       <c r="E518" t="n">
-        <v>2.908687980477805</v>
+        <v>2.921906696664214</v>
       </c>
       <c r="F518" t="n">
-        <v>2.8576339599228686</v>
+        <v>2.858194618162449</v>
       </c>
       <c r="G518" t="n">
-        <v>2.8680506091853415</v>
+        <v>2.8932429868657397</v>
       </c>
       <c r="H518" t="n">
-        <v>2.671837665294034</v>
+        <v>2.69342426597722</v>
       </c>
       <c r="I518" t="n">
-        <v>2.5618237311981917</v>
+        <v>2.8932429868657397</v>
       </c>
       <c r="J518" t="n">
-        <v>2.5999091822266993</v>
+        <v>2.8879310367252136</v>
       </c>
       <c r="K518" t="n">
-        <v>2.6427445597978667</v>
+        <v>2.9529908100926785</v>
       </c>
       <c r="L518" t="n">
-        <v>2.908687980477805</v>
+        <v>2.9021398006004593</v>
       </c>
     </row>
     <row r="519">
@@ -19866,34 +19866,34 @@
         <v>2.9921183095648205</v>
       </c>
       <c r="C521" t="n">
-        <v>3.0857894469369422</v>
+        <v>3.0428628955017674</v>
       </c>
       <c r="D521" t="n">
-        <v>3.12766044767692</v>
+        <v>3.080175743268471</v>
       </c>
       <c r="E521" t="n">
-        <v>2.768915589914052</v>
+        <v>2.7878838166325717</v>
       </c>
       <c r="F521" t="n">
-        <v>2.784439655989239</v>
+        <v>2.781709102496107</v>
       </c>
       <c r="G521" t="n">
-        <v>2.724091357457576</v>
+        <v>2.669376535424542</v>
       </c>
       <c r="H521" t="n">
-        <v>2.813589748808825</v>
+        <v>2.792532873816706</v>
       </c>
       <c r="I521" t="n">
-        <v>2.9921183095648205</v>
+        <v>3.07452058742896</v>
       </c>
       <c r="J521" t="n">
-        <v>3.0857894469369422</v>
+        <v>2.9383048044451225</v>
       </c>
       <c r="K521" t="n">
-        <v>3.12766044767692</v>
+        <v>3.080175743268471</v>
       </c>
       <c r="L521" t="n">
-        <v>2.768915589914052</v>
+        <v>2.783250216018977</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>2.378150210909078</v>
+        <v>2.40217193021119</v>
       </c>
       <c r="C522" t="n">
-        <v>2.45260048728535</v>
+        <v>2.4429113687414974</v>
       </c>
       <c r="D522" t="n">
-        <v>2.4858797626811264</v>
+        <v>2.472867361876827</v>
       </c>
       <c r="E522" t="n">
-        <v>2.200747601822355</v>
+        <v>2.238205697815079</v>
       </c>
       <c r="F522" t="n">
-        <v>2.213086205176659</v>
+        <v>2.233248432279061</v>
       </c>
       <c r="G522" t="n">
-        <v>2.1651210834693053</v>
+        <v>2.1430641175060514</v>
       </c>
       <c r="H522" t="n">
-        <v>2.236254840977361</v>
+        <v>2.2419381152913447</v>
       </c>
       <c r="I522" t="n">
-        <v>2.378150210909078</v>
+        <v>2.4683272149931903</v>
       </c>
       <c r="J522" t="n">
-        <v>2.45260048728535</v>
+        <v>2.3589686614595555</v>
       </c>
       <c r="K522" t="n">
-        <v>2.4858797626811264</v>
+        <v>2.472867361876827</v>
       </c>
       <c r="L522" t="n">
-        <v>2.200747601822355</v>
+        <v>2.234485689386868</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>5.3497600325683665</v>
+        <v>5.29782061477644</v>
       </c>
       <c r="C523" t="n">
-        <v>4.922715655343944</v>
+        <v>4.941003929516943</v>
       </c>
       <c r="D523" t="n">
-        <v>5.429040230619449</v>
+        <v>5.4171707668942295</v>
       </c>
       <c r="E523" t="n">
-        <v>5.209527193499198</v>
+        <v>5.32388615485046</v>
       </c>
       <c r="F523" t="n">
-        <v>5.37453384101709</v>
+        <v>5.307565223841293</v>
       </c>
       <c r="G523" t="n">
-        <v>5.072490568467452</v>
+        <v>5.03000516368848</v>
       </c>
       <c r="H523" t="n">
-        <v>5.168988835205422</v>
+        <v>5.243270070020332</v>
       </c>
       <c r="I523" t="n">
-        <v>5.3497600325683665</v>
+        <v>4.8039061490587365</v>
       </c>
       <c r="J523" t="n">
-        <v>4.922715655343944</v>
+        <v>4.811917112163062</v>
       </c>
       <c r="K523" t="n">
-        <v>5.429040230619449</v>
+        <v>4.699586798289831</v>
       </c>
       <c r="L523" t="n">
-        <v>5.209527193499198</v>
+        <v>4.793266269795522</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>1.0107662123951564</v>
+        <v>1.0209759721163194</v>
       </c>
       <c r="C524" t="n">
-        <v>0.9918255686092385</v>
+        <v>1.015977313365594</v>
       </c>
       <c r="D524" t="n">
-        <v>0.9130164138041674</v>
+        <v>0.9227942913200459</v>
       </c>
       <c r="E524" t="n">
-        <v>1.0108323864059037</v>
+        <v>1.0178460632643531</v>
       </c>
       <c r="F524" t="n">
-        <v>0.9614436677584809</v>
+        <v>0.9709647199226471</v>
       </c>
       <c r="G524" t="n">
-        <v>1.0002727431079672</v>
+        <v>0.991108614999034</v>
       </c>
       <c r="H524" t="n">
-        <v>1.0026612889081281</v>
+        <v>0.9887474274373874</v>
       </c>
       <c r="I524" t="n">
-        <v>1.0107662123951564</v>
+        <v>1.0279299878809076</v>
       </c>
       <c r="J524" t="n">
-        <v>0.9918255686092385</v>
+        <v>1.0178460632643531</v>
       </c>
       <c r="K524" t="n">
-        <v>0.9130164138041674</v>
+        <v>1.015977313365594</v>
       </c>
       <c r="L524" t="n">
-        <v>1.0108323864059037</v>
+        <v>0.9012524047978547</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>1.7551410924280826</v>
       </c>
       <c r="C531" t="n">
-        <v>1.6150370260411824</v>
+        <v>1.6369295348271748</v>
       </c>
       <c r="D531" t="n">
-        <v>1.78115121859602</v>
+        <v>1.794681192329769</v>
       </c>
       <c r="E531" t="n">
-        <v>1.7091337169832463</v>
+        <v>1.763776473617216</v>
       </c>
       <c r="F531" t="n">
-        <v>1.7632688456281496</v>
+        <v>1.7583694319742853</v>
       </c>
       <c r="G531" t="n">
-        <v>1.6641749505532304</v>
+        <v>1.6664151921813681</v>
       </c>
       <c r="H531" t="n">
-        <v>1.6958339543718717</v>
+        <v>1.7370687736997474</v>
       </c>
       <c r="I531" t="n">
-        <v>1.7551410924280826</v>
+        <v>1.591509735694728</v>
       </c>
       <c r="J531" t="n">
-        <v>1.6150370260411824</v>
+        <v>1.5941637271294533</v>
       </c>
       <c r="K531" t="n">
-        <v>1.78115121859602</v>
+        <v>1.55694926402469</v>
       </c>
       <c r="L531" t="n">
-        <v>1.7091337169832463</v>
+        <v>1.587984797673751</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.5412601415416411</v>
+        <v>1.5258475401262248</v>
       </c>
       <c r="C534" t="n">
-        <v>1.4182291133686846</v>
+        <v>1.423079269724496</v>
       </c>
       <c r="D534" t="n">
-        <v>1.5641006817763026</v>
+        <v>1.5602220781229788</v>
       </c>
       <c r="E534" t="n">
-        <v>1.5008592106444156</v>
+        <v>1.5333547856703782</v>
       </c>
       <c r="F534" t="n">
-        <v>1.5483974492496049</v>
+        <v>1.5286541258625606</v>
       </c>
       <c r="G534" t="n">
-        <v>1.461379105591663</v>
+        <v>1.448712888546935</v>
       </c>
       <c r="H534" t="n">
-        <v>1.4891801529929767</v>
+        <v>1.5101362088862622</v>
       </c>
       <c r="I534" t="n">
-        <v>1.5412601415416411</v>
+        <v>1.3835931628364193</v>
       </c>
       <c r="J534" t="n">
-        <v>1.4182291133686846</v>
+        <v>1.385900433926853</v>
       </c>
       <c r="K534" t="n">
-        <v>1.5641006817763026</v>
+        <v>1.3535477089918073</v>
       </c>
       <c r="L534" t="n">
-        <v>1.5008592106444156</v>
+        <v>1.380528726574509</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5.247094328207806</v>
+        <v>5.143191470223493</v>
       </c>
       <c r="C537" t="n">
-        <v>5.325100457843217</v>
+        <v>5.245713559816229</v>
       </c>
       <c r="D537" t="n">
-        <v>5.412835325766854</v>
+        <v>5.248619773157114</v>
       </c>
       <c r="E537" t="n">
-        <v>5.957537210318931</v>
+        <v>5.866104453659491</v>
       </c>
       <c r="F537" t="n">
-        <v>5.852969023825975</v>
+        <v>5.738194240825594</v>
       </c>
       <c r="G537" t="n">
-        <v>5.874304270509199</v>
+        <v>5.8085583602475435</v>
       </c>
       <c r="H537" t="n">
-        <v>5.472423449250859</v>
+        <v>5.407396512791265</v>
       </c>
       <c r="I537" t="n">
-        <v>5.247094328207806</v>
+        <v>5.8085583602475435</v>
       </c>
       <c r="J537" t="n">
-        <v>5.325100457843217</v>
+        <v>5.797893935400395</v>
       </c>
       <c r="K537" t="n">
-        <v>5.412835325766854</v>
+        <v>5.928509819453321</v>
       </c>
       <c r="L537" t="n">
-        <v>5.957537210318931</v>
+        <v>5.8264198610039495</v>
       </c>
     </row>
     <row r="538">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>1.2750669416144842</v>
+        <v>1.2883488889229686</v>
       </c>
       <c r="C547" t="n">
-        <v>1.1790467910533398</v>
+        <v>1.1701845939731401</v>
       </c>
       <c r="D547" t="n">
-        <v>1.1717994279247335</v>
+        <v>1.2015765322446272</v>
       </c>
       <c r="E547" t="n">
-        <v>1.1587660281671226</v>
+        <v>1.166294783669428</v>
       </c>
       <c r="F547" t="n">
-        <v>1.2589189359473627</v>
+        <v>1.2946876293287644</v>
       </c>
       <c r="G547" t="n">
-        <v>1.1365448853872533</v>
+        <v>1.168236450356145</v>
       </c>
       <c r="H547" t="n">
-        <v>1.2655243545306614</v>
+        <v>1.2883488889229686</v>
       </c>
       <c r="I547" t="n">
-        <v>1.2750669416144842</v>
+        <v>1.290718628703639</v>
       </c>
       <c r="J547" t="n">
-        <v>1.1790467910533398</v>
+        <v>1.3173730192313577</v>
       </c>
       <c r="K547" t="n">
-        <v>1.1717994279247335</v>
+        <v>1.290718628703639</v>
       </c>
       <c r="L547" t="n">
-        <v>1.1587660281671226</v>
+        <v>1.1185770905528913</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>2.941368389265504</v>
+        <v>2.9707820731581593</v>
       </c>
       <c r="C549" t="n">
-        <v>3.2322684388536067</v>
+        <v>3.2923427430953525</v>
       </c>
       <c r="D549" t="n">
-        <v>3.2205558278992865</v>
+        <v>3.2762235607515726</v>
       </c>
       <c r="E549" t="n">
-        <v>3.2273546020237758</v>
+        <v>3.2424889757255486</v>
       </c>
       <c r="F549" t="n">
-        <v>3.190442772572308</v>
+        <v>3.1884153069047994</v>
       </c>
       <c r="G549" t="n">
-        <v>2.8446973639794417</v>
+        <v>2.9062699766409357</v>
       </c>
       <c r="H549" t="n">
-        <v>3.2554550536252216</v>
+        <v>3.3147673681239467</v>
       </c>
       <c r="I549" t="n">
-        <v>2.941368389265504</v>
+        <v>3.1310713834064003</v>
       </c>
       <c r="J549" t="n">
-        <v>3.2322684388536067</v>
+        <v>2.9642022688083345</v>
       </c>
       <c r="K549" t="n">
-        <v>3.2205558278992865</v>
+        <v>2.9757361303026197</v>
       </c>
       <c r="L549" t="n">
-        <v>3.2273546020237758</v>
+        <v>3.1960294319635514</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>2.358603074880107</v>
+        <v>2.382189105628908</v>
       </c>
       <c r="C550" t="n">
-        <v>2.563817086337148</v>
+        <v>2.6050435200949513</v>
       </c>
       <c r="D550" t="n">
-        <v>2.721707931699804</v>
+        <v>2.748792087463824</v>
       </c>
       <c r="E550" t="n">
-        <v>2.608020942859646</v>
+        <v>2.6221844693982157</v>
       </c>
       <c r="F550" t="n">
-        <v>2.4613560453183188</v>
+        <v>2.487946667548351</v>
       </c>
       <c r="G550" t="n">
-        <v>2.83318948525081</v>
+        <v>2.8055568820126955</v>
       </c>
       <c r="H550" t="n">
-        <v>2.8001389248161543</v>
+        <v>2.748792087463824</v>
       </c>
       <c r="I550" t="n">
-        <v>2.358603074880107</v>
+        <v>2.715493578141423</v>
       </c>
       <c r="J550" t="n">
-        <v>2.563817086337148</v>
+        <v>2.4339195960250746</v>
       </c>
       <c r="K550" t="n">
-        <v>2.721707931699804</v>
+        <v>2.482436265942937</v>
       </c>
       <c r="L550" t="n">
-        <v>2.608020942859646</v>
+        <v>2.7437453469786433</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>2.056115261977787</v>
+        <v>2.035757685126522</v>
       </c>
       <c r="C552" t="n">
-        <v>2.2350108402216824</v>
+        <v>2.2262033495121147</v>
       </c>
       <c r="D552" t="n">
-        <v>2.3726523875995658</v>
+        <v>2.3490471867438583</v>
       </c>
       <c r="E552" t="n">
-        <v>2.273545608959235</v>
+        <v>2.2408515649673997</v>
       </c>
       <c r="F552" t="n">
-        <v>2.145690296023013</v>
+        <v>2.126135383911653</v>
       </c>
       <c r="G552" t="n">
-        <v>2.469836575191991</v>
+        <v>2.397556923638564</v>
       </c>
       <c r="H552" t="n">
-        <v>2.4410247066540554</v>
+        <v>2.3490471867438583</v>
       </c>
       <c r="I552" t="n">
-        <v>2.056115261977787</v>
+        <v>2.320591135082738</v>
       </c>
       <c r="J552" t="n">
-        <v>2.2350108402216824</v>
+        <v>2.0799652348674385</v>
       </c>
       <c r="K552" t="n">
-        <v>2.3726523875995658</v>
+        <v>2.1214263360909533</v>
       </c>
       <c r="L552" t="n">
-        <v>2.273545608959235</v>
+        <v>2.344734371819439</v>
       </c>
     </row>
     <row r="553">
@@ -21120,34 +21120,34 @@
         <v>2.246183616943438</v>
       </c>
       <c r="C554" t="n">
-        <v>2.4444378811914733</v>
+        <v>2.477550168417583</v>
       </c>
       <c r="D554" t="n">
-        <v>2.1758167041968584</v>
+        <v>2.1937482767605427</v>
       </c>
       <c r="E554" t="n">
-        <v>2.276665161756536</v>
+        <v>2.306440825774144</v>
       </c>
       <c r="F554" t="n">
-        <v>2.3421623942679806</v>
+        <v>2.3479862450787565</v>
       </c>
       <c r="G554" t="n">
-        <v>2.27827690380465</v>
+        <v>2.246183616943438</v>
       </c>
       <c r="H554" t="n">
-        <v>2.4911964074467425</v>
+        <v>2.4851687135819187</v>
       </c>
       <c r="I554" t="n">
-        <v>2.246183616943438</v>
+        <v>2.4730014239723257</v>
       </c>
       <c r="J554" t="n">
-        <v>2.4444378811914733</v>
+        <v>2.1471223839628095</v>
       </c>
       <c r="K554" t="n">
-        <v>2.1758167041968584</v>
+        <v>2.4475374483737453</v>
       </c>
       <c r="L554" t="n">
-        <v>2.276665161756536</v>
+        <v>2.50209555895722</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>3.0933781562259974</v>
+        <v>3.1249432394527936</v>
       </c>
       <c r="C557" t="n">
-        <v>3.0062777160457044</v>
+        <v>3.0638694299292295</v>
       </c>
       <c r="D557" t="n">
-        <v>3.232396476352879</v>
+        <v>3.300861231630276</v>
       </c>
       <c r="E557" t="n">
-        <v>3.093368613890436</v>
+        <v>3.1371025522232547</v>
       </c>
       <c r="F557" t="n">
-        <v>3.1192858477827383</v>
+        <v>3.1371025522232547</v>
       </c>
       <c r="G557" t="n">
-        <v>3.1700716312297725</v>
+        <v>3.2212599836045284</v>
       </c>
       <c r="H557" t="n">
-        <v>3.295065864620232</v>
+        <v>3.279283842362361</v>
       </c>
       <c r="I557" t="n">
-        <v>3.0933781562259974</v>
+        <v>3.5316943003230206</v>
       </c>
       <c r="J557" t="n">
-        <v>3.0062777160457044</v>
+        <v>3.131879849459564</v>
       </c>
       <c r="K557" t="n">
-        <v>3.232396476352879</v>
+        <v>2.9987499952614183</v>
       </c>
       <c r="L557" t="n">
-        <v>3.093368613890436</v>
+        <v>3.4538846335956896</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>7.150316750823132</v>
+        <v>7.08156370514214</v>
       </c>
       <c r="C558" t="n">
-        <v>6.948984839568853</v>
+        <v>6.94316180798238</v>
       </c>
       <c r="D558" t="n">
-        <v>7.471656390813113</v>
+        <v>7.480218775979102</v>
       </c>
       <c r="E558" t="n">
-        <v>7.15029469379733</v>
+        <v>7.1091184289872515</v>
       </c>
       <c r="F558" t="n">
-        <v>7.210202154921068</v>
+        <v>7.1091184289872515</v>
       </c>
       <c r="G558" t="n">
-        <v>7.327593052427127</v>
+        <v>7.299831080680719</v>
       </c>
       <c r="H558" t="n">
-        <v>7.616516137685637</v>
+        <v>7.431321357695707</v>
       </c>
       <c r="I558" t="n">
-        <v>7.150316750823132</v>
+        <v>8.003319183232376</v>
       </c>
       <c r="J558" t="n">
-        <v>6.948984839568853</v>
+        <v>7.097283045269826</v>
       </c>
       <c r="K558" t="n">
-        <v>7.471656390813113</v>
+        <v>6.79559195160198</v>
       </c>
       <c r="L558" t="n">
-        <v>7.15029469379733</v>
+        <v>7.826991464748132</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>2.0253339938844976</v>
+        <v>2.0457919130146442</v>
       </c>
       <c r="C568" t="n">
-        <v>1.8036085454374462</v>
+        <v>1.8547451984085752</v>
       </c>
       <c r="D568" t="n">
-        <v>2.00200449751777</v>
+        <v>2.0210094562410355</v>
       </c>
       <c r="E568" t="n">
-        <v>1.791976235112076</v>
+        <v>1.847556263204344</v>
       </c>
       <c r="F568" t="n">
-        <v>1.8219557686813903</v>
+        <v>1.8485798403781517</v>
       </c>
       <c r="G568" t="n">
-        <v>1.9931377235222574</v>
+        <v>2.042035870162676</v>
       </c>
       <c r="H568" t="n">
-        <v>1.967912844214316</v>
+        <v>1.9920517086654619</v>
       </c>
       <c r="I568" t="n">
-        <v>2.0253339938844976</v>
+        <v>1.8114476715734864</v>
       </c>
       <c r="J568" t="n">
-        <v>1.8036085454374462</v>
+        <v>1.9873059041739305</v>
       </c>
       <c r="K568" t="n">
-        <v>2.00200449751777</v>
+        <v>1.93880686384637</v>
       </c>
       <c r="L568" t="n">
-        <v>1.791976235112076</v>
+        <v>1.851657386418876</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>2.317227111918374</v>
+        <v>2.340633446382196</v>
       </c>
       <c r="C576" t="n">
-        <v>2.142726080710523</v>
+        <v>2.125956115337999</v>
       </c>
       <c r="D576" t="n">
-        <v>2.1295551751028063</v>
+        <v>2.182988043022148</v>
       </c>
       <c r="E576" t="n">
-        <v>2.1058690874997783</v>
+        <v>2.118889225169326</v>
       </c>
       <c r="F576" t="n">
-        <v>2.287880733846736</v>
+        <v>2.352149478979657</v>
       </c>
       <c r="G576" t="n">
-        <v>2.0654857689250496</v>
+        <v>2.122416786707766</v>
       </c>
       <c r="H576" t="n">
-        <v>2.299885009486891</v>
+        <v>2.340633446382196</v>
       </c>
       <c r="I576" t="n">
-        <v>2.317227111918374</v>
+        <v>2.344938718220864</v>
       </c>
       <c r="J576" t="n">
-        <v>2.142726080710523</v>
+        <v>2.3933636118956407</v>
       </c>
       <c r="K576" t="n">
-        <v>2.1295551751028063</v>
+        <v>2.344938718220864</v>
       </c>
       <c r="L576" t="n">
-        <v>2.1058690874997783</v>
+        <v>2.0321971579404425</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>5.396707739512925</v>
+        <v>5.343798840105935</v>
       </c>
       <c r="C577" t="n">
-        <v>4.990303438083549</v>
+        <v>4.8536783240532495</v>
       </c>
       <c r="D577" t="n">
-        <v>4.959629048049025</v>
+        <v>4.983885447889159</v>
       </c>
       <c r="E577" t="n">
-        <v>4.90446531738638</v>
+        <v>4.837544213201812</v>
       </c>
       <c r="F577" t="n">
-        <v>5.328361471315343</v>
+        <v>5.370090595328032</v>
       </c>
       <c r="G577" t="n">
-        <v>4.81041455871084</v>
+        <v>4.845597836158732</v>
       </c>
       <c r="H577" t="n">
-        <v>5.356318837652575</v>
+        <v>5.343798840105935</v>
       </c>
       <c r="I577" t="n">
-        <v>5.396707739512925</v>
+        <v>5.35362801976385</v>
       </c>
       <c r="J577" t="n">
-        <v>4.990303438083549</v>
+        <v>5.464184797054842</v>
       </c>
       <c r="K577" t="n">
-        <v>4.959629048049025</v>
+        <v>5.35362801976385</v>
       </c>
       <c r="L577" t="n">
-        <v>4.90446531738638</v>
+        <v>4.6396213094596055</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>3.0436102688918427</v>
+        <v>3.0134755137543</v>
       </c>
       <c r="C578" t="n">
-        <v>3.2292121730603895</v>
+        <v>3.1813559302645253</v>
       </c>
       <c r="D578" t="n">
-        <v>3.326763105405301</v>
+        <v>3.247357195547362</v>
       </c>
       <c r="E578" t="n">
-        <v>3.116992125540848</v>
+        <v>3.02352601579505</v>
       </c>
       <c r="F578" t="n">
-        <v>3.358830560883788</v>
+        <v>3.3288392302733176</v>
       </c>
       <c r="G578" t="n">
-        <v>3.391059239031569</v>
+        <v>3.345217284319664</v>
       </c>
       <c r="H578" t="n">
-        <v>3.377458536176981</v>
+        <v>3.334962170119239</v>
       </c>
       <c r="I578" t="n">
-        <v>3.0436102688918427</v>
+        <v>3.104636588040588</v>
       </c>
       <c r="J578" t="n">
-        <v>3.2292121730603895</v>
+        <v>3.334962170119239</v>
       </c>
       <c r="K578" t="n">
-        <v>3.326763105405301</v>
+        <v>3.36800204553487</v>
       </c>
       <c r="L578" t="n">
-        <v>3.116992125540848</v>
+        <v>3.2396207887577204</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>3.5839562121532405</v>
+        <v>3.5484714971814264</v>
       </c>
       <c r="C584" t="n">
-        <v>3.1915990499500015</v>
+        <v>3.217096728761889</v>
       </c>
       <c r="D584" t="n">
-        <v>3.5426731972616685</v>
+        <v>3.5054857756464854</v>
       </c>
       <c r="E584" t="n">
-        <v>3.1710149433393453</v>
+        <v>3.2046273610295137</v>
       </c>
       <c r="F584" t="n">
-        <v>3.2240656183873284</v>
+        <v>3.2064027783646374</v>
       </c>
       <c r="G584" t="n">
-        <v>3.5269828815710564</v>
+        <v>3.541956557456808</v>
       </c>
       <c r="H584" t="n">
-        <v>3.4823458670492586</v>
+        <v>3.4552579195088207</v>
       </c>
       <c r="I584" t="n">
-        <v>3.5839562121532405</v>
+        <v>3.1419962071030856</v>
       </c>
       <c r="J584" t="n">
-        <v>3.1915990499500015</v>
+        <v>3.4470262162440544</v>
       </c>
       <c r="K584" t="n">
-        <v>3.5426731972616685</v>
+        <v>3.362903553939949</v>
       </c>
       <c r="L584" t="n">
-        <v>3.1710149433393453</v>
+        <v>3.2117408503050435</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>5.533752175347132</v>
+        <v>5.478962549848646</v>
       </c>
       <c r="C585" t="n">
-        <v>5.508464131058398</v>
+        <v>5.421289260521864</v>
       </c>
       <c r="D585" t="n">
-        <v>5.35624104227436</v>
+        <v>5.384613872677813</v>
       </c>
       <c r="E585" t="n">
-        <v>4.70253050978642</v>
+        <v>4.652169050671619</v>
       </c>
       <c r="F585" t="n">
-        <v>5.425290194146235</v>
+        <v>5.358251012053243</v>
       </c>
       <c r="G585" t="n">
-        <v>5.273877286101262</v>
+        <v>5.21464095116559</v>
       </c>
       <c r="H585" t="n">
-        <v>4.826419473680809</v>
+        <v>4.850627232017414</v>
       </c>
       <c r="I585" t="n">
-        <v>5.533752175347132</v>
+        <v>5.227093823365983</v>
       </c>
       <c r="J585" t="n">
-        <v>5.508464131058398</v>
+        <v>4.99736424295869</v>
       </c>
       <c r="K585" t="n">
-        <v>5.35624104227436</v>
+        <v>4.866804977173064</v>
       </c>
       <c r="L585" t="n">
-        <v>4.70253050978642</v>
+        <v>5.368106774484719</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>1.8515177442329254</v>
+        <v>1.8704107824393839</v>
       </c>
       <c r="C596" t="n">
-        <v>1.8721450554531285</v>
+        <v>1.8659547716572857</v>
       </c>
       <c r="D596" t="n">
-        <v>1.7494808027455695</v>
+        <v>1.7414886384175015</v>
       </c>
       <c r="E596" t="n">
-        <v>1.9227985793404432</v>
+        <v>1.9173427542395598</v>
       </c>
       <c r="F596" t="n">
-        <v>1.6818266928690104</v>
+        <v>1.664685473065353</v>
       </c>
       <c r="G596" t="n">
-        <v>1.7282758707413333</v>
+        <v>1.7356997564886139</v>
       </c>
       <c r="H596" t="n">
-        <v>1.8285413175401717</v>
+        <v>1.832395414616919</v>
       </c>
       <c r="I596" t="n">
-        <v>1.8515177442329254</v>
+        <v>1.7347386821479125</v>
       </c>
       <c r="J596" t="n">
-        <v>1.8721450554531285</v>
+        <v>1.8204172348694465</v>
       </c>
       <c r="K596" t="n">
-        <v>1.7494808027455695</v>
+        <v>1.926776175646255</v>
       </c>
       <c r="L596" t="n">
-        <v>1.9227985793404432</v>
+        <v>1.9605369591815272</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>1.822897246852137</v>
+        <v>1.7864393019150944</v>
       </c>
       <c r="C598" t="n">
-        <v>1.8799647959123826</v>
+        <v>1.8167362732572316</v>
       </c>
       <c r="D598" t="n">
-        <v>1.9054739917646517</v>
+        <v>1.8390138474773865</v>
       </c>
       <c r="E598" t="n">
-        <v>1.6869147819072694</v>
+        <v>1.6645014347476912</v>
       </c>
       <c r="F598" t="n">
-        <v>1.6963725554244282</v>
+        <v>1.660814831856285</v>
       </c>
       <c r="G598" t="n">
-        <v>1.6596063798043275</v>
+        <v>1.5937468579529257</v>
       </c>
       <c r="H598" t="n">
-        <v>1.7141317542423509</v>
+        <v>1.6672771466719287</v>
       </c>
       <c r="I598" t="n">
-        <v>1.822897246852137</v>
+        <v>1.8356374460102844</v>
       </c>
       <c r="J598" t="n">
-        <v>1.8799647959123826</v>
+        <v>1.7543100374363714</v>
       </c>
       <c r="K598" t="n">
-        <v>1.9054739917646517</v>
+        <v>1.8390138474773865</v>
       </c>
       <c r="L598" t="n">
-        <v>1.6869147819072694</v>
+        <v>1.6617349511434025</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.9168895106673693</v>
+        <v>1.936252030977141</v>
       </c>
       <c r="C606" t="n">
-        <v>1.967409924061103</v>
+        <v>1.9762372118260365</v>
       </c>
       <c r="D606" t="n">
-        <v>1.6733845047571583</v>
+        <v>1.6780165058614303</v>
       </c>
       <c r="E606" t="n">
-        <v>1.9264775141371961</v>
+        <v>1.9326971016833576</v>
       </c>
       <c r="F606" t="n">
-        <v>1.937419950361964</v>
+        <v>1.9554347151016989</v>
       </c>
       <c r="G606" t="n">
-        <v>1.7679237834085852</v>
+        <v>1.7554347216436557</v>
       </c>
       <c r="H606" t="n">
-        <v>1.6784215334826054</v>
+        <v>1.7144555175821878</v>
       </c>
       <c r="I606" t="n">
-        <v>1.9168895106673693</v>
+        <v>1.880897596989422</v>
       </c>
       <c r="J606" t="n">
-        <v>1.967409924061103</v>
+        <v>1.7495994815431524</v>
       </c>
       <c r="K606" t="n">
-        <v>1.6733845047571583</v>
+        <v>1.8853892921256137</v>
       </c>
       <c r="L606" t="n">
-        <v>1.9264775141371961</v>
+        <v>1.7554347216436557</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>4.812902153167475</v>
+        <v>4.765249656601461</v>
       </c>
       <c r="C607" t="n">
-        <v>4.939748173790207</v>
+        <v>4.863655941661981</v>
       </c>
       <c r="D607" t="n">
-        <v>4.2015128369182095</v>
+        <v>4.129714236783758</v>
       </c>
       <c r="E607" t="n">
-        <v>4.836975592083858</v>
+        <v>4.756500730673727</v>
       </c>
       <c r="F607" t="n">
-        <v>4.864449723782116</v>
+        <v>4.812459563924896</v>
       </c>
       <c r="G607" t="n">
-        <v>4.438880872607413</v>
+        <v>4.320245799962943</v>
       </c>
       <c r="H607" t="n">
-        <v>4.214159745497636</v>
+        <v>4.219393155287775</v>
       </c>
       <c r="I607" t="n">
-        <v>4.812902153167475</v>
+        <v>4.629018580619978</v>
       </c>
       <c r="J607" t="n">
-        <v>4.939748173790207</v>
+        <v>4.305884872025747</v>
       </c>
       <c r="K607" t="n">
-        <v>4.2015128369182095</v>
+        <v>4.640072951829338</v>
       </c>
       <c r="L607" t="n">
-        <v>4.836975592083858</v>
+        <v>4.320245799962943</v>
       </c>
     </row>
     <row r="608">
@@ -23172,34 +23172,34 @@
         <v>1.5136243184854088</v>
       </c>
       <c r="C608" t="n">
-        <v>1.4016918067641881</v>
+        <v>1.4090700350136451</v>
       </c>
       <c r="D608" t="n">
-        <v>1.447651456523385</v>
+        <v>1.4683664482832435</v>
       </c>
       <c r="E608" t="n">
-        <v>1.4069174079574602</v>
+        <v>1.4396687325484303</v>
       </c>
       <c r="F608" t="n">
-        <v>1.5957251236121155</v>
+        <v>1.6259164957877386</v>
       </c>
       <c r="G608" t="n">
-        <v>1.57558971200606</v>
+        <v>1.6062203551304122</v>
       </c>
       <c r="H608" t="n">
-        <v>1.4772397215320174</v>
+        <v>1.474079936669501</v>
       </c>
       <c r="I608" t="n">
-        <v>1.5136243184854088</v>
+        <v>1.54088890567031</v>
       </c>
       <c r="J608" t="n">
-        <v>1.4016918067641881</v>
+        <v>1.630916240460723</v>
       </c>
       <c r="K608" t="n">
-        <v>1.447651456523385</v>
+        <v>1.4716258628128178</v>
       </c>
       <c r="L608" t="n">
-        <v>1.4069174079574602</v>
+        <v>1.6259164957877386</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.9748613540728774</v>
+        <v>3.85679616533804</v>
       </c>
       <c r="C609" t="n">
-        <v>4.435520062359157</v>
+        <v>4.2462523263485075</v>
       </c>
       <c r="D609" t="n">
-        <v>4.427510714280765</v>
+        <v>4.296208237075103</v>
       </c>
       <c r="E609" t="n">
-        <v>4.502634662309274</v>
+        <v>4.341912579484805</v>
       </c>
       <c r="F609" t="n">
-        <v>4.349892168990239</v>
+        <v>4.14231420991316</v>
       </c>
       <c r="G609" t="n">
-        <v>4.219088489258295</v>
+        <v>4.058123293241531</v>
       </c>
       <c r="H609" t="n">
-        <v>3.94873202237953</v>
+        <v>3.841847342312466</v>
       </c>
       <c r="I609" t="n">
-        <v>3.9748613540728774</v>
+        <v>3.85679616533804</v>
       </c>
       <c r="J609" t="n">
-        <v>4.435520062359157</v>
+        <v>4.202529559116989</v>
       </c>
       <c r="K609" t="n">
-        <v>4.427510714280765</v>
+        <v>4.2462523263485075</v>
       </c>
       <c r="L609" t="n">
-        <v>4.502634662309274</v>
+        <v>4.031595760015841</v>
       </c>
     </row>
     <row r="610">
@@ -23286,34 +23286,34 @@
         <v>2.840687174858684</v>
       </c>
       <c r="C611" t="n">
-        <v>3.091413937159978</v>
+        <v>3.133290143959778</v>
       </c>
       <c r="D611" t="n">
-        <v>2.751696058965133</v>
+        <v>2.7743736298558073</v>
       </c>
       <c r="E611" t="n">
-        <v>2.8792363534597976</v>
+        <v>2.9168928238657292</v>
       </c>
       <c r="F611" t="n">
-        <v>2.9620689175389443</v>
+        <v>2.9694341828635014</v>
       </c>
       <c r="G611" t="n">
-        <v>2.881274679681537</v>
+        <v>2.840687174858684</v>
       </c>
       <c r="H611" t="n">
-        <v>3.150548170375241</v>
+        <v>3.142925110298309</v>
       </c>
       <c r="I611" t="n">
-        <v>2.840687174858684</v>
+        <v>3.127537470888048</v>
       </c>
       <c r="J611" t="n">
-        <v>3.091413937159978</v>
+        <v>2.7154071345578443</v>
       </c>
       <c r="K611" t="n">
-        <v>2.751696058965133</v>
+        <v>3.0953338752611534</v>
       </c>
       <c r="L611" t="n">
-        <v>2.8792363534597976</v>
+        <v>3.1643320301091955</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>2.4516388364146215</v>
+        <v>2.501166893715927</v>
       </c>
       <c r="C616" t="n">
-        <v>2.4789519515256044</v>
+        <v>2.4952081884139345</v>
       </c>
       <c r="D616" t="n">
-        <v>2.316529286814811</v>
+        <v>2.3287685085473693</v>
       </c>
       <c r="E616" t="n">
-        <v>2.5460234914825954</v>
+        <v>2.5639256712130907</v>
       </c>
       <c r="F616" t="n">
-        <v>2.226946865186359</v>
+        <v>2.226065115092349</v>
       </c>
       <c r="G616" t="n">
-        <v>2.288451330237271</v>
+        <v>2.32102744975531</v>
       </c>
       <c r="H616" t="n">
-        <v>2.4212152014386974</v>
+        <v>2.450331654557406</v>
       </c>
       <c r="I616" t="n">
-        <v>2.4516388364146215</v>
+        <v>2.3197422736079467</v>
       </c>
       <c r="J616" t="n">
-        <v>2.4789519515256044</v>
+        <v>2.434314089371921</v>
       </c>
       <c r="K616" t="n">
-        <v>2.316529286814811</v>
+        <v>2.5765403126268476</v>
       </c>
       <c r="L616" t="n">
-        <v>2.5460234914825954</v>
+        <v>2.621686199764113</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>3.268182268516086</v>
+        <v>3.3011942106223096</v>
       </c>
       <c r="C617" t="n">
-        <v>3.3704958532606106</v>
+        <v>3.3571805440436773</v>
       </c>
       <c r="D617" t="n">
-        <v>3.4162300281914546</v>
+        <v>3.3983476852745294</v>
       </c>
       <c r="E617" t="n">
-        <v>3.0243860361561086</v>
+        <v>3.0758629717063646</v>
       </c>
       <c r="F617" t="n">
-        <v>3.041342410280759</v>
+        <v>3.0690504300717696</v>
       </c>
       <c r="G617" t="n">
-        <v>2.9754261533714588</v>
+        <v>2.9451142812585474</v>
       </c>
       <c r="H617" t="n">
-        <v>3.0731819990343285</v>
+        <v>3.0809922610837455</v>
       </c>
       <c r="I617" t="n">
-        <v>3.268182268516086</v>
+        <v>3.3921083705863757</v>
       </c>
       <c r="J617" t="n">
-        <v>3.3704958532606106</v>
+        <v>3.241821948841565</v>
       </c>
       <c r="K617" t="n">
-        <v>3.4162300281914546</v>
+        <v>3.3983476852745294</v>
       </c>
       <c r="L617" t="n">
-        <v>3.0243860361561086</v>
+        <v>3.0707507355120147</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>1.5018764946555163</v>
+        <v>1.4721363660484765</v>
       </c>
       <c r="C618" t="n">
-        <v>1.5934621815889283</v>
+        <v>1.5541489343152644</v>
       </c>
       <c r="D618" t="n">
-        <v>1.6415989137513862</v>
+        <v>1.586391725864291</v>
       </c>
       <c r="E618" t="n">
-        <v>1.5380869407700408</v>
+        <v>1.4770462149865886</v>
       </c>
       <c r="F618" t="n">
-        <v>1.657422673487907</v>
+        <v>1.6261971485240103</v>
       </c>
       <c r="G618" t="n">
-        <v>1.6733259889217826</v>
+        <v>1.6341981191164994</v>
       </c>
       <c r="H618" t="n">
-        <v>1.666614690784542</v>
+        <v>1.629188313500519</v>
       </c>
       <c r="I618" t="n">
-        <v>1.5018764946555163</v>
+        <v>1.516670171620269</v>
       </c>
       <c r="J618" t="n">
-        <v>1.5934621815889283</v>
+        <v>1.629188313500519</v>
       </c>
       <c r="K618" t="n">
-        <v>1.6415989137513862</v>
+        <v>1.6453288800679453</v>
       </c>
       <c r="L618" t="n">
-        <v>1.5380869407700408</v>
+        <v>1.582612353599412</v>
       </c>
     </row>
     <row r="619">
@@ -23701,37 +23701,37 @@
         <v>621.0</v>
       </c>
       <c r="B622" t="n">
-        <v>0.559657909554558</v>
+        <v>0.5654876794457513</v>
       </c>
       <c r="C622" t="n">
-        <v>0.5149832396647933</v>
+        <v>0.5274011804857571</v>
       </c>
       <c r="D622" t="n">
-        <v>0.567951700236799</v>
+        <v>0.578227076543181</v>
       </c>
       <c r="E622" t="n">
-        <v>0.5449876407786568</v>
+        <v>0.5682699068637288</v>
       </c>
       <c r="F622" t="n">
-        <v>0.5622495880155939</v>
+        <v>0.5665278159033391</v>
       </c>
       <c r="G622" t="n">
-        <v>0.5306517396109817</v>
+        <v>0.5369011437799266</v>
       </c>
       <c r="H622" t="n">
-        <v>0.5407467752592036</v>
+        <v>0.5596649717306967</v>
       </c>
       <c r="I622" t="n">
-        <v>0.559657909554558</v>
+        <v>0.5127674072107167</v>
       </c>
       <c r="J622" t="n">
-        <v>0.5149832396647933</v>
+        <v>0.5136224948524831</v>
       </c>
       <c r="K622" t="n">
-        <v>0.567951700236799</v>
+        <v>0.5016323930460128</v>
       </c>
       <c r="L622" t="n">
-        <v>0.5449876407786568</v>
+        <v>0.5116317098982488</v>
       </c>
     </row>
     <row r="623">
